--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,17 @@
     <sheet name="grilla de pruebas" sheetId="10" r:id="rId3"/>
     <sheet name="CALCULADORA" sheetId="9" r:id="rId4"/>
     <sheet name="estrategias" sheetId="11" r:id="rId5"/>
+    <sheet name="ESTRUCTURA" sheetId="12" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ESTRUCTURA!$A$1:$G$40</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="110">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -35,13 +39,13 @@
     <t>GANANCIA TOTAL</t>
   </si>
   <si>
-    <t>1038</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>90</t>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>calculadora diaria</t>
@@ -50,7 +54,7 @@
     <t>ganancia diaria</t>
   </si>
   <si>
-    <t>26</t>
+    <t>20</t>
   </si>
   <si>
     <t>ALL IN ONE</t>
@@ -128,12 +132,27 @@
     <t>distancia entre posicion y precio</t>
   </si>
   <si>
+    <t>ataque seria (=SUM(E3:E9)*3)</t>
+  </si>
+  <si>
     <t>ataque</t>
   </si>
   <si>
     <t>margen ratio</t>
   </si>
   <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>primer tp a 0.7 porciento</t>
+  </si>
+  <si>
+    <t>porc distancia entre posicion y precio (se recomienda que sea al menos la mitad del porsentaje que soporta)</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
     <t>Size</t>
   </si>
   <si>
@@ -170,10 +189,169 @@
     <t>compensaciones</t>
   </si>
   <si>
+    <t>máxima variación diaria</t>
+  </si>
+  <si>
     <t>mercado tranquilo</t>
   </si>
   <si>
     <t>mercado movido</t>
+  </si>
+  <si>
+    <t>muy movido</t>
+  </si>
+  <si>
+    <t>ARCHIVO</t>
+  </si>
+  <si>
+    <t>FUNCION</t>
+  </si>
+  <si>
+    <t>MULTI EXCHANGE</t>
+  </si>
+  <si>
+    <t>funciona en binance</t>
+  </si>
+  <si>
+    <t>funciona en kucoin</t>
+  </si>
+  <si>
+    <t>comentarios</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>UTIL</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>truncate</t>
+  </si>
+  <si>
+    <t>obtienecantidaddecimales</t>
+  </si>
+  <si>
+    <t>RoundToTickUp</t>
+  </si>
+  <si>
+    <t>get_tick_size</t>
+  </si>
+  <si>
+    <t>POR SELECCION</t>
+  </si>
+  <si>
+    <t>lista_de_monedas</t>
+  </si>
+  <si>
+    <t>timeindex</t>
+  </si>
+  <si>
+    <t>calculardf</t>
+  </si>
+  <si>
+    <t>CCXT</t>
+  </si>
+  <si>
+    <t>equipoliquidando</t>
+  </si>
+  <si>
+    <t>volumeOf24h</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>printandlog</t>
+  </si>
+  <si>
+    <t>currentprice</t>
+  </si>
+  <si>
+    <t>balancetotal</t>
+  </si>
+  <si>
+    <t>getentryprice</t>
+  </si>
+  <si>
+    <t>get_quantityprecision</t>
+  </si>
+  <si>
+    <t>BINANCE</t>
+  </si>
+  <si>
+    <t>creoposicion</t>
+  </si>
+  <si>
+    <t>get_positionamt</t>
+  </si>
+  <si>
+    <t>get_positionamtusdt</t>
+  </si>
+  <si>
+    <t>get_rounded_price</t>
+  </si>
+  <si>
+    <t>get_priceprecision</t>
+  </si>
+  <si>
+    <t>creotakeprofit</t>
+  </si>
+  <si>
+    <t>stopvelavela</t>
+  </si>
+  <si>
+    <t>creostoploss</t>
+  </si>
+  <si>
+    <t>closeallopenorders</t>
+  </si>
+  <si>
+    <t>coingeckoinfo</t>
+  </si>
+  <si>
+    <t>capitalizacion</t>
+  </si>
+  <si>
+    <t>maxLeverage</t>
+  </si>
+  <si>
+    <t>SANTA3</t>
+  </si>
+  <si>
+    <t>posicionsanta</t>
+  </si>
+  <si>
+    <t>preciostopsantasugerido</t>
+  </si>
+  <si>
+    <t>filtradodemonedas</t>
+  </si>
+  <si>
+    <t>loopfiltradodemonedas</t>
+  </si>
+  <si>
+    <t>formacioninicial</t>
+  </si>
+  <si>
+    <t>creaactualizatps</t>
+  </si>
+  <si>
+    <t>updating</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>main</t>
   </si>
 </sst>
 </file>
@@ -181,14 +359,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.000000"/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +378,14 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -207,6 +393,7 @@
     </font>
     <font>
       <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -245,37 +432,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,7 +461,37 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -320,15 +521,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -352,14 +546,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,20 +574,19 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -421,7 +614,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,43 +644,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,12 +692,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -511,7 +704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,19 +722,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,55 +770,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,8 +1055,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,6 +1072,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,27 +1134,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -962,155 +1155,157 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1135,37 +1330,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1174,19 +1369,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1195,41 +1393,41 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1238,7 +1436,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1645,87 +1843,87 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="46" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="47" customWidth="1"/>
-    <col min="4" max="4" width="21.8888888888889" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.1111111111111" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="20.5740740740741" style="49" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="49" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="50" customWidth="1"/>
+    <col min="4" max="4" width="21.8888888888889" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17.1111111111111" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="53">
         <f>POWER(1+(B2/100),C2)*A2</f>
-        <v>9579.55287250264</v>
-      </c>
-      <c r="E2" s="50">
+        <v>16294.5039997022</v>
+      </c>
+      <c r="E2" s="53">
         <f>D2-A2</f>
-        <v>8541.55287250264</v>
+        <v>14294.5039997022</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
     </row>
     <row r="4" ht="19.5" customHeight="1"/>
     <row r="5" ht="19.5" customHeight="1"/>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="55"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="56" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="56">
         <f>A9*100/A2</f>
-        <v>2.50481695568401</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1744,427 +1942,430 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="17" customWidth="1"/>
-    <col min="3" max="3" width="21.6666666666667" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="17" customWidth="1"/>
-    <col min="5" max="5" width="18.5555555555556" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="17" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="17" customWidth="1"/>
-    <col min="8" max="8" width="1.66666666666667" style="17" customWidth="1"/>
-    <col min="9" max="9" width="32.8888888888889" style="17" customWidth="1"/>
-    <col min="10" max="10" width="31.2222222222222" style="17" customWidth="1"/>
-    <col min="11" max="11" width="8.44444444444444" style="17" customWidth="1"/>
-    <col min="12" max="12" width="31.2222222222222" style="17" customWidth="1"/>
-    <col min="13" max="16374" width="8.44444444444444" style="17" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="17"/>
-    <col min="16376" max="16384" width="8.44444444444444" style="18"/>
+    <col min="1" max="1" width="22" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="19" customWidth="1"/>
+    <col min="3" max="3" width="27.7777777777778" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="19" customWidth="1"/>
+    <col min="5" max="5" width="18.5555555555556" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="19" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="19" customWidth="1"/>
+    <col min="8" max="8" width="1.66666666666667" style="19" customWidth="1"/>
+    <col min="9" max="9" width="32.8888888888889" style="19" customWidth="1"/>
+    <col min="10" max="10" width="31.2222222222222" style="19" customWidth="1"/>
+    <col min="11" max="11" width="8.44444444444444" style="19" customWidth="1"/>
+    <col min="12" max="12" width="31.2222222222222" style="19" customWidth="1"/>
+    <col min="13" max="16374" width="8.44444444444444" style="19" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="19"/>
+    <col min="16376" max="16384" width="8.44444444444444" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="19" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="21" t="s">
+    <row r="2" s="19" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="17" customFormat="1" spans="1:10">
-      <c r="A3" s="25" t="s">
+    <row r="3" s="19" customFormat="1" spans="1:10">
+      <c r="A3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="26">
-        <v>1012</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="B3" s="28">
+        <v>1457</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="30">
         <f>G3/F3</f>
-        <v>68.1022880215343</v>
-      </c>
-      <c r="F3" s="29">
+        <v>68.6339165545087</v>
+      </c>
+      <c r="F3" s="31">
         <v>1.486</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="32">
         <f>B8</f>
-        <v>101.2</v>
-      </c>
-      <c r="I3" s="25" t="s">
+        <v>101.99</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="42">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-5.0463440741829</v>
-      </c>
-    </row>
-    <row r="4" s="17" customFormat="1" spans="1:10">
-      <c r="A4" s="25" t="s">
+        <v>-7.05645174826999</v>
+      </c>
+    </row>
+    <row r="4" s="19" customFormat="1" spans="1:10">
+      <c r="A4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="33">
         <f>-B3*$B$10/100</f>
-        <v>-101.2</v>
-      </c>
-      <c r="D4" s="32">
+        <v>-145.7</v>
+      </c>
+      <c r="D4" s="34">
         <v>1</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="30">
         <f t="shared" ref="E4:E9" si="0">E3*(1+$B$6/100)</f>
-        <v>88.5329744279946</v>
-      </c>
-      <c r="F4" s="33">
+        <v>89.2240915208614</v>
+      </c>
+      <c r="F4" s="35">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
         <v>1.511262</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="32">
         <f t="shared" ref="G4:G13" si="1">E4*F4</f>
-        <v>133.79652</v>
-      </c>
-      <c r="I4" s="25" t="s">
+        <v>134.840979</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="42">
         <f>E18</f>
-        <v>1197.43156581427</v>
-      </c>
-    </row>
-    <row r="5" s="17" customFormat="1" spans="1:10">
-      <c r="A5" s="25" t="s">
+        <v>1206.77910471736</v>
+      </c>
+    </row>
+    <row r="5" s="19" customFormat="1" spans="1:10">
+      <c r="A5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="33">
         <v>1.7</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="34">
         <v>2</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="30">
         <f t="shared" si="0"/>
-        <v>115.092866756393</v>
-      </c>
-      <c r="F5" s="33">
+        <v>115.99131897712</v>
+      </c>
+      <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
         <v>1.536953454</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="32">
         <f t="shared" si="1"/>
-        <v>176.892379092</v>
-      </c>
-      <c r="I5" s="25" t="s">
+        <v>178.2732583359</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="42">
         <f>J4*J10</f>
-        <v>2005.41220559532</v>
-      </c>
-    </row>
-    <row r="6" s="17" customFormat="1" spans="1:10">
-      <c r="A6" s="25" t="s">
+        <v>2064.77710324769</v>
+      </c>
+    </row>
+    <row r="6" s="19" customFormat="1" spans="1:10">
+      <c r="A6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="33">
         <v>30</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="34">
         <v>3</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="30">
         <f t="shared" si="0"/>
-        <v>149.620726783311</v>
-      </c>
-      <c r="F6" s="33">
+        <v>150.788714670256</v>
+      </c>
+      <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
         <v>1.563081662718</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="32">
         <f t="shared" si="1"/>
-        <v>233.869414397533</v>
-      </c>
-      <c r="I6" s="25" t="s">
+        <v>235.695074845893</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="42">
         <f>J3/100*J4*J10</f>
-        <v>-101.2</v>
-      </c>
-    </row>
-    <row r="7" s="17" customFormat="1" spans="1:10">
-      <c r="A7" s="25" t="s">
+        <v>-145.7</v>
+      </c>
+    </row>
+    <row r="7" s="19" customFormat="1" spans="1:10">
+      <c r="A7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="33">
         <v>10</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="34">
         <v>4</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="30">
         <f t="shared" si="0"/>
-        <v>194.506944818304</v>
-      </c>
-      <c r="F7" s="33">
+        <v>196.025329071332</v>
+      </c>
+      <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
         <v>1.58965405098421</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="32">
         <f t="shared" si="1"/>
-        <v>309.198752774979</v>
-      </c>
-      <c r="I7" s="25" t="s">
+        <v>311.612458453756</v>
+      </c>
+      <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="33">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>12.7026536627345</v>
-      </c>
-    </row>
-    <row r="8" s="17" customFormat="1" spans="1:7">
-      <c r="A8" s="25" t="s">
+        <v>15.1400952418302</v>
+      </c>
+    </row>
+    <row r="8" s="19" customFormat="1" spans="1:7">
+      <c r="A8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="33">
         <f>B3*$B$9/100</f>
-        <v>101.2</v>
-      </c>
-      <c r="D8" s="32">
+        <v>101.99</v>
+      </c>
+      <c r="D8" s="34">
         <v>5</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="30">
         <f t="shared" si="0"/>
-        <v>252.859028263795</v>
-      </c>
-      <c r="F8" s="33">
+        <v>254.832927792732</v>
+      </c>
+      <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
         <v>1.61667816985094</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="32">
         <f t="shared" si="1"/>
-        <v>408.791671043799</v>
-      </c>
-    </row>
-    <row r="9" s="17" customFormat="1" spans="1:10">
-      <c r="A9" s="25" t="s">
+        <v>411.982831321711</v>
+      </c>
+    </row>
+    <row r="9" s="19" customFormat="1" spans="1:10">
+      <c r="A9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="26">
-        <v>10</v>
-      </c>
-      <c r="D9" s="32">
+      <c r="B9" s="28">
+        <v>7</v>
+      </c>
+      <c r="D9" s="34">
         <v>6</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="30">
         <f t="shared" si="0"/>
-        <v>328.716736742934</v>
-      </c>
-      <c r="F9" s="33">
+        <v>331.282806130552</v>
+      </c>
+      <c r="F9" s="35">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
         <v>1.6441616987384</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="32">
         <f t="shared" si="1"/>
-        <v>540.463468287007</v>
-      </c>
-      <c r="I9" s="25" t="s">
+        <v>544.682501290432</v>
+      </c>
+      <c r="I9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" s="17" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="25" t="s">
+    <row r="10" s="19" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="33">
         <v>10</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="34">
         <v>7</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="30">
+      <c r="E10" s="30"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="43">
         <f>G18/E18</f>
         <v>1.59024720907573</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>1.67476143342824</v>
-      </c>
-    </row>
-    <row r="11" s="17" customFormat="1" spans="4:7">
-      <c r="D11" s="32">
+        <v>1.7109818152936</v>
+      </c>
+    </row>
+    <row r="11" s="19" customFormat="1" spans="4:7">
+      <c r="D11" s="34">
         <v>8</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="30">
+      <c r="E11" s="30"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="17" customFormat="1" spans="4:7">
-      <c r="D12" s="32">
+    <row r="12" s="19" customFormat="1" spans="4:7">
+      <c r="D12" s="34">
         <v>9</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="30">
+      <c r="E12" s="30"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="17" customFormat="1" spans="4:10">
-      <c r="D13" s="32">
+    <row r="13" s="19" customFormat="1" spans="4:10">
+      <c r="D13" s="34">
         <v>10</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="30">
+      <c r="E13" s="30"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="42"/>
-    </row>
-    <row r="14" s="17" customFormat="1" spans="4:9">
-      <c r="D14" s="32">
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" s="19" customFormat="1" spans="4:9">
+      <c r="D14" s="34">
         <v>11</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="30"/>
-      <c r="I14" s="43" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="32"/>
+      <c r="I14" s="46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" s="17" customFormat="1" spans="4:9">
-      <c r="D15" s="32">
+    <row r="15" s="19" customFormat="1" spans="4:9">
+      <c r="D15" s="34">
         <v>12</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="30"/>
-      <c r="I15" s="31">
+      <c r="E15" s="30"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="32"/>
+      <c r="I15" s="33">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>1.67476143342824</v>
-      </c>
-    </row>
-    <row r="16" s="17" customFormat="1" spans="4:9">
-      <c r="D16" s="32">
+        <v>1.7109818152936</v>
+      </c>
+    </row>
+    <row r="16" s="19" customFormat="1" spans="4:9">
+      <c r="D16" s="34">
         <v>13</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="30"/>
-      <c r="I16" s="44" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="32"/>
+      <c r="I16" s="47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" s="17" customFormat="1" ht="18.15" spans="4:10">
-      <c r="D17" s="34" t="s">
+    <row r="17" s="19" customFormat="1" ht="18.15" spans="3:10">
+      <c r="C17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36">
+      <c r="D17" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
         <v>1.65347861503125</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="40">
         <f>E17*F17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="33">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>5.31453373225077</v>
-      </c>
-      <c r="J17" s="40" t="str">
+        <v>7.59219104607256</v>
+      </c>
+      <c r="J17" s="43" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
         <v>TIENE QUE BAJAR</v>
       </c>
     </row>
-    <row r="18" s="17" customFormat="1" spans="4:9">
-      <c r="D18" s="38"/>
-      <c r="E18" s="38">
+    <row r="18" s="19" customFormat="1" spans="4:9">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41">
         <f>SUM(E3:E17)</f>
-        <v>1197.43156581427</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38">
+        <v>1206.77910471736</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41">
         <f>SUM(G3:G17)</f>
-        <v>1904.21220559532</v>
-      </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" s="17" customFormat="1" spans="9:9">
-      <c r="I19" s="45">
+        <v>1919.07710324769</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" s="19" customFormat="1" spans="9:9">
+      <c r="I19" s="48">
         <f>G18/B3</f>
-        <v>1.88163261422462</v>
-      </c>
-    </row>
-    <row r="20" s="17" customFormat="1"/>
-    <row r="21" s="17" customFormat="1"/>
-    <row r="22" s="17" customFormat="1" spans="16376:16384">
-      <c r="XEV22" s="18"/>
-      <c r="XEW22" s="18"/>
-      <c r="XEX22" s="18"/>
-      <c r="XEY22" s="18"/>
-      <c r="XEZ22" s="18"/>
-      <c r="XFA22" s="18"/>
-      <c r="XFB22" s="18"/>
-      <c r="XFC22" s="18"/>
-      <c r="XFD22" s="18"/>
-    </row>
-    <row r="23" s="17" customFormat="1" spans="16376:16384">
-      <c r="XEV23" s="18"/>
-      <c r="XEW23" s="18"/>
-      <c r="XEX23" s="18"/>
-      <c r="XEY23" s="18"/>
-      <c r="XEZ23" s="18"/>
-      <c r="XFA23" s="18"/>
-      <c r="XFB23" s="18"/>
-      <c r="XFC23" s="18"/>
-      <c r="XFD23" s="18"/>
-    </row>
-    <row r="24" s="17" customFormat="1" spans="16376:16384">
-      <c r="XEV24" s="18"/>
-      <c r="XEW24" s="18"/>
-      <c r="XEX24" s="18"/>
-      <c r="XEY24" s="18"/>
-      <c r="XEZ24" s="18"/>
-      <c r="XFA24" s="18"/>
-      <c r="XFB24" s="18"/>
-      <c r="XFC24" s="18"/>
-      <c r="XFD24" s="18"/>
+        <v>1.31714282995724</v>
+      </c>
+    </row>
+    <row r="20" s="19" customFormat="1"/>
+    <row r="21" s="19" customFormat="1"/>
+    <row r="22" s="19" customFormat="1" spans="16376:16384">
+      <c r="XEV22" s="20"/>
+      <c r="XEW22" s="20"/>
+      <c r="XEX22" s="20"/>
+      <c r="XEY22" s="20"/>
+      <c r="XEZ22" s="20"/>
+      <c r="XFA22" s="20"/>
+      <c r="XFB22" s="20"/>
+      <c r="XFC22" s="20"/>
+      <c r="XFD22" s="20"/>
+    </row>
+    <row r="23" s="19" customFormat="1" spans="16376:16384">
+      <c r="XEV23" s="20"/>
+      <c r="XEW23" s="20"/>
+      <c r="XEX23" s="20"/>
+      <c r="XEY23" s="20"/>
+      <c r="XEZ23" s="20"/>
+      <c r="XFA23" s="20"/>
+      <c r="XFB23" s="20"/>
+      <c r="XFC23" s="20"/>
+      <c r="XFD23" s="20"/>
+    </row>
+    <row r="24" s="19" customFormat="1" spans="16376:16384">
+      <c r="XEV24" s="20"/>
+      <c r="XEW24" s="20"/>
+      <c r="XEX24" s="20"/>
+      <c r="XEY24" s="20"/>
+      <c r="XEZ24" s="20"/>
+      <c r="XFA24" s="20"/>
+      <c r="XFB24" s="20"/>
+      <c r="XFC24" s="20"/>
+      <c r="XFD24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2232,6 +2433,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2241,428 +2443,447 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="17" customWidth="1"/>
-    <col min="3" max="3" width="21.6666666666667" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="17" customWidth="1"/>
-    <col min="5" max="5" width="18.5555555555556" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="17" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="17" customWidth="1"/>
-    <col min="8" max="8" width="1.66666666666667" style="17" customWidth="1"/>
-    <col min="9" max="9" width="32.8888888888889" style="17" customWidth="1"/>
-    <col min="10" max="10" width="31.2222222222222" style="17" customWidth="1"/>
-    <col min="11" max="11" width="8.44444444444444" style="17" customWidth="1"/>
-    <col min="12" max="12" width="31.2222222222222" style="17" customWidth="1"/>
-    <col min="13" max="16374" width="8.44444444444444" style="17" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="17"/>
-    <col min="16376" max="16384" width="8.44444444444444" style="18"/>
+    <col min="1" max="1" width="22" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="19" customWidth="1"/>
+    <col min="3" max="3" width="4.55555555555556" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="19" customWidth="1"/>
+    <col min="5" max="5" width="18.5555555555556" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="19" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="19" customWidth="1"/>
+    <col min="8" max="8" width="1.66666666666667" style="19" customWidth="1"/>
+    <col min="9" max="9" width="32.8888888888889" style="19" customWidth="1"/>
+    <col min="10" max="10" width="31.2222222222222" style="19" customWidth="1"/>
+    <col min="11" max="11" width="8.44444444444444" style="19" customWidth="1"/>
+    <col min="12" max="12" width="31.2222222222222" style="19" customWidth="1"/>
+    <col min="13" max="16374" width="8.44444444444444" style="19" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="19"/>
+    <col min="16376" max="16384" width="8.44444444444444" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="19" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="21" t="s">
+    <row r="2" s="19" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="17" customFormat="1" spans="1:10">
-      <c r="A3" s="25" t="s">
+    <row r="3" s="19" customFormat="1" spans="1:10">
+      <c r="A3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="26">
-        <v>1012</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="B3" s="28">
+        <v>1457</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="30">
         <f>G3/F3</f>
-        <v>68.1022880215343</v>
-      </c>
-      <c r="F3" s="29">
-        <v>1.486</v>
-      </c>
-      <c r="G3" s="30">
+        <v>41.6682554814109</v>
+      </c>
+      <c r="F3" s="31">
+        <v>2.098</v>
+      </c>
+      <c r="G3" s="32">
         <f>B8</f>
-        <v>101.2</v>
-      </c>
-      <c r="I3" s="25" t="s">
+        <v>87.42</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="42">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-5.0463440741829</v>
-      </c>
-    </row>
-    <row r="4" s="17" customFormat="1" spans="1:10">
-      <c r="A4" s="25" t="s">
+        <v>-4.51931637716717</v>
+      </c>
+    </row>
+    <row r="4" s="19" customFormat="1" spans="1:10">
+      <c r="A4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="33">
         <f>-B3*$B$10/100</f>
-        <v>-101.2</v>
-      </c>
-      <c r="D4" s="32">
+        <v>-145.7</v>
+      </c>
+      <c r="D4" s="34">
         <v>1</v>
       </c>
-      <c r="E4" s="28">
-        <f t="shared" ref="E4:E9" si="0">E3*(1+$B$6/100)</f>
-        <v>88.5329744279946</v>
-      </c>
-      <c r="F4" s="33">
+      <c r="E4" s="30">
+        <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
+        <v>54.1687321258341</v>
+      </c>
+      <c r="F4" s="35">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>1.511262</v>
-      </c>
-      <c r="G4" s="30">
+        <v>2.133666</v>
+      </c>
+      <c r="G4" s="32">
         <f t="shared" ref="G4:G17" si="1">E4*F4</f>
-        <v>133.79652</v>
-      </c>
-      <c r="I4" s="25" t="s">
+        <v>115.577982</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="42">
         <f>E18</f>
-        <v>1197.43156581427</v>
-      </c>
-    </row>
-    <row r="5" s="17" customFormat="1" spans="1:10">
-      <c r="A5" s="25" t="s">
+        <v>1334.00911215072</v>
+      </c>
+    </row>
+    <row r="5" s="19" customFormat="1" spans="1:10">
+      <c r="A5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="31">
-        <v>1.7</v>
-      </c>
-      <c r="D5" s="32">
+      <c r="B5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="34">
         <v>2</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="30">
         <f t="shared" si="0"/>
-        <v>115.092866756393</v>
-      </c>
-      <c r="F5" s="33">
+        <v>70.4193517635844</v>
+      </c>
+      <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>1.536953454</v>
-      </c>
-      <c r="G5" s="30">
+        <v>2.169938322</v>
+      </c>
+      <c r="G5" s="32">
         <f t="shared" si="1"/>
-        <v>176.892379092</v>
-      </c>
-      <c r="I5" s="25" t="s">
+        <v>152.8056500022</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="42">
         <f>J4*J10</f>
-        <v>2005.41220559532</v>
-      </c>
-    </row>
-    <row r="6" s="17" customFormat="1" spans="1:10">
-      <c r="A6" s="25" t="s">
+        <v>3223.93892881932</v>
+      </c>
+    </row>
+    <row r="6" s="19" customFormat="1" spans="1:10">
+      <c r="A6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="33">
         <v>30</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="34">
         <v>3</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="30">
         <f t="shared" si="0"/>
-        <v>149.620726783311</v>
-      </c>
-      <c r="F6" s="33">
+        <v>91.5451572926597</v>
+      </c>
+      <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>1.563081662718</v>
-      </c>
-      <c r="G6" s="30">
+        <v>2.206827273474</v>
+      </c>
+      <c r="G6" s="32">
         <f t="shared" si="1"/>
-        <v>233.869414397533</v>
-      </c>
-      <c r="I6" s="25" t="s">
+        <v>202.024349867909</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="42">
         <f>J3/100*J4*J10</f>
-        <v>-101.2</v>
-      </c>
-    </row>
-    <row r="7" s="17" customFormat="1" spans="1:10">
-      <c r="A7" s="25" t="s">
+        <v>-145.7</v>
+      </c>
+    </row>
+    <row r="7" s="19" customFormat="1" spans="1:10">
+      <c r="A7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="33">
         <v>10</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="34">
         <v>4</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="30">
         <f t="shared" si="0"/>
-        <v>194.506944818304</v>
-      </c>
-      <c r="F7" s="33">
+        <v>119.008704480458</v>
+      </c>
+      <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>1.58965405098421</v>
-      </c>
-      <c r="G7" s="30">
+        <v>2.24434333712306</v>
+      </c>
+      <c r="G7" s="32">
         <f t="shared" si="1"/>
-        <v>309.198752774979</v>
-      </c>
-      <c r="I7" s="25" t="s">
+        <v>267.096392960362</v>
+      </c>
+      <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="33">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>12.7026536627345</v>
-      </c>
-    </row>
-    <row r="8" s="17" customFormat="1" spans="1:7">
-      <c r="A8" s="25" t="s">
+        <v>15.1920550884315</v>
+      </c>
+    </row>
+    <row r="8" s="19" customFormat="1" spans="1:7">
+      <c r="A8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="33">
         <f>B3*$B$9/100</f>
-        <v>101.2</v>
-      </c>
-      <c r="D8" s="32">
+        <v>87.42</v>
+      </c>
+      <c r="D8" s="34">
         <v>5</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="30">
         <f t="shared" si="0"/>
-        <v>252.859028263795</v>
-      </c>
-      <c r="F8" s="33">
+        <v>154.711315824595</v>
+      </c>
+      <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>1.61667816985094</v>
-      </c>
-      <c r="G8" s="30">
+        <v>2.28249717385415</v>
+      </c>
+      <c r="G8" s="32">
         <f t="shared" si="1"/>
-        <v>408.791671043799</v>
-      </c>
-    </row>
-    <row r="9" s="17" customFormat="1" spans="1:10">
-      <c r="A9" s="25" t="s">
+        <v>353.128141132895</v>
+      </c>
+    </row>
+    <row r="9" s="19" customFormat="1" spans="1:10">
+      <c r="A9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="28">
+        <v>6</v>
+      </c>
+      <c r="D9" s="34">
+        <v>6</v>
+      </c>
+      <c r="E9" s="30">
+        <f t="shared" si="0"/>
+        <v>201.124710571973</v>
+      </c>
+      <c r="F9" s="35">
+        <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
+        <v>2.32129962580967</v>
+      </c>
+      <c r="G9" s="32">
+        <f t="shared" si="1"/>
+        <v>466.8707153918</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" s="19" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="33">
         <v>10</v>
       </c>
-      <c r="D9" s="32">
-        <v>6</v>
-      </c>
-      <c r="E9" s="28">
+      <c r="D10" s="34">
+        <v>7</v>
+      </c>
+      <c r="E10" s="30">
         <f t="shared" si="0"/>
-        <v>328.716736742934</v>
-      </c>
-      <c r="F9" s="33">
-        <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>1.6441616987384</v>
-      </c>
-      <c r="G9" s="30">
-        <f t="shared" si="1"/>
-        <v>540.463468287007</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" s="17" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="31">
-        <v>10</v>
-      </c>
-      <c r="D10" s="32">
-        <v>7</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="30">
+        <v>261.462123743565</v>
+      </c>
+      <c r="F10" s="35">
+        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
+        <v>2.36076171944843</v>
+      </c>
+      <c r="G10" s="32">
         <f t="shared" ref="G10:G16" si="2">E10*F10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="40">
+        <v>617.249772819498</v>
+      </c>
+      <c r="I10" s="43">
         <f>G18/E18</f>
-        <v>1.59024720907573</v>
-      </c>
-      <c r="J10" s="41">
+        <v>2.30750967199656</v>
+      </c>
+      <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>1.67476143342824</v>
-      </c>
-    </row>
-    <row r="11" s="17" customFormat="1" spans="4:7">
-      <c r="D11" s="32">
+        <v>2.41672931575529</v>
+      </c>
+    </row>
+    <row r="11" s="19" customFormat="1" spans="1:7">
+      <c r="A11" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="36">
+        <f>B8*0.7/100</f>
+        <v>0.61194</v>
+      </c>
+      <c r="D11" s="34">
         <v>8</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="30">
+      <c r="E11" s="30">
+        <f t="shared" si="0"/>
+        <v>339.900760866635</v>
+      </c>
+      <c r="F11" s="35">
+        <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
+        <v>2.40089466867906</v>
+      </c>
+      <c r="G11" s="32">
+        <f t="shared" si="2"/>
+        <v>816.06592464466</v>
+      </c>
+    </row>
+    <row r="12" s="19" customFormat="1" spans="4:7">
+      <c r="D12" s="34">
+        <v>9</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="17" customFormat="1" spans="4:7">
-      <c r="D12" s="32">
-        <v>9</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="30">
+    <row r="13" s="19" customFormat="1" spans="4:10">
+      <c r="D13" s="34">
+        <v>10</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" s="17" customFormat="1" spans="4:10">
-      <c r="D13" s="32">
-        <v>10</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="42"/>
-    </row>
-    <row r="14" s="17" customFormat="1" spans="4:9">
-      <c r="D14" s="32">
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" s="19" customFormat="1" spans="4:9">
+      <c r="D14" s="34">
         <v>11</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="30"/>
-      <c r="I14" s="43" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="32"/>
+      <c r="I14" s="46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" s="17" customFormat="1" spans="4:9">
-      <c r="D15" s="32">
+    <row r="15" s="19" customFormat="1" spans="4:9">
+      <c r="D15" s="34">
         <v>12</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="30"/>
-      <c r="I15" s="31">
+      <c r="E15" s="30"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="32"/>
+      <c r="I15" s="33">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>1.67476143342824</v>
-      </c>
-    </row>
-    <row r="16" s="17" customFormat="1" spans="4:9">
-      <c r="D16" s="32">
+        <v>2.41672931575529</v>
+      </c>
+    </row>
+    <row r="16" s="19" customFormat="1" spans="4:9">
+      <c r="D16" s="34">
         <v>13</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="30"/>
-      <c r="I16" s="44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" s="17" customFormat="1" ht="18.15" spans="4:10">
-      <c r="D17" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36">
+      <c r="E16" s="30"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="32"/>
+      <c r="I16" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" s="19" customFormat="1" ht="18.15" spans="4:10">
+      <c r="D17" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>1.65347861503125</v>
-      </c>
-      <c r="G17" s="37">
+        <v>2.41449973846824</v>
+      </c>
+      <c r="G17" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="33">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>5.31453373225077</v>
-      </c>
-      <c r="J17" s="40" t="str">
+        <v>4.73322582714149</v>
+      </c>
+      <c r="J17" s="43" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
         <v>TIENE QUE BAJAR</v>
       </c>
     </row>
-    <row r="18" s="17" customFormat="1" spans="4:9">
-      <c r="D18" s="38"/>
-      <c r="E18" s="38">
+    <row r="18" s="19" customFormat="1" spans="4:9">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41">
         <f>SUM(E3:E17)</f>
-        <v>1197.43156581427</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38">
+        <v>1334.00911215072</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41">
         <f>SUM(G3:G17)</f>
-        <v>1904.21220559532</v>
-      </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" s="17" customFormat="1" spans="9:9">
-      <c r="I19" s="45">
+        <v>3078.23892881932</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" s="19" customFormat="1" spans="9:9">
+      <c r="I19" s="48">
         <f>G18/B3</f>
-        <v>1.88163261422462</v>
-      </c>
-    </row>
-    <row r="20" s="17" customFormat="1"/>
-    <row r="21" s="17" customFormat="1"/>
-    <row r="22" s="17" customFormat="1" spans="16376:16384">
-      <c r="XEV22" s="18"/>
-      <c r="XEW22" s="18"/>
-      <c r="XEX22" s="18"/>
-      <c r="XEY22" s="18"/>
-      <c r="XEZ22" s="18"/>
-      <c r="XFA22" s="18"/>
-      <c r="XFB22" s="18"/>
-      <c r="XFC22" s="18"/>
-      <c r="XFD22" s="18"/>
-    </row>
-    <row r="23" s="17" customFormat="1" spans="16376:16384">
-      <c r="XEV23" s="18"/>
-      <c r="XEW23" s="18"/>
-      <c r="XEX23" s="18"/>
-      <c r="XEY23" s="18"/>
-      <c r="XEZ23" s="18"/>
-      <c r="XFA23" s="18"/>
-      <c r="XFB23" s="18"/>
-      <c r="XFC23" s="18"/>
-      <c r="XFD23" s="18"/>
-    </row>
-    <row r="24" s="17" customFormat="1" spans="16376:16384">
-      <c r="XEV24" s="18"/>
-      <c r="XEW24" s="18"/>
-      <c r="XEX24" s="18"/>
-      <c r="XEY24" s="18"/>
-      <c r="XEZ24" s="18"/>
-      <c r="XFA24" s="18"/>
-      <c r="XFB24" s="18"/>
-      <c r="XFC24" s="18"/>
-      <c r="XFD24" s="18"/>
+        <v>2.11272404174284</v>
+      </c>
+    </row>
+    <row r="20" s="19" customFormat="1"/>
+    <row r="21" s="19" customFormat="1"/>
+    <row r="22" s="19" customFormat="1" spans="16376:16384">
+      <c r="XEV22" s="20"/>
+      <c r="XEW22" s="20"/>
+      <c r="XEX22" s="20"/>
+      <c r="XEY22" s="20"/>
+      <c r="XEZ22" s="20"/>
+      <c r="XFA22" s="20"/>
+      <c r="XFB22" s="20"/>
+      <c r="XFC22" s="20"/>
+      <c r="XFD22" s="20"/>
+    </row>
+    <row r="23" s="19" customFormat="1" spans="16376:16384">
+      <c r="XEV23" s="20"/>
+      <c r="XEW23" s="20"/>
+      <c r="XEX23" s="20"/>
+      <c r="XEY23" s="20"/>
+      <c r="XEZ23" s="20"/>
+      <c r="XFA23" s="20"/>
+      <c r="XFB23" s="20"/>
+      <c r="XFC23" s="20"/>
+      <c r="XFD23" s="20"/>
+    </row>
+    <row r="24" s="19" customFormat="1" spans="16376:16384">
+      <c r="XEV24" s="20"/>
+      <c r="XEW24" s="20"/>
+      <c r="XEX24" s="20"/>
+      <c r="XEY24" s="20"/>
+      <c r="XEZ24" s="20"/>
+      <c r="XFA24" s="20"/>
+      <c r="XFB24" s="20"/>
+      <c r="XFC24" s="20"/>
+      <c r="XFD24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2730,6 +2951,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2737,212 +2959,221 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.4444444444444" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="4"/>
-    <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.5555555555556" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.1111111111111" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.2222222222222" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="4" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.2222222222222" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.7777777777778" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.88888888888889" style="4"/>
+    <col min="1" max="1" width="13" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.4444444444444" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="6"/>
+    <col min="4" max="4" width="9" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.5555555555556" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.1111111111111" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.2222222222222" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.2222222222222" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.7777777777778" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.88888888888889" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="G2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9">
-        <v>1038</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="9">
-        <v>2200</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.25103</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="B3" s="11">
+        <v>112</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="11">
+        <v>109.75</v>
+      </c>
+      <c r="F3" s="11">
+        <v>13.202</v>
+      </c>
+      <c r="G3" s="13">
         <f t="shared" ref="G3:G6" si="0">E3/F3</f>
-        <v>8763.8927618213</v>
-      </c>
-      <c r="H3" s="12">
+        <v>8.31313437357976</v>
+      </c>
+      <c r="H3" s="14">
         <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
-        <v>-4.50559944439621</v>
-      </c>
-      <c r="I3" s="12">
+        <v>-11.3647894469812</v>
+      </c>
+      <c r="I3" s="14">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>0.25103</v>
-      </c>
-      <c r="J3" s="12">
+        <v>13.202</v>
+      </c>
+      <c r="J3" s="14">
         <f>IF(A2="BUY",((B5/SUM(E3:E4))+1)*I3,((B5/-SUM(E3:E4))+1)*I3)</f>
-        <v>0.262874051818182</v>
-      </c>
-      <c r="K3" s="14">
+        <v>11.8547343963554</v>
+      </c>
+      <c r="K3" s="16">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-103.8</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="6">
         <v>10</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="7"/>
+      <c r="D4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="11">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
-        <v>0.255</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="F4" s="11">
+        <v>2.2</v>
+      </c>
+      <c r="G4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="13">
         <f>-B3*B4/100</f>
-        <v>-103.8</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+        <v>-11.2</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="3:11">
-      <c r="C6" s="5"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
         <f>IF(A2="BUY",((F3/J6)-1)*-100,((F3/J6)-1)*100)</f>
-        <v>2.36512661583002</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="9">
-        <v>0.24523</v>
-      </c>
-      <c r="K6" s="16">
+        <v>0.692041522491349</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="11">
+        <v>13.294</v>
+      </c>
+      <c r="K6" s="18">
         <f>H6/100*SUM(G3:G4)*J6</f>
-        <v>50.8305780185631</v>
+        <v>0.764808362369337</v>
       </c>
     </row>
     <row r="7" spans="3:11">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="3:11">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="3:10">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14" s="6">
+        <v>87.36</v>
+      </c>
+      <c r="F14" s="6">
+        <f>E14*0.7/100</f>
+        <v>0.61152</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2957,6 +3188,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
@@ -2986,42 +3218,47 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D3"/>
+  <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="12.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="22.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="1">
+    <row r="1" spans="2:5">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2">
         <v>26</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="2" t="s">
-        <v>51</v>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
@@ -3029,9 +3266,966 @@
       <c r="D3" s="3">
         <v>6</v>
       </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="9.77777777777778" customWidth="1"/>
+    <col min="2" max="2" width="24.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="18.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="20.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="13.6388888888889" customWidth="1"/>
+    <col min="7" max="7" width="8.66666666666667" customWidth="1"/>
+    <col min="8" max="16384" width="24.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" hidden="1" spans="1:7">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" hidden="1" spans="1:7">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" hidden="1" spans="1:7">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" hidden="1" spans="1:7">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:7">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" spans="1:7">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" spans="1:7">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" spans="1:7">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="1:7">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="1:4">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:7">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" hidden="1" spans="1:4">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="1:7">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" hidden="1" spans="1:7">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" spans="1:7">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:7">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:7">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" spans="1:7">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" hidden="1" spans="1:7">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" hidden="1" spans="1:7">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" spans="1:7">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" hidden="1" spans="1:7">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:7">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" hidden="1" spans="1:7">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:7">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" spans="1:7">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="1:7">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G40">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="equal" val="POR SELECCION"/>
+      </customFilters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -359,10 +359,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.000000"/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
@@ -431,8 +431,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,7 +454,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,26 +476,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,37 +508,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -545,10 +530,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,7 +545,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -614,7 +614,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,67 +770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,97 +782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,25 +1038,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,16 +1101,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,15 +1137,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,130 +1155,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2444,7 +2444,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="J3" s="42">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-4.51931637716717</v>
+        <v>-4.51931637716719</v>
       </c>
     </row>
     <row r="4" s="19" customFormat="1" spans="1:10">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="J7" s="33">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>15.1920550884315</v>
+        <v>15.1920550884314</v>
       </c>
     </row>
     <row r="8" s="19" customFormat="1" spans="1:7">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="G10" s="32">
         <f t="shared" ref="G10:G16" si="2">E10*F10</f>
-        <v>617.249772819498</v>
+        <v>617.249772819499</v>
       </c>
       <c r="I10" s="43">
         <f>G18/E18</f>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="G11" s="32">
         <f t="shared" si="2"/>
-        <v>816.06592464466</v>
+        <v>816.065924644659</v>
       </c>
     </row>
     <row r="12" s="19" customFormat="1" spans="4:7">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="I17" s="33">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>4.73322582714149</v>
+        <v>4.73322582714151</v>
       </c>
       <c r="J17" s="43" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <t>GANANCIA TOTAL</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>36</t>
+    <t>1487</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
   <si>
     <t>calculadora diaria</t>
@@ -54,7 +54,7 @@
     <t>ganancia diaria</t>
   </si>
   <si>
-    <t>20</t>
+    <t>25</t>
   </si>
   <si>
     <t>ALL IN ONE</t>
@@ -1843,8 +1843,8 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1886,11 +1886,11 @@
       </c>
       <c r="D2" s="53">
         <f>POWER(1+(B2/100),C2)*A2</f>
-        <v>16294.5039997022</v>
+        <v>5678.77642796506</v>
       </c>
       <c r="E2" s="53">
         <f>D2-A2</f>
-        <v>14294.5039997022</v>
+        <v>4191.77642796506</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B9" s="56">
         <f>A9*100/A2</f>
-        <v>1</v>
+        <v>1.68123739071957</v>
       </c>
     </row>
   </sheetData>
@@ -2443,7 +2443,7 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="115">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -39,13 +39,13 @@
     <t>GANANCIA TOTAL</t>
   </si>
   <si>
-    <t>1487</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>90</t>
+    <t>1514</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>365</t>
   </si>
   <si>
     <t>calculadora diaria</t>
@@ -141,7 +141,10 @@
     <t>margen ratio</t>
   </si>
   <si>
-    <t>1.7</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>primer tp a 0.7 porciento</t>
@@ -201,6 +204,9 @@
     <t>muy movido</t>
   </si>
   <si>
+    <t>buena ganancia:</t>
+  </si>
+  <si>
     <t>ARCHIVO</t>
   </si>
   <si>
@@ -261,6 +267,12 @@
     <t>CCXT</t>
   </si>
   <si>
+    <t>a veces no consigue obtener el df y falla saliendo del updating en medio de un trade.</t>
+  </si>
+  <si>
+    <t>TESTING</t>
+  </si>
+  <si>
     <t>equipoliquidando</t>
   </si>
   <si>
@@ -340,6 +352,9 @@
   </si>
   <si>
     <t>formacioninicial</t>
+  </si>
+  <si>
+    <t>no crea la primera compensacion... se arregló dividiendo preciostopsanta por multiplier</t>
   </si>
   <si>
     <t>creaactualizatps</t>
@@ -359,11 +374,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.000000"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="27">
@@ -431,9 +446,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,6 +473,14 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,15 +500,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,9 +513,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,6 +526,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,14 +552,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -530,23 +560,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,16 +582,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,7 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,19 +653,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,37 +701,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,13 +731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,13 +749,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,49 +797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,17 +1052,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,6 +1111,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1114,38 +1149,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,175 +1170,176 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1491,7 +1507,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1536,6 +1552,14 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1552,6 +1576,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="616585" y="1438910"/>
+          <a:ext cx="8824595" cy="3422650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1843,87 +1914,87 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="49" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="49" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="50" customWidth="1"/>
-    <col min="4" max="4" width="21.8888888888889" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.1111111111111" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="20.5740740740741" style="50" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="50" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="51" customWidth="1"/>
+    <col min="4" max="4" width="21.8888888888889" style="21" customWidth="1"/>
+    <col min="5" max="5" width="17.1111111111111" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="52" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="54">
         <f>POWER(1+(B2/100),C2)*A2</f>
-        <v>5678.77642796506</v>
-      </c>
-      <c r="E2" s="53">
+        <v>57204.1195799913</v>
+      </c>
+      <c r="E2" s="54">
         <f>D2-A2</f>
-        <v>4191.77642796506</v>
+        <v>55690.1195799913</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" ht="19.5" customHeight="1"/>
     <row r="5" ht="19.5" customHeight="1"/>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="56"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="57">
         <f>A9*100/A2</f>
-        <v>1.68123739071957</v>
+        <v>1.65125495376486</v>
       </c>
     </row>
   </sheetData>
@@ -1947,425 +2018,425 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="19" customWidth="1"/>
-    <col min="3" max="3" width="27.7777777777778" style="19" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="19" customWidth="1"/>
-    <col min="5" max="5" width="18.5555555555556" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="19" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="19" customWidth="1"/>
-    <col min="8" max="8" width="1.66666666666667" style="19" customWidth="1"/>
-    <col min="9" max="9" width="32.8888888888889" style="19" customWidth="1"/>
-    <col min="10" max="10" width="31.2222222222222" style="19" customWidth="1"/>
-    <col min="11" max="11" width="8.44444444444444" style="19" customWidth="1"/>
-    <col min="12" max="12" width="31.2222222222222" style="19" customWidth="1"/>
-    <col min="13" max="16374" width="8.44444444444444" style="19" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="19"/>
-    <col min="16376" max="16384" width="8.44444444444444" style="20"/>
+    <col min="1" max="1" width="22" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="20" customWidth="1"/>
+    <col min="3" max="3" width="27.7777777777778" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="20" customWidth="1"/>
+    <col min="5" max="5" width="18.5555555555556" style="20" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="20" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="20" customWidth="1"/>
+    <col min="8" max="8" width="1.66666666666667" style="20" customWidth="1"/>
+    <col min="9" max="9" width="32.8888888888889" style="20" customWidth="1"/>
+    <col min="10" max="10" width="31.2222222222222" style="20" customWidth="1"/>
+    <col min="11" max="11" width="8.44444444444444" style="20" customWidth="1"/>
+    <col min="12" max="12" width="31.2222222222222" style="20" customWidth="1"/>
+    <col min="13" max="16374" width="8.44444444444444" style="20" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="20"/>
+    <col min="16376" max="16384" width="8.44444444444444" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="20" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="23" t="s">
+    <row r="2" s="20" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="19" customFormat="1" spans="1:10">
-      <c r="A3" s="27" t="s">
+    <row r="3" s="20" customFormat="1" spans="1:10">
+      <c r="A3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="29">
         <v>1457</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="31">
         <f>G3/F3</f>
         <v>68.6339165545087</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="32">
         <v>1.486</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="33">
         <f>B8</f>
         <v>101.99</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="43">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
         <v>-7.05645174826999</v>
       </c>
     </row>
-    <row r="4" s="19" customFormat="1" spans="1:10">
-      <c r="A4" s="27" t="s">
+    <row r="4" s="20" customFormat="1" spans="1:10">
+      <c r="A4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="34">
         <f>-B3*$B$10/100</f>
         <v>-145.7</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="31">
         <f t="shared" ref="E4:E9" si="0">E3*(1+$B$6/100)</f>
         <v>89.2240915208614</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="36">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
         <v>1.511262</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="33">
         <f t="shared" ref="G4:G13" si="1">E4*F4</f>
         <v>134.840979</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="43">
         <f>E18</f>
         <v>1206.77910471736</v>
       </c>
     </row>
-    <row r="5" s="19" customFormat="1" spans="1:10">
-      <c r="A5" s="27" t="s">
+    <row r="5" s="20" customFormat="1" spans="1:10">
+      <c r="A5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="34">
         <v>1.7</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="35">
         <v>2</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="31">
         <f t="shared" si="0"/>
         <v>115.99131897712</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="36">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
         <v>1.536953454</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="33">
         <f t="shared" si="1"/>
         <v>178.2732583359</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="43">
         <f>J4*J10</f>
         <v>2064.77710324769</v>
       </c>
     </row>
-    <row r="6" s="19" customFormat="1" spans="1:10">
-      <c r="A6" s="27" t="s">
+    <row r="6" s="20" customFormat="1" spans="1:10">
+      <c r="A6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="34">
         <v>30</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="35">
         <v>3</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="31">
         <f t="shared" si="0"/>
         <v>150.788714670256</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="36">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
         <v>1.563081662718</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="33">
         <f t="shared" si="1"/>
         <v>235.695074845893</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="43">
         <f>J3/100*J4*J10</f>
         <v>-145.7</v>
       </c>
     </row>
-    <row r="7" s="19" customFormat="1" spans="1:10">
-      <c r="A7" s="27" t="s">
+    <row r="7" s="20" customFormat="1" spans="1:10">
+      <c r="A7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="34">
         <v>10</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="35">
         <v>4</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="31">
         <f t="shared" si="0"/>
         <v>196.025329071332</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="36">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
         <v>1.58965405098421</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="33">
         <f t="shared" si="1"/>
         <v>311.612458453756</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="34">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
         <v>15.1400952418302</v>
       </c>
     </row>
-    <row r="8" s="19" customFormat="1" spans="1:7">
-      <c r="A8" s="27" t="s">
+    <row r="8" s="20" customFormat="1" spans="1:7">
+      <c r="A8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="34">
         <f>B3*$B$9/100</f>
         <v>101.99</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="35">
         <v>5</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="31">
         <f t="shared" si="0"/>
         <v>254.832927792732</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="36">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
         <v>1.61667816985094</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="33">
         <f t="shared" si="1"/>
         <v>411.982831321711</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="1" spans="1:10">
-      <c r="A9" s="27" t="s">
+    <row r="9" s="20" customFormat="1" spans="1:10">
+      <c r="A9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="29">
         <v>7</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="35">
         <v>6</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="31">
         <f t="shared" si="0"/>
         <v>331.282806130552</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="36">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
         <v>1.6441616987384</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="33">
         <f t="shared" si="1"/>
         <v>544.682501290432</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" s="19" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="27" t="s">
+    <row r="10" s="20" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="34">
         <v>10</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="35">
         <v>7</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="32">
+      <c r="E10" s="31"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="44">
         <f>G18/E18</f>
         <v>1.59024720907573</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="45">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>1.7109818152936</v>
       </c>
     </row>
-    <row r="11" s="19" customFormat="1" spans="4:7">
-      <c r="D11" s="34">
+    <row r="11" s="20" customFormat="1" spans="4:7">
+      <c r="D11" s="35">
         <v>8</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="32">
+      <c r="E11" s="31"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="19" customFormat="1" spans="4:7">
-      <c r="D12" s="34">
+    <row r="12" s="20" customFormat="1" spans="4:7">
+      <c r="D12" s="35">
         <v>9</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="32">
+      <c r="E12" s="31"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="19" customFormat="1" spans="4:10">
-      <c r="D13" s="34">
+    <row r="13" s="20" customFormat="1" spans="4:10">
+      <c r="D13" s="35">
         <v>10</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="32">
+      <c r="E13" s="31"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="45"/>
-    </row>
-    <row r="14" s="19" customFormat="1" spans="4:9">
-      <c r="D14" s="34">
+      <c r="J13" s="46"/>
+    </row>
+    <row r="14" s="20" customFormat="1" spans="4:9">
+      <c r="D14" s="35">
         <v>11</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="32"/>
-      <c r="I14" s="46" t="s">
+      <c r="E14" s="31"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="33"/>
+      <c r="I14" s="47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" s="19" customFormat="1" spans="4:9">
-      <c r="D15" s="34">
+    <row r="15" s="20" customFormat="1" spans="4:9">
+      <c r="D15" s="35">
         <v>12</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="32"/>
-      <c r="I15" s="33">
+      <c r="E15" s="31"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="33"/>
+      <c r="I15" s="34">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
         <v>1.7109818152936</v>
       </c>
     </row>
-    <row r="16" s="19" customFormat="1" spans="4:9">
-      <c r="D16" s="34">
+    <row r="16" s="20" customFormat="1" spans="4:9">
+      <c r="D16" s="35">
         <v>13</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="32"/>
-      <c r="I16" s="47" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="33"/>
+      <c r="I16" s="48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" s="19" customFormat="1" ht="18.15" spans="3:10">
-      <c r="C17" s="19" t="s">
+    <row r="17" s="20" customFormat="1" ht="18.15" spans="3:10">
+      <c r="C17" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39">
+      <c r="E17" s="39"/>
+      <c r="F17" s="40">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
         <v>1.65347861503125</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="41">
         <f>E17*F17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="34">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
         <v>7.59219104607256</v>
       </c>
-      <c r="J17" s="43" t="str">
+      <c r="J17" s="44" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
         <v>TIENE QUE BAJAR</v>
       </c>
     </row>
-    <row r="18" s="19" customFormat="1" spans="4:9">
-      <c r="D18" s="41"/>
-      <c r="E18" s="41">
+    <row r="18" s="20" customFormat="1" spans="4:9">
+      <c r="D18" s="42"/>
+      <c r="E18" s="42">
         <f>SUM(E3:E17)</f>
         <v>1206.77910471736</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41">
+      <c r="F18" s="42"/>
+      <c r="G18" s="42">
         <f>SUM(G3:G17)</f>
         <v>1919.07710324769</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="47" t="s">
+      <c r="H18" s="42"/>
+      <c r="I18" s="48" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" s="19" customFormat="1" spans="9:9">
-      <c r="I19" s="48">
+    <row r="19" s="20" customFormat="1" spans="9:9">
+      <c r="I19" s="49">
         <f>G18/B3</f>
         <v>1.31714282995724</v>
       </c>
     </row>
-    <row r="20" s="19" customFormat="1"/>
-    <row r="21" s="19" customFormat="1"/>
-    <row r="22" s="19" customFormat="1" spans="16376:16384">
-      <c r="XEV22" s="20"/>
-      <c r="XEW22" s="20"/>
-      <c r="XEX22" s="20"/>
-      <c r="XEY22" s="20"/>
-      <c r="XEZ22" s="20"/>
-      <c r="XFA22" s="20"/>
-      <c r="XFB22" s="20"/>
-      <c r="XFC22" s="20"/>
-      <c r="XFD22" s="20"/>
-    </row>
-    <row r="23" s="19" customFormat="1" spans="16376:16384">
-      <c r="XEV23" s="20"/>
-      <c r="XEW23" s="20"/>
-      <c r="XEX23" s="20"/>
-      <c r="XEY23" s="20"/>
-      <c r="XEZ23" s="20"/>
-      <c r="XFA23" s="20"/>
-      <c r="XFB23" s="20"/>
-      <c r="XFC23" s="20"/>
-      <c r="XFD23" s="20"/>
-    </row>
-    <row r="24" s="19" customFormat="1" spans="16376:16384">
-      <c r="XEV24" s="20"/>
-      <c r="XEW24" s="20"/>
-      <c r="XEX24" s="20"/>
-      <c r="XEY24" s="20"/>
-      <c r="XEZ24" s="20"/>
-      <c r="XFA24" s="20"/>
-      <c r="XFB24" s="20"/>
-      <c r="XFC24" s="20"/>
-      <c r="XFD24" s="20"/>
+    <row r="20" s="20" customFormat="1"/>
+    <row r="21" s="20" customFormat="1"/>
+    <row r="22" s="20" customFormat="1" spans="16376:16384">
+      <c r="XEV22" s="21"/>
+      <c r="XEW22" s="21"/>
+      <c r="XEX22" s="21"/>
+      <c r="XEY22" s="21"/>
+      <c r="XEZ22" s="21"/>
+      <c r="XFA22" s="21"/>
+      <c r="XFB22" s="21"/>
+      <c r="XFC22" s="21"/>
+      <c r="XFD22" s="21"/>
+    </row>
+    <row r="23" s="20" customFormat="1" spans="16376:16384">
+      <c r="XEV23" s="21"/>
+      <c r="XEW23" s="21"/>
+      <c r="XEX23" s="21"/>
+      <c r="XEY23" s="21"/>
+      <c r="XEZ23" s="21"/>
+      <c r="XFA23" s="21"/>
+      <c r="XFB23" s="21"/>
+      <c r="XFC23" s="21"/>
+      <c r="XFD23" s="21"/>
+    </row>
+    <row r="24" s="20" customFormat="1" spans="16376:16384">
+      <c r="XEV24" s="21"/>
+      <c r="XEW24" s="21"/>
+      <c r="XEX24" s="21"/>
+      <c r="XEY24" s="21"/>
+      <c r="XEZ24" s="21"/>
+      <c r="XFA24" s="21"/>
+      <c r="XFB24" s="21"/>
+      <c r="XFC24" s="21"/>
+      <c r="XFD24" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2443,447 +2514,441 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="19" customWidth="1"/>
-    <col min="3" max="3" width="4.55555555555556" style="19" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="19" customWidth="1"/>
-    <col min="5" max="5" width="18.5555555555556" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="19" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="19" customWidth="1"/>
-    <col min="8" max="8" width="1.66666666666667" style="19" customWidth="1"/>
-    <col min="9" max="9" width="32.8888888888889" style="19" customWidth="1"/>
-    <col min="10" max="10" width="31.2222222222222" style="19" customWidth="1"/>
-    <col min="11" max="11" width="8.44444444444444" style="19" customWidth="1"/>
-    <col min="12" max="12" width="31.2222222222222" style="19" customWidth="1"/>
-    <col min="13" max="16374" width="8.44444444444444" style="19" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="19"/>
-    <col min="16376" max="16384" width="8.44444444444444" style="20"/>
+    <col min="1" max="1" width="22" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="20" customWidth="1"/>
+    <col min="3" max="3" width="4.55555555555556" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="20" customWidth="1"/>
+    <col min="5" max="5" width="18.5555555555556" style="20" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="20" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="20" customWidth="1"/>
+    <col min="8" max="8" width="1.66666666666667" style="20" customWidth="1"/>
+    <col min="9" max="9" width="32.8888888888889" style="20" customWidth="1"/>
+    <col min="10" max="10" width="31.2222222222222" style="20" customWidth="1"/>
+    <col min="11" max="11" width="8.44444444444444" style="20" customWidth="1"/>
+    <col min="12" max="12" width="31.2222222222222" style="20" customWidth="1"/>
+    <col min="13" max="16374" width="8.44444444444444" style="20" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="20"/>
+    <col min="16376" max="16384" width="8.44444444444444" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="20" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="23" t="s">
+    <row r="2" s="20" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="19" customFormat="1" spans="1:10">
-      <c r="A3" s="27" t="s">
+    <row r="3" s="20" customFormat="1" spans="1:10">
+      <c r="A3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="28">
-        <v>1457</v>
-      </c>
-      <c r="D3" s="29" t="s">
+      <c r="B3" s="29">
+        <v>1516</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="31">
         <f>G3/F3</f>
-        <v>41.6682554814109</v>
-      </c>
-      <c r="F3" s="31">
+        <v>72.2592945662536</v>
+      </c>
+      <c r="F3" s="32">
         <v>2.098</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="33">
         <f>B8</f>
-        <v>87.42</v>
-      </c>
-      <c r="I3" s="27" t="s">
+        <v>151.6</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="43">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-4.51931637716719</v>
-      </c>
-    </row>
-    <row r="4" s="19" customFormat="1" spans="1:10">
-      <c r="A4" s="27" t="s">
+        <v>-6.2746342102956</v>
+      </c>
+    </row>
+    <row r="4" s="20" customFormat="1" spans="1:10">
+      <c r="A4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="34">
         <f>-B3*$B$10/100</f>
-        <v>-145.7</v>
-      </c>
-      <c r="D4" s="34">
+        <v>-151.6</v>
+      </c>
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="31">
         <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
-        <v>54.1687321258341</v>
-      </c>
-      <c r="F4" s="35">
+        <v>83.0981887511916</v>
+      </c>
+      <c r="F4" s="36">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>2.133666</v>
-      </c>
-      <c r="G4" s="32">
+        <v>2.13996</v>
+      </c>
+      <c r="G4" s="33">
         <f t="shared" ref="G4:G17" si="1">E4*F4</f>
-        <v>115.577982</v>
-      </c>
-      <c r="I4" s="27" t="s">
+        <v>177.8268</v>
+      </c>
+      <c r="I4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="43">
         <f>E18</f>
-        <v>1334.00911215072</v>
-      </c>
-    </row>
-    <row r="5" s="19" customFormat="1" spans="1:10">
-      <c r="A5" s="27" t="s">
+        <v>991.890263619071</v>
+      </c>
+    </row>
+    <row r="5" s="20" customFormat="1" spans="1:10">
+      <c r="A5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="35">
         <v>2</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="31">
         <f t="shared" si="0"/>
-        <v>70.4193517635844</v>
-      </c>
-      <c r="F5" s="35">
+        <v>95.5629170638703</v>
+      </c>
+      <c r="F5" s="36">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>2.169938322</v>
-      </c>
-      <c r="G5" s="32">
+        <v>2.1827592</v>
+      </c>
+      <c r="G5" s="33">
         <f t="shared" si="1"/>
-        <v>152.8056500022</v>
-      </c>
-      <c r="I5" s="27" t="s">
+        <v>208.5908364</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="43">
         <f>J4*J10</f>
-        <v>3223.93892881932</v>
-      </c>
-    </row>
-    <row r="6" s="19" customFormat="1" spans="1:10">
-      <c r="A6" s="27" t="s">
+        <v>2416.07709579708</v>
+      </c>
+    </row>
+    <row r="6" s="20" customFormat="1" spans="1:10">
+      <c r="A6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="35">
+        <v>3</v>
+      </c>
+      <c r="E6" s="31">
+        <f t="shared" si="0"/>
+        <v>109.897354623451</v>
+      </c>
+      <c r="F6" s="36">
+        <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
+        <v>2.226414384</v>
+      </c>
+      <c r="G6" s="33">
+        <f t="shared" si="1"/>
+        <v>244.6770510972</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="43">
+        <f>J3/100*J4*J10</f>
+        <v>-151.6</v>
+      </c>
+    </row>
+    <row r="7" s="20" customFormat="1" spans="1:10">
+      <c r="A7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="34">
+        <v>10</v>
+      </c>
+      <c r="D7" s="35">
+        <v>4</v>
+      </c>
+      <c r="E7" s="31">
+        <f t="shared" si="0"/>
+        <v>126.381957816968</v>
+      </c>
+      <c r="F7" s="36">
+        <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
+        <v>2.27094267168</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" si="1"/>
+        <v>287.006180937015</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="34">
+        <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
+        <v>16.1025282854034</v>
+      </c>
+    </row>
+    <row r="8" s="20" customFormat="1" spans="1:7">
+      <c r="A8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="34">
+        <f>B3*$B$9/100</f>
+        <v>151.6</v>
+      </c>
+      <c r="D8" s="35">
+        <v>5</v>
+      </c>
+      <c r="E8" s="31">
+        <f t="shared" si="0"/>
+        <v>145.339251489514</v>
+      </c>
+      <c r="F8" s="36">
+        <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
+        <v>2.3163615251136</v>
+      </c>
+      <c r="G8" s="33">
+        <f t="shared" si="1"/>
+        <v>336.658250239119</v>
+      </c>
+    </row>
+    <row r="9" s="20" customFormat="1" spans="1:10">
+      <c r="A9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="29">
+        <v>10</v>
+      </c>
+      <c r="D9" s="35">
+        <v>6</v>
+      </c>
+      <c r="E9" s="31">
+        <f>E8*(1+$B$6/100)</f>
+        <v>167.140139212941</v>
+      </c>
+      <c r="F9" s="36">
+        <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
+        <v>2.36268875561587</v>
+      </c>
+      <c r="G9" s="33">
+        <f t="shared" si="1"/>
+        <v>394.900127530487</v>
+      </c>
+      <c r="I9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="34">
-        <v>3</v>
-      </c>
-      <c r="E6" s="30">
-        <f t="shared" si="0"/>
-        <v>91.5451572926597</v>
-      </c>
-      <c r="F6" s="35">
-        <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>2.206827273474</v>
-      </c>
-      <c r="G6" s="32">
-        <f t="shared" si="1"/>
-        <v>202.024349867909</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="42">
-        <f>J3/100*J4*J10</f>
-        <v>-145.7</v>
-      </c>
-    </row>
-    <row r="7" s="19" customFormat="1" spans="1:10">
-      <c r="A7" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="33">
+      <c r="J9" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" s="20" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="34">
         <v>10</v>
       </c>
-      <c r="D7" s="34">
-        <v>4</v>
-      </c>
-      <c r="E7" s="30">
-        <f t="shared" si="0"/>
-        <v>119.008704480458</v>
-      </c>
-      <c r="F7" s="35">
-        <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>2.24434333712306</v>
-      </c>
-      <c r="G7" s="32">
-        <f t="shared" si="1"/>
-        <v>267.096392960362</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="33">
-        <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>15.1920550884314</v>
-      </c>
-    </row>
-    <row r="8" s="19" customFormat="1" spans="1:7">
-      <c r="A8" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="33">
-        <f>B3*$B$9/100</f>
-        <v>87.42</v>
-      </c>
-      <c r="D8" s="34">
-        <v>5</v>
-      </c>
-      <c r="E8" s="30">
-        <f t="shared" si="0"/>
-        <v>154.711315824595</v>
-      </c>
-      <c r="F8" s="35">
-        <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>2.28249717385415</v>
-      </c>
-      <c r="G8" s="32">
-        <f t="shared" si="1"/>
-        <v>353.128141132895</v>
-      </c>
-    </row>
-    <row r="9" s="19" customFormat="1" spans="1:10">
-      <c r="A9" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="28">
-        <v>6</v>
-      </c>
-      <c r="D9" s="34">
-        <v>6</v>
-      </c>
-      <c r="E9" s="30">
-        <f t="shared" si="0"/>
-        <v>201.124710571973</v>
-      </c>
-      <c r="F9" s="35">
-        <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>2.32129962580967</v>
-      </c>
-      <c r="G9" s="32">
-        <f t="shared" si="1"/>
-        <v>466.8707153918</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" s="19" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="33">
-        <v>10</v>
-      </c>
-      <c r="D10" s="34">
+      <c r="D10" s="35">
         <v>7</v>
       </c>
-      <c r="E10" s="30">
-        <f t="shared" si="0"/>
-        <v>261.462123743565</v>
-      </c>
-      <c r="F10" s="35">
+      <c r="E10" s="31">
+        <f>E9*(1+$B$6/100)</f>
+        <v>192.211160094882</v>
+      </c>
+      <c r="F10" s="36">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>2.36076171944843</v>
-      </c>
-      <c r="G10" s="32">
+        <v>2.40994253072819</v>
+      </c>
+      <c r="G10" s="33">
         <f t="shared" ref="G10:G16" si="2">E10*F10</f>
-        <v>617.249772819499</v>
-      </c>
-      <c r="I10" s="43">
+        <v>463.217849593261</v>
+      </c>
+      <c r="I10" s="44">
         <f>G18/E18</f>
-        <v>2.30750967199656</v>
-      </c>
-      <c r="J10" s="44">
+        <v>2.28299155547184</v>
+      </c>
+      <c r="J10" s="45">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>2.41672931575529</v>
-      </c>
-    </row>
-    <row r="11" s="19" customFormat="1" spans="1:7">
-      <c r="A11" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="36">
+        <v>2.43583104342776</v>
+      </c>
+    </row>
+    <row r="11" s="20" customFormat="1" spans="1:7">
+      <c r="A11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="37">
         <f>B8*0.7/100</f>
-        <v>0.61194</v>
-      </c>
-      <c r="D11" s="34">
+        <v>1.0612</v>
+      </c>
+      <c r="D11" s="35">
         <v>8</v>
       </c>
-      <c r="E11" s="30">
-        <f t="shared" si="0"/>
-        <v>339.900760866635</v>
-      </c>
-      <c r="F11" s="35">
-        <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
-        <v>2.40089466867906</v>
-      </c>
-      <c r="G11" s="32">
-        <f t="shared" si="2"/>
-        <v>816.065924644659</v>
-      </c>
-    </row>
-    <row r="12" s="19" customFormat="1" spans="4:7">
-      <c r="D12" s="34">
-        <v>9</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="32">
+      <c r="E11" s="31"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="19" customFormat="1" spans="4:10">
-      <c r="D13" s="34">
-        <v>10</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="32">
+    <row r="12" s="20" customFormat="1" spans="4:7">
+      <c r="D12" s="35">
+        <v>9</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I13" s="45" t="s">
+    </row>
+    <row r="13" s="20" customFormat="1" spans="4:10">
+      <c r="D13" s="35">
+        <v>10</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="45"/>
-    </row>
-    <row r="14" s="19" customFormat="1" spans="4:9">
-      <c r="D14" s="34">
+      <c r="J13" s="46"/>
+    </row>
+    <row r="14" s="20" customFormat="1" spans="4:9">
+      <c r="D14" s="35">
         <v>11</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="32"/>
-      <c r="I14" s="46" t="s">
+      <c r="E14" s="31"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="33"/>
+      <c r="I14" s="47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" s="19" customFormat="1" spans="4:9">
-      <c r="D15" s="34">
+    <row r="15" s="20" customFormat="1" spans="4:9">
+      <c r="D15" s="35">
         <v>12</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="32"/>
-      <c r="I15" s="33">
+      <c r="E15" s="31"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="33"/>
+      <c r="I15" s="34">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>2.41672931575529</v>
-      </c>
-    </row>
-    <row r="16" s="19" customFormat="1" spans="4:9">
-      <c r="D16" s="34">
+        <v>2.43583104342776</v>
+      </c>
+    </row>
+    <row r="16" s="20" customFormat="1" spans="4:9">
+      <c r="D16" s="35">
         <v>13</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="32"/>
-      <c r="I16" s="47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" s="19" customFormat="1" ht="18.15" spans="4:10">
-      <c r="D17" s="37" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="33"/>
+      <c r="I16" s="48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" s="20" customFormat="1" ht="18.15" spans="4:10">
+      <c r="D17" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39">
+      <c r="E17" s="39"/>
+      <c r="F17" s="40">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>2.41449973846824</v>
-      </c>
-      <c r="G17" s="40">
+        <v>2.42600881426638</v>
+      </c>
+      <c r="G17" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="34">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>4.73322582714151</v>
-      </c>
-      <c r="J17" s="43" t="str">
+        <v>6.69470229049227</v>
+      </c>
+      <c r="J17" s="44" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
         <v>TIENE QUE BAJAR</v>
       </c>
     </row>
-    <row r="18" s="19" customFormat="1" spans="4:9">
-      <c r="D18" s="41"/>
-      <c r="E18" s="41">
+    <row r="18" s="20" customFormat="1" spans="4:9">
+      <c r="D18" s="42"/>
+      <c r="E18" s="42">
         <f>SUM(E3:E17)</f>
-        <v>1334.00911215072</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41">
+        <v>991.890263619071</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42">
         <f>SUM(G3:G17)</f>
-        <v>3078.23892881932</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="47" t="s">
+        <v>2264.47709579708</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="48" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" s="19" customFormat="1" spans="9:9">
-      <c r="I19" s="48">
+    <row r="19" s="20" customFormat="1" spans="9:9">
+      <c r="I19" s="49">
         <f>G18/B3</f>
-        <v>2.11272404174284</v>
-      </c>
-    </row>
-    <row r="20" s="19" customFormat="1"/>
-    <row r="21" s="19" customFormat="1"/>
-    <row r="22" s="19" customFormat="1" spans="16376:16384">
-      <c r="XEV22" s="20"/>
-      <c r="XEW22" s="20"/>
-      <c r="XEX22" s="20"/>
-      <c r="XEY22" s="20"/>
-      <c r="XEZ22" s="20"/>
-      <c r="XFA22" s="20"/>
-      <c r="XFB22" s="20"/>
-      <c r="XFC22" s="20"/>
-      <c r="XFD22" s="20"/>
-    </row>
-    <row r="23" s="19" customFormat="1" spans="16376:16384">
-      <c r="XEV23" s="20"/>
-      <c r="XEW23" s="20"/>
-      <c r="XEX23" s="20"/>
-      <c r="XEY23" s="20"/>
-      <c r="XEZ23" s="20"/>
-      <c r="XFA23" s="20"/>
-      <c r="XFB23" s="20"/>
-      <c r="XFC23" s="20"/>
-      <c r="XFD23" s="20"/>
-    </row>
-    <row r="24" s="19" customFormat="1" spans="16376:16384">
-      <c r="XEV24" s="20"/>
-      <c r="XEW24" s="20"/>
-      <c r="XEX24" s="20"/>
-      <c r="XEY24" s="20"/>
-      <c r="XEZ24" s="20"/>
-      <c r="XFA24" s="20"/>
-      <c r="XFB24" s="20"/>
-      <c r="XFC24" s="20"/>
-      <c r="XFD24" s="20"/>
+        <v>1.49371840092156</v>
+      </c>
+    </row>
+    <row r="20" s="20" customFormat="1"/>
+    <row r="21" s="20" customFormat="1"/>
+    <row r="22" s="20" customFormat="1" spans="16376:16384">
+      <c r="XEV22" s="21"/>
+      <c r="XEW22" s="21"/>
+      <c r="XEX22" s="21"/>
+      <c r="XEY22" s="21"/>
+      <c r="XEZ22" s="21"/>
+      <c r="XFA22" s="21"/>
+      <c r="XFB22" s="21"/>
+      <c r="XFC22" s="21"/>
+      <c r="XFD22" s="21"/>
+    </row>
+    <row r="23" s="20" customFormat="1" spans="16376:16384">
+      <c r="XEV23" s="21"/>
+      <c r="XEW23" s="21"/>
+      <c r="XEX23" s="21"/>
+      <c r="XEY23" s="21"/>
+      <c r="XEZ23" s="21"/>
+      <c r="XFA23" s="21"/>
+      <c r="XFB23" s="21"/>
+      <c r="XFC23" s="21"/>
+      <c r="XFD23" s="21"/>
+    </row>
+    <row r="24" s="20" customFormat="1" spans="16376:16384">
+      <c r="XEV24" s="21"/>
+      <c r="XEW24" s="21"/>
+      <c r="XEX24" s="21"/>
+      <c r="XEY24" s="21"/>
+      <c r="XEZ24" s="21"/>
+      <c r="XFA24" s="21"/>
+      <c r="XFB24" s="21"/>
+      <c r="XFC24" s="21"/>
+      <c r="XFD24" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2967,210 +3032,210 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.4444444444444" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="6"/>
-    <col min="4" max="4" width="9" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.5555555555556" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.1111111111111" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.2222222222222" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10.2222222222222" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.7777777777778" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.88888888888889" style="6"/>
+    <col min="1" max="1" width="13" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.4444444444444" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="7"/>
+    <col min="4" max="4" width="9" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.5555555555556" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.1111111111111" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.2222222222222" style="7" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.2222222222222" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14.7777777777778" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="9" t="s">
+      <c r="A2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="K2" s="10" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <v>112</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="C3" s="8"/>
+      <c r="D3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="12">
         <v>109.75</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>13.202</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="14">
         <f t="shared" ref="G3:G6" si="0">E3/F3</f>
         <v>8.31313437357976</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="15">
         <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
         <v>-11.3647894469812</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="15">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
         <v>13.202</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="15">
         <f>IF(A2="BUY",((B5/SUM(E3:E4))+1)*I3,((B5/-SUM(E3:E4))+1)*I3)</f>
         <v>11.8547343963554</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="17">
         <f>H3/100*SUM(G3:G4)*J3</f>
         <v>-11.2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="7">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="C4" s="8"/>
+      <c r="D4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="12">
         <v>0</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="12">
         <v>2.2</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="17"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <f>-B3*B4/100</f>
         <v>-11.2</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="3:11">
-      <c r="C6" s="7"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14">
         <f>IF(A2="BUY",((F3/J6)-1)*-100,((F3/J6)-1)*100)</f>
         <v>0.692041522491349</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="11">
+      <c r="I6" s="14"/>
+      <c r="J6" s="12">
         <v>13.294</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="19">
         <f>H6/100*SUM(G3:G4)*J6</f>
         <v>0.764808362369337</v>
       </c>
     </row>
     <row r="7" spans="3:11">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="3:11">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="3:10">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <v>87.36</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="7">
         <f>E14*0.7/100</f>
         <v>0.61152</v>
       </c>
@@ -3218,13 +3283,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="D5:E5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="12.4444444444444" customWidth="1"/>
@@ -3233,71 +3298,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3">
         <v>26</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>6</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>6</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="5">
         <v>7</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>6</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3307,7 +3378,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3324,903 +3395,897 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" hidden="1" spans="1:7">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" hidden="1" spans="1:7">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" hidden="1" spans="1:7">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" hidden="1" spans="1:7">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:7">
+      <c r="A6" t="s">
         <v>68</v>
       </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="1:7">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" hidden="1" spans="1:7">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>68</v>
       </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" hidden="1" spans="1:7">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" hidden="1" spans="1:7">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" spans="1:7">
+      <c r="A11" t="s">
         <v>68</v>
       </c>
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" hidden="1" spans="1:7">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" hidden="1" spans="1:7">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" hidden="1" spans="1:7">
+      <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" spans="1:7">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" spans="1:7">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" hidden="1" spans="1:4">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" hidden="1" spans="1:7">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" spans="1:7">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" hidden="1" spans="1:7">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:4">
+      <c r="A21" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>66</v>
-      </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" hidden="1" spans="1:4">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" hidden="1" spans="1:7">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" hidden="1" spans="1:7">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" hidden="1" spans="1:7">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="1:7">
+      <c r="A26" t="s">
         <v>68</v>
       </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>66</v>
-      </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" hidden="1" spans="1:7">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" hidden="1" spans="1:7">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" hidden="1" spans="1:7">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="1:7">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" hidden="1" spans="1:7">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" hidden="1" spans="1:7">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" hidden="1" spans="1:7">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" hidden="1" spans="1:7">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" hidden="1" spans="1:7">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
         <v>104</v>
       </c>
-      <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" hidden="1" spans="1:7">
-      <c r="A36" t="s">
-        <v>100</v>
-      </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="37" hidden="1" spans="1:7">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" hidden="1" spans="1:7">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" hidden="1" spans="1:7">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" hidden="1" spans="1:7">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G40">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="equal" val="POR SELECCION"/>
-      </customFilters>
+    <filterColumn colId="6">
+      <colorFilter dxfId="5"/>
     </filterColumn>
     <extLst/>
   </autoFilter>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="112">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -267,12 +267,6 @@
     <t>CCXT</t>
   </si>
   <si>
-    <t>a veces no consigue obtener el df y falla saliendo del updating en medio de un trade.</t>
-  </si>
-  <si>
-    <t>TESTING</t>
-  </si>
-  <si>
     <t>equipoliquidando</t>
   </si>
   <si>
@@ -352,9 +346,6 @@
   </si>
   <si>
     <t>formacioninicial</t>
-  </si>
-  <si>
-    <t>no crea la primera compensacion... se arregló dividiendo preciostopsanta por multiplier</t>
   </si>
   <si>
     <t>creaactualizatps</t>
@@ -374,10 +365,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
@@ -455,7 +446,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,44 +475,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,18 +497,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -552,25 +513,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -582,9 +537,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,13 +620,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,13 +662,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,13 +698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,31 +710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,13 +722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,25 +734,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,6 +770,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -798,6 +783,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,13 +1043,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,30 +1106,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1149,10 +1120,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1173,134 +1164,133 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1507,7 +1497,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1549,14 +1539,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1920,79 +1902,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="50" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="50" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="51" customWidth="1"/>
-    <col min="4" max="4" width="21.8888888888889" style="21" customWidth="1"/>
-    <col min="5" max="5" width="17.1111111111111" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="20.5740740740741" style="49" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="49" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="50" customWidth="1"/>
+    <col min="4" max="4" width="21.8888888888889" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17.1111111111111" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="53">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>57204.1195799913</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="53">
         <f>D2-A2</f>
         <v>55690.1195799913</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
     </row>
     <row r="4" ht="19.5" customHeight="1"/>
     <row r="5" ht="19.5" customHeight="1"/>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="55"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="56">
         <f>A9*100/A2</f>
         <v>1.65125495376486</v>
       </c>
@@ -2018,425 +2000,425 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="20" customWidth="1"/>
-    <col min="3" max="3" width="27.7777777777778" style="20" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="20" customWidth="1"/>
-    <col min="5" max="5" width="18.5555555555556" style="20" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="20" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="20" customWidth="1"/>
-    <col min="8" max="8" width="1.66666666666667" style="20" customWidth="1"/>
-    <col min="9" max="9" width="32.8888888888889" style="20" customWidth="1"/>
-    <col min="10" max="10" width="31.2222222222222" style="20" customWidth="1"/>
-    <col min="11" max="11" width="8.44444444444444" style="20" customWidth="1"/>
-    <col min="12" max="12" width="31.2222222222222" style="20" customWidth="1"/>
-    <col min="13" max="16374" width="8.44444444444444" style="20" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="20"/>
-    <col min="16376" max="16384" width="8.44444444444444" style="21"/>
+    <col min="1" max="1" width="22" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="19" customWidth="1"/>
+    <col min="3" max="3" width="27.7777777777778" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="19" customWidth="1"/>
+    <col min="5" max="5" width="18.5555555555556" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="19" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="19" customWidth="1"/>
+    <col min="8" max="8" width="1.66666666666667" style="19" customWidth="1"/>
+    <col min="9" max="9" width="32.8888888888889" style="19" customWidth="1"/>
+    <col min="10" max="10" width="31.2222222222222" style="19" customWidth="1"/>
+    <col min="11" max="11" width="8.44444444444444" style="19" customWidth="1"/>
+    <col min="12" max="12" width="31.2222222222222" style="19" customWidth="1"/>
+    <col min="13" max="16374" width="8.44444444444444" style="19" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="19"/>
+    <col min="16376" max="16384" width="8.44444444444444" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="19" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="24" t="s">
+    <row r="2" s="19" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="20" customFormat="1" spans="1:10">
-      <c r="A3" s="28" t="s">
+    <row r="3" s="19" customFormat="1" spans="1:10">
+      <c r="A3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="28">
         <v>1457</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <f>G3/F3</f>
         <v>68.6339165545087</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <v>1.486</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="32">
         <f>B8</f>
         <v>101.99</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="42">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
         <v>-7.05645174826999</v>
       </c>
     </row>
-    <row r="4" s="20" customFormat="1" spans="1:10">
-      <c r="A4" s="28" t="s">
+    <row r="4" s="19" customFormat="1" spans="1:10">
+      <c r="A4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="33">
         <f>-B3*$B$10/100</f>
         <v>-145.7</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="34">
         <v>1</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <f t="shared" ref="E4:E9" si="0">E3*(1+$B$6/100)</f>
         <v>89.2240915208614</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="35">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
         <v>1.511262</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="32">
         <f t="shared" ref="G4:G13" si="1">E4*F4</f>
         <v>134.840979</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="42">
         <f>E18</f>
         <v>1206.77910471736</v>
       </c>
     </row>
-    <row r="5" s="20" customFormat="1" spans="1:10">
-      <c r="A5" s="28" t="s">
+    <row r="5" s="19" customFormat="1" spans="1:10">
+      <c r="A5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <v>1.7</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="34">
         <v>2</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <f t="shared" si="0"/>
         <v>115.99131897712</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
         <v>1.536953454</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="32">
         <f t="shared" si="1"/>
         <v>178.2732583359</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="42">
         <f>J4*J10</f>
         <v>2064.77710324769</v>
       </c>
     </row>
-    <row r="6" s="20" customFormat="1" spans="1:10">
-      <c r="A6" s="28" t="s">
+    <row r="6" s="19" customFormat="1" spans="1:10">
+      <c r="A6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>30</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="34">
         <v>3</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <f t="shared" si="0"/>
         <v>150.788714670256</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
         <v>1.563081662718</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="32">
         <f t="shared" si="1"/>
         <v>235.695074845893</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="42">
         <f>J3/100*J4*J10</f>
         <v>-145.7</v>
       </c>
     </row>
-    <row r="7" s="20" customFormat="1" spans="1:10">
-      <c r="A7" s="28" t="s">
+    <row r="7" s="19" customFormat="1" spans="1:10">
+      <c r="A7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>10</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="34">
         <v>4</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <f t="shared" si="0"/>
         <v>196.025329071332</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
         <v>1.58965405098421</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="32">
         <f t="shared" si="1"/>
         <v>311.612458453756</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="33">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
         <v>15.1400952418302</v>
       </c>
     </row>
-    <row r="8" s="20" customFormat="1" spans="1:7">
-      <c r="A8" s="28" t="s">
+    <row r="8" s="19" customFormat="1" spans="1:7">
+      <c r="A8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <f>B3*$B$9/100</f>
         <v>101.99</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>5</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <f t="shared" si="0"/>
         <v>254.832927792732</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
         <v>1.61667816985094</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="32">
         <f t="shared" si="1"/>
         <v>411.982831321711</v>
       </c>
     </row>
-    <row r="9" s="20" customFormat="1" spans="1:10">
-      <c r="A9" s="28" t="s">
+    <row r="9" s="19" customFormat="1" spans="1:10">
+      <c r="A9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>7</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <v>6</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
         <f t="shared" si="0"/>
         <v>331.282806130552</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
         <v>1.6441616987384</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="32">
         <f t="shared" si="1"/>
         <v>544.682501290432</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" s="20" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="28" t="s">
+    <row r="10" s="19" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <v>10</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="34">
         <v>7</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="33">
+      <c r="E10" s="30"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="43">
         <f>G18/E18</f>
         <v>1.59024720907573</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>1.7109818152936</v>
       </c>
     </row>
-    <row r="11" s="20" customFormat="1" spans="4:7">
-      <c r="D11" s="35">
+    <row r="11" s="19" customFormat="1" spans="4:7">
+      <c r="D11" s="34">
         <v>8</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="33">
+      <c r="E11" s="30"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="20" customFormat="1" spans="4:7">
-      <c r="D12" s="35">
+    <row r="12" s="19" customFormat="1" spans="4:7">
+      <c r="D12" s="34">
         <v>9</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="33">
+      <c r="E12" s="30"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="20" customFormat="1" spans="4:10">
-      <c r="D13" s="35">
+    <row r="13" s="19" customFormat="1" spans="4:10">
+      <c r="D13" s="34">
         <v>10</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="33">
+      <c r="E13" s="30"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="46"/>
-    </row>
-    <row r="14" s="20" customFormat="1" spans="4:9">
-      <c r="D14" s="35">
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" s="19" customFormat="1" spans="4:9">
+      <c r="D14" s="34">
         <v>11</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="33"/>
-      <c r="I14" s="47" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="32"/>
+      <c r="I14" s="46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" s="20" customFormat="1" spans="4:9">
-      <c r="D15" s="35">
+    <row r="15" s="19" customFormat="1" spans="4:9">
+      <c r="D15" s="34">
         <v>12</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="33"/>
-      <c r="I15" s="34">
+      <c r="E15" s="30"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="32"/>
+      <c r="I15" s="33">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
         <v>1.7109818152936</v>
       </c>
     </row>
-    <row r="16" s="20" customFormat="1" spans="4:9">
-      <c r="D16" s="35">
+    <row r="16" s="19" customFormat="1" spans="4:9">
+      <c r="D16" s="34">
         <v>13</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="33"/>
-      <c r="I16" s="48" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="32"/>
+      <c r="I16" s="47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" s="20" customFormat="1" ht="18.15" spans="3:10">
-      <c r="C17" s="20" t="s">
+    <row r="17" s="19" customFormat="1" ht="18.15" spans="3:10">
+      <c r="C17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40">
+      <c r="E17" s="38"/>
+      <c r="F17" s="39">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
         <v>1.65347861503125</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="40">
         <f>E17*F17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
         <v>7.59219104607256</v>
       </c>
-      <c r="J17" s="44" t="str">
+      <c r="J17" s="43" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
         <v>TIENE QUE BAJAR</v>
       </c>
     </row>
-    <row r="18" s="20" customFormat="1" spans="4:9">
-      <c r="D18" s="42"/>
-      <c r="E18" s="42">
+    <row r="18" s="19" customFormat="1" spans="4:9">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41">
         <f>SUM(E3:E17)</f>
         <v>1206.77910471736</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41">
         <f>SUM(G3:G17)</f>
         <v>1919.07710324769</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="48" t="s">
+      <c r="H18" s="41"/>
+      <c r="I18" s="47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" s="20" customFormat="1" spans="9:9">
-      <c r="I19" s="49">
+    <row r="19" s="19" customFormat="1" spans="9:9">
+      <c r="I19" s="48">
         <f>G18/B3</f>
         <v>1.31714282995724</v>
       </c>
     </row>
-    <row r="20" s="20" customFormat="1"/>
-    <row r="21" s="20" customFormat="1"/>
-    <row r="22" s="20" customFormat="1" spans="16376:16384">
-      <c r="XEV22" s="21"/>
-      <c r="XEW22" s="21"/>
-      <c r="XEX22" s="21"/>
-      <c r="XEY22" s="21"/>
-      <c r="XEZ22" s="21"/>
-      <c r="XFA22" s="21"/>
-      <c r="XFB22" s="21"/>
-      <c r="XFC22" s="21"/>
-      <c r="XFD22" s="21"/>
-    </row>
-    <row r="23" s="20" customFormat="1" spans="16376:16384">
-      <c r="XEV23" s="21"/>
-      <c r="XEW23" s="21"/>
-      <c r="XEX23" s="21"/>
-      <c r="XEY23" s="21"/>
-      <c r="XEZ23" s="21"/>
-      <c r="XFA23" s="21"/>
-      <c r="XFB23" s="21"/>
-      <c r="XFC23" s="21"/>
-      <c r="XFD23" s="21"/>
-    </row>
-    <row r="24" s="20" customFormat="1" spans="16376:16384">
-      <c r="XEV24" s="21"/>
-      <c r="XEW24" s="21"/>
-      <c r="XEX24" s="21"/>
-      <c r="XEY24" s="21"/>
-      <c r="XEZ24" s="21"/>
-      <c r="XFA24" s="21"/>
-      <c r="XFB24" s="21"/>
-      <c r="XFC24" s="21"/>
-      <c r="XFD24" s="21"/>
+    <row r="20" s="19" customFormat="1"/>
+    <row r="21" s="19" customFormat="1"/>
+    <row r="22" s="19" customFormat="1" spans="16376:16384">
+      <c r="XEV22" s="20"/>
+      <c r="XEW22" s="20"/>
+      <c r="XEX22" s="20"/>
+      <c r="XEY22" s="20"/>
+      <c r="XEZ22" s="20"/>
+      <c r="XFA22" s="20"/>
+      <c r="XFB22" s="20"/>
+      <c r="XFC22" s="20"/>
+      <c r="XFD22" s="20"/>
+    </row>
+    <row r="23" s="19" customFormat="1" spans="16376:16384">
+      <c r="XEV23" s="20"/>
+      <c r="XEW23" s="20"/>
+      <c r="XEX23" s="20"/>
+      <c r="XEY23" s="20"/>
+      <c r="XEZ23" s="20"/>
+      <c r="XFA23" s="20"/>
+      <c r="XFB23" s="20"/>
+      <c r="XFC23" s="20"/>
+      <c r="XFD23" s="20"/>
+    </row>
+    <row r="24" s="19" customFormat="1" spans="16376:16384">
+      <c r="XEV24" s="20"/>
+      <c r="XEW24" s="20"/>
+      <c r="XEX24" s="20"/>
+      <c r="XEY24" s="20"/>
+      <c r="XEZ24" s="20"/>
+      <c r="XFA24" s="20"/>
+      <c r="XFB24" s="20"/>
+      <c r="XFC24" s="20"/>
+      <c r="XFD24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2514,441 +2496,441 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="20" customWidth="1"/>
-    <col min="3" max="3" width="4.55555555555556" style="20" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="20" customWidth="1"/>
-    <col min="5" max="5" width="18.5555555555556" style="20" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="20" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="20" customWidth="1"/>
-    <col min="8" max="8" width="1.66666666666667" style="20" customWidth="1"/>
-    <col min="9" max="9" width="32.8888888888889" style="20" customWidth="1"/>
-    <col min="10" max="10" width="31.2222222222222" style="20" customWidth="1"/>
-    <col min="11" max="11" width="8.44444444444444" style="20" customWidth="1"/>
-    <col min="12" max="12" width="31.2222222222222" style="20" customWidth="1"/>
-    <col min="13" max="16374" width="8.44444444444444" style="20" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="20"/>
-    <col min="16376" max="16384" width="8.44444444444444" style="21"/>
+    <col min="1" max="1" width="22" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="19" customWidth="1"/>
+    <col min="3" max="3" width="4.55555555555556" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="19" customWidth="1"/>
+    <col min="5" max="5" width="18.5555555555556" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="19" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="19" customWidth="1"/>
+    <col min="8" max="8" width="1.66666666666667" style="19" customWidth="1"/>
+    <col min="9" max="9" width="32.8888888888889" style="19" customWidth="1"/>
+    <col min="10" max="10" width="31.2222222222222" style="19" customWidth="1"/>
+    <col min="11" max="11" width="8.44444444444444" style="19" customWidth="1"/>
+    <col min="12" max="12" width="31.2222222222222" style="19" customWidth="1"/>
+    <col min="13" max="16374" width="8.44444444444444" style="19" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="19"/>
+    <col min="16376" max="16384" width="8.44444444444444" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="19" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="24" t="s">
+    <row r="2" s="19" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="20" customFormat="1" spans="1:10">
-      <c r="A3" s="28" t="s">
+    <row r="3" s="19" customFormat="1" spans="1:10">
+      <c r="A3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="28">
         <v>1516</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <f>G3/F3</f>
         <v>72.2592945662536</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <v>2.098</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="32">
         <f>B8</f>
         <v>151.6</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="42">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
         <v>-6.2746342102956</v>
       </c>
     </row>
-    <row r="4" s="20" customFormat="1" spans="1:10">
-      <c r="A4" s="28" t="s">
+    <row r="4" s="19" customFormat="1" spans="1:10">
+      <c r="A4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="33">
         <f>-B3*$B$10/100</f>
         <v>-151.6</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="34">
         <v>1</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
         <v>83.0981887511916</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="35">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
         <v>2.13996</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="32">
         <f t="shared" ref="G4:G17" si="1">E4*F4</f>
         <v>177.8268</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="42">
         <f>E18</f>
         <v>991.890263619071</v>
       </c>
     </row>
-    <row r="5" s="20" customFormat="1" spans="1:10">
-      <c r="A5" s="28" t="s">
+    <row r="5" s="19" customFormat="1" spans="1:10">
+      <c r="A5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="34">
         <v>2</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <f t="shared" si="0"/>
         <v>95.5629170638703</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
         <v>2.1827592</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="32">
         <f t="shared" si="1"/>
         <v>208.5908364</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="42">
         <f>J4*J10</f>
         <v>2416.07709579708</v>
       </c>
     </row>
-    <row r="6" s="20" customFormat="1" spans="1:10">
-      <c r="A6" s="28" t="s">
+    <row r="6" s="19" customFormat="1" spans="1:10">
+      <c r="A6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="34">
         <v>3</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <f t="shared" si="0"/>
         <v>109.897354623451</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
         <v>2.226414384</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="32">
         <f t="shared" si="1"/>
         <v>244.6770510972</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="42">
         <f>J3/100*J4*J10</f>
         <v>-151.6</v>
       </c>
     </row>
-    <row r="7" s="20" customFormat="1" spans="1:10">
-      <c r="A7" s="28" t="s">
+    <row r="7" s="19" customFormat="1" spans="1:10">
+      <c r="A7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>10</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="34">
         <v>4</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <f t="shared" si="0"/>
         <v>126.381957816968</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
         <v>2.27094267168</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="32">
         <f t="shared" si="1"/>
         <v>287.006180937015</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="33">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
         <v>16.1025282854034</v>
       </c>
     </row>
-    <row r="8" s="20" customFormat="1" spans="1:7">
-      <c r="A8" s="28" t="s">
+    <row r="8" s="19" customFormat="1" spans="1:7">
+      <c r="A8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <f>B3*$B$9/100</f>
         <v>151.6</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>5</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <f t="shared" si="0"/>
         <v>145.339251489514</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
         <v>2.3163615251136</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="32">
         <f t="shared" si="1"/>
         <v>336.658250239119</v>
       </c>
     </row>
-    <row r="9" s="20" customFormat="1" spans="1:10">
-      <c r="A9" s="28" t="s">
+    <row r="9" s="19" customFormat="1" spans="1:10">
+      <c r="A9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>10</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <v>6</v>
       </c>
-      <c r="E9" s="31">
-        <f>E8*(1+$B$6/100)</f>
+      <c r="E9" s="30">
+        <f t="shared" si="0"/>
         <v>167.140139212941</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
         <v>2.36268875561587</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="32">
         <f t="shared" si="1"/>
         <v>394.900127530487</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" s="20" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="28" t="s">
+    <row r="10" s="19" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <v>10</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="34">
         <v>7</v>
       </c>
-      <c r="E10" s="31">
-        <f>E9*(1+$B$6/100)</f>
+      <c r="E10" s="30">
+        <f t="shared" si="0"/>
         <v>192.211160094882</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
         <v>2.40994253072819</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="32">
         <f t="shared" ref="G10:G16" si="2">E10*F10</f>
         <v>463.217849593261</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="43">
         <f>G18/E18</f>
         <v>2.28299155547184</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>2.43583104342776</v>
       </c>
     </row>
-    <row r="11" s="20" customFormat="1" spans="1:7">
-      <c r="A11" s="28" t="s">
+    <row r="11" s="19" customFormat="1" spans="1:7">
+      <c r="A11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="36">
         <f>B8*0.7/100</f>
         <v>1.0612</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <v>8</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="33">
+      <c r="E11" s="30"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="20" customFormat="1" spans="4:7">
-      <c r="D12" s="35">
+    <row r="12" s="19" customFormat="1" spans="4:7">
+      <c r="D12" s="34">
         <v>9</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="33">
+      <c r="E12" s="30"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="20" customFormat="1" spans="4:10">
-      <c r="D13" s="35">
+    <row r="13" s="19" customFormat="1" spans="4:10">
+      <c r="D13" s="34">
         <v>10</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="33">
+      <c r="E13" s="30"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="46"/>
-    </row>
-    <row r="14" s="20" customFormat="1" spans="4:9">
-      <c r="D14" s="35">
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" s="19" customFormat="1" spans="4:9">
+      <c r="D14" s="34">
         <v>11</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="33"/>
-      <c r="I14" s="47" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="32"/>
+      <c r="I14" s="46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" s="20" customFormat="1" spans="4:9">
-      <c r="D15" s="35">
+    <row r="15" s="19" customFormat="1" spans="4:9">
+      <c r="D15" s="34">
         <v>12</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="33"/>
-      <c r="I15" s="34">
+      <c r="E15" s="30"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="32"/>
+      <c r="I15" s="33">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
         <v>2.43583104342776</v>
       </c>
     </row>
-    <row r="16" s="20" customFormat="1" spans="4:9">
-      <c r="D16" s="35">
+    <row r="16" s="19" customFormat="1" spans="4:9">
+      <c r="D16" s="34">
         <v>13</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="33"/>
-      <c r="I16" s="48" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="32"/>
+      <c r="I16" s="47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" s="20" customFormat="1" ht="18.15" spans="4:10">
-      <c r="D17" s="38" t="s">
+    <row r="17" s="19" customFormat="1" ht="18.15" spans="4:10">
+      <c r="D17" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40">
+      <c r="E17" s="38"/>
+      <c r="F17" s="39">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
         <v>2.42600881426638</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
         <v>6.69470229049227</v>
       </c>
-      <c r="J17" s="44" t="str">
+      <c r="J17" s="43" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
         <v>TIENE QUE BAJAR</v>
       </c>
     </row>
-    <row r="18" s="20" customFormat="1" spans="4:9">
-      <c r="D18" s="42"/>
-      <c r="E18" s="42">
+    <row r="18" s="19" customFormat="1" spans="4:9">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41">
         <f>SUM(E3:E17)</f>
         <v>991.890263619071</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41">
         <f>SUM(G3:G17)</f>
         <v>2264.47709579708</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="48" t="s">
+      <c r="H18" s="41"/>
+      <c r="I18" s="47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" s="20" customFormat="1" spans="9:9">
-      <c r="I19" s="49">
+    <row r="19" s="19" customFormat="1" spans="9:9">
+      <c r="I19" s="48">
         <f>G18/B3</f>
         <v>1.49371840092156</v>
       </c>
     </row>
-    <row r="20" s="20" customFormat="1"/>
-    <row r="21" s="20" customFormat="1"/>
-    <row r="22" s="20" customFormat="1" spans="16376:16384">
-      <c r="XEV22" s="21"/>
-      <c r="XEW22" s="21"/>
-      <c r="XEX22" s="21"/>
-      <c r="XEY22" s="21"/>
-      <c r="XEZ22" s="21"/>
-      <c r="XFA22" s="21"/>
-      <c r="XFB22" s="21"/>
-      <c r="XFC22" s="21"/>
-      <c r="XFD22" s="21"/>
-    </row>
-    <row r="23" s="20" customFormat="1" spans="16376:16384">
-      <c r="XEV23" s="21"/>
-      <c r="XEW23" s="21"/>
-      <c r="XEX23" s="21"/>
-      <c r="XEY23" s="21"/>
-      <c r="XEZ23" s="21"/>
-      <c r="XFA23" s="21"/>
-      <c r="XFB23" s="21"/>
-      <c r="XFC23" s="21"/>
-      <c r="XFD23" s="21"/>
-    </row>
-    <row r="24" s="20" customFormat="1" spans="16376:16384">
-      <c r="XEV24" s="21"/>
-      <c r="XEW24" s="21"/>
-      <c r="XEX24" s="21"/>
-      <c r="XEY24" s="21"/>
-      <c r="XEZ24" s="21"/>
-      <c r="XFA24" s="21"/>
-      <c r="XFB24" s="21"/>
-      <c r="XFC24" s="21"/>
-      <c r="XFD24" s="21"/>
+    <row r="20" s="19" customFormat="1"/>
+    <row r="21" s="19" customFormat="1"/>
+    <row r="22" s="19" customFormat="1" spans="16376:16384">
+      <c r="XEV22" s="20"/>
+      <c r="XEW22" s="20"/>
+      <c r="XEX22" s="20"/>
+      <c r="XEY22" s="20"/>
+      <c r="XEZ22" s="20"/>
+      <c r="XFA22" s="20"/>
+      <c r="XFB22" s="20"/>
+      <c r="XFC22" s="20"/>
+      <c r="XFD22" s="20"/>
+    </row>
+    <row r="23" s="19" customFormat="1" spans="16376:16384">
+      <c r="XEV23" s="20"/>
+      <c r="XEW23" s="20"/>
+      <c r="XEX23" s="20"/>
+      <c r="XEY23" s="20"/>
+      <c r="XEZ23" s="20"/>
+      <c r="XFA23" s="20"/>
+      <c r="XFB23" s="20"/>
+      <c r="XFC23" s="20"/>
+      <c r="XFD23" s="20"/>
+    </row>
+    <row r="24" s="19" customFormat="1" spans="16376:16384">
+      <c r="XEV24" s="20"/>
+      <c r="XEW24" s="20"/>
+      <c r="XEX24" s="20"/>
+      <c r="XEY24" s="20"/>
+      <c r="XEZ24" s="20"/>
+      <c r="XFA24" s="20"/>
+      <c r="XFB24" s="20"/>
+      <c r="XFC24" s="20"/>
+      <c r="XFD24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3026,216 +3008,216 @@
   <sheetPr/>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.4444444444444" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="7"/>
-    <col min="4" max="4" width="9" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.5555555555556" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.1111111111111" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.2222222222222" style="7" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="7" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.2222222222222" style="7" customWidth="1"/>
-    <col min="11" max="11" width="14.7777777777778" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="1" width="13" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.5555555555556" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="6"/>
+    <col min="4" max="4" width="9" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.5555555555556" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.1111111111111" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.2222222222222" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.2222222222222" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.7777777777778" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.88888888888889" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12">
-        <v>112</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="11">
+        <v>1546</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="12">
-        <v>109.75</v>
-      </c>
-      <c r="F3" s="12">
-        <v>13.202</v>
-      </c>
-      <c r="G3" s="14">
+      <c r="E3" s="11">
+        <v>3179</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1.0896</v>
+      </c>
+      <c r="G3" s="13">
         <f t="shared" ref="G3:G6" si="0">E3/F3</f>
-        <v>8.31313437357976</v>
-      </c>
-      <c r="H3" s="15">
+        <v>2917.58443465492</v>
+      </c>
+      <c r="H3" s="14">
         <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
-        <v>-11.3647894469812</v>
-      </c>
-      <c r="I3" s="15">
+        <v>-5.11175770400742</v>
+      </c>
+      <c r="I3" s="14">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>13.202</v>
-      </c>
-      <c r="J3" s="15">
+        <v>1.0896</v>
+      </c>
+      <c r="J3" s="14">
         <f>IF(A2="BUY",((B5/SUM(E3:E4))+1)*I3,((B5/-SUM(E3:E4))+1)*I3)</f>
-        <v>11.8547343963554</v>
-      </c>
-      <c r="K3" s="17">
+        <v>1.0366109594212</v>
+      </c>
+      <c r="K3" s="16">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-11.2</v>
+        <v>-154.600000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>10</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>0</v>
       </c>
-      <c r="F4" s="12">
-        <v>2.2</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="F4" s="11">
+        <v>1.0817</v>
+      </c>
+      <c r="G4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="18"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <f>-B3*B4/100</f>
-        <v>-11.2</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+        <v>-154.6</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="3:11">
-      <c r="C6" s="8"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
         <f>IF(A2="BUY",((F3/J6)-1)*-100,((F3/J6)-1)*100)</f>
-        <v>0.692041522491349</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="12">
-        <v>13.294</v>
-      </c>
-      <c r="K6" s="19">
+        <v>2.89635504856967</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="11">
+        <v>1.1221</v>
+      </c>
+      <c r="K6" s="18">
         <f>H6/100*SUM(G3:G4)*J6</f>
-        <v>0.764808362369337</v>
+        <v>94.8214941262855</v>
       </c>
     </row>
     <row r="7" spans="3:11">
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="3:11">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="3:10">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>87.36</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f>E14*0.7/100</f>
         <v>0.61152</v>
       </c>
@@ -3298,64 +3280,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>26</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>6</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>6</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>7</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>6</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>20</v>
       </c>
     </row>
@@ -3374,11 +3356,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3416,7 +3398,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -3439,7 +3421,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -3462,7 +3444,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -3485,7 +3467,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -3508,7 +3490,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -3531,7 +3513,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:7">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -3554,7 +3536,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:7">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -3587,23 +3569,25 @@
       <c r="C9" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
       <c r="E9" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" hidden="1" spans="1:7">
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -3621,12 +3605,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:7">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>76</v>
@@ -3644,12 +3628,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:7">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>70</v>
@@ -3667,12 +3651,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:7">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
@@ -3690,12 +3674,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:7">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
         <v>76</v>
@@ -3713,12 +3697,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:7">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
@@ -3736,12 +3720,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:7">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
         <v>76</v>
@@ -3759,26 +3743,26 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:4">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:7">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
         <v>76</v>
@@ -3796,12 +3780,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:7">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
         <v>76</v>
@@ -3819,12 +3803,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:7">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
         <v>70</v>
@@ -3842,12 +3826,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:4">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
         <v>76</v>
@@ -3856,21 +3840,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:4">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:7">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -3893,12 +3877,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:7">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
         <v>80</v>
@@ -3916,12 +3900,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:7">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
         <v>70</v>
@@ -3939,12 +3923,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:7">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
@@ -3962,12 +3946,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:7">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
         <v>76</v>
@@ -3985,7 +3969,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:7">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -4008,12 +3992,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:7">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
         <v>70</v>
@@ -4031,12 +4015,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:7">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
         <v>70</v>
@@ -4054,12 +4038,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:7">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
         <v>70</v>
@@ -4077,12 +4061,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:7">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
         <v>70</v>
@@ -4100,12 +4084,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:7">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
         <v>104</v>
-      </c>
-      <c r="B33" t="s">
-        <v>106</v>
       </c>
       <c r="C33" t="s">
         <v>70</v>
@@ -4123,12 +4107,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:7">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
         <v>70</v>
@@ -4146,12 +4130,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:7">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
         <v>70</v>
@@ -4171,10 +4155,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
@@ -4182,20 +4166,22 @@
       <c r="D36" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" hidden="1" spans="1:7">
+      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
         <v>70</v>
@@ -4213,12 +4199,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:7">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
         <v>70</v>
@@ -4236,12 +4222,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:7">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
         <v>70</v>
@@ -4259,12 +4245,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:7">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
         <v>70</v>
@@ -4283,12 +4269,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G40">
-    <filterColumn colId="6">
-      <colorFilter dxfId="5"/>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <t>GANANCIA TOTAL</t>
   </si>
   <si>
-    <t>1514</t>
+    <t>3000</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>365</t>
+    <t>65</t>
   </si>
   <si>
     <t>calculadora diaria</t>
@@ -365,11 +365,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000000"/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="27">
@@ -437,6 +437,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -452,30 +467,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,6 +484,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -497,11 +499,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -522,16 +523,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,6 +539,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,7 +560,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,14 +575,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,49 +620,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,12 +650,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -698,7 +662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,7 +680,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,43 +782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,31 +794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,17 +1043,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,6 +1065,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,11 +1102,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,132 +1140,142 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1263,28 +1284,7 @@
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1295,41 +1295,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1897,7 +1897,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1939,11 +1939,11 @@
       </c>
       <c r="D2" s="53">
         <f>POWER(1+(B2/100),C2)*A2</f>
-        <v>57204.1195799913</v>
+        <v>5728.09946452305</v>
       </c>
       <c r="E2" s="53">
         <f>D2-A2</f>
-        <v>55690.1195799913</v>
+        <v>2728.09946452305</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="B9" s="56">
         <f>A9*100/A2</f>
-        <v>1.65125495376486</v>
+        <v>0.833333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2496,8 +2496,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2546,28 +2546,28 @@
         <v>17</v>
       </c>
       <c r="B3" s="28">
-        <v>1516</v>
+        <v>1689</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="30">
         <f>G3/F3</f>
-        <v>72.2592945662536</v>
+        <v>41.9106699751861</v>
       </c>
       <c r="F3" s="31">
-        <v>2.098</v>
+        <v>4.03</v>
       </c>
       <c r="G3" s="32">
         <f>B8</f>
-        <v>151.6</v>
+        <v>168.9</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="42">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-6.2746342102956</v>
+        <v>-7.08250888422096</v>
       </c>
     </row>
     <row r="4" s="19" customFormat="1" spans="1:10">
@@ -2576,29 +2576,29 @@
       </c>
       <c r="B4" s="33">
         <f>-B3*$B$10/100</f>
-        <v>-151.6</v>
+        <v>-168.9</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="30">
-        <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
-        <v>83.0981887511916</v>
+        <f>E3</f>
+        <v>41.9106699751861</v>
       </c>
       <c r="F4" s="35">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>2.13996</v>
+        <v>4.1106</v>
       </c>
       <c r="G4" s="32">
-        <f t="shared" ref="G4:G17" si="1">E4*F4</f>
-        <v>177.8268</v>
+        <f t="shared" ref="G4:G17" si="0">E4*F4</f>
+        <v>172.278</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="42">
         <f>E18</f>
-        <v>991.890263619071</v>
+        <v>505.72763905901</v>
       </c>
     </row>
     <row r="5" s="19" customFormat="1" spans="1:10">
@@ -2612,23 +2612,23 @@
         <v>2</v>
       </c>
       <c r="E5" s="30">
-        <f t="shared" si="0"/>
-        <v>95.5629170638703</v>
+        <f t="shared" ref="E4:E11" si="1">E4*(1+$B$6/100)</f>
+        <v>48.197270471464</v>
       </c>
       <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>2.1827592</v>
+        <v>4.192812</v>
       </c>
       <c r="G5" s="32">
-        <f t="shared" si="1"/>
-        <v>208.5908364</v>
+        <f t="shared" si="0"/>
+        <v>202.082094</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="42">
         <f>J4*J10</f>
-        <v>2416.07709579708</v>
+        <v>2384.74815578827</v>
       </c>
     </row>
     <row r="6" s="19" customFormat="1" spans="1:10">
@@ -2642,23 +2642,23 @@
         <v>3</v>
       </c>
       <c r="E6" s="30">
-        <f t="shared" si="0"/>
-        <v>109.897354623451</v>
+        <f t="shared" si="1"/>
+        <v>55.4268610421836</v>
       </c>
       <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>2.226414384</v>
+        <v>4.27666824</v>
       </c>
       <c r="G6" s="32">
-        <f t="shared" si="1"/>
-        <v>244.6770510972</v>
+        <f t="shared" si="0"/>
+        <v>237.042296262</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="42">
         <f>J3/100*J4*J10</f>
-        <v>-151.6</v>
+        <v>-168.9</v>
       </c>
     </row>
     <row r="7" s="19" customFormat="1" spans="1:10">
@@ -2672,23 +2672,23 @@
         <v>4</v>
       </c>
       <c r="E7" s="30">
-        <f t="shared" si="0"/>
-        <v>126.381957816968</v>
+        <f t="shared" si="1"/>
+        <v>63.7408901985112</v>
       </c>
       <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>2.27094267168</v>
+        <v>4.3622016048</v>
       </c>
       <c r="G7" s="32">
-        <f t="shared" si="1"/>
-        <v>287.006180937015</v>
+        <f t="shared" si="0"/>
+        <v>278.050613515326</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="33">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>16.1025282854034</v>
+        <v>17.009409082896</v>
       </c>
     </row>
     <row r="8" s="19" customFormat="1" spans="1:7">
@@ -2697,22 +2697,22 @@
       </c>
       <c r="B8" s="33">
         <f>B3*$B$9/100</f>
-        <v>151.6</v>
+        <v>168.9</v>
       </c>
       <c r="D8" s="34">
         <v>5</v>
       </c>
       <c r="E8" s="30">
-        <f t="shared" si="0"/>
-        <v>145.339251489514</v>
+        <f t="shared" si="1"/>
+        <v>73.3020237282878</v>
       </c>
       <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>2.3163615251136</v>
+        <v>4.449445636896</v>
       </c>
       <c r="G8" s="32">
-        <f t="shared" si="1"/>
-        <v>336.658250239119</v>
+        <f t="shared" si="0"/>
+        <v>326.153369653477</v>
       </c>
     </row>
     <row r="9" s="19" customFormat="1" spans="1:10">
@@ -2726,16 +2726,16 @@
         <v>6</v>
       </c>
       <c r="E9" s="30">
-        <f t="shared" si="0"/>
-        <v>167.140139212941</v>
+        <f t="shared" si="1"/>
+        <v>84.297327287531</v>
       </c>
       <c r="F9" s="35">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>2.36268875561587</v>
+        <v>4.53843454963392</v>
       </c>
       <c r="G9" s="32">
-        <f t="shared" si="1"/>
-        <v>394.900127530487</v>
+        <f t="shared" si="0"/>
+        <v>382.577902603529</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>30</v>
@@ -2755,24 +2755,24 @@
         <v>7</v>
       </c>
       <c r="E10" s="30">
-        <f t="shared" si="0"/>
-        <v>192.211160094882</v>
+        <f t="shared" si="1"/>
+        <v>96.9419263806606</v>
       </c>
       <c r="F10" s="35">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>2.40994253072819</v>
+        <v>4.6292032406266</v>
       </c>
       <c r="G10" s="32">
         <f t="shared" ref="G10:G16" si="2">E10*F10</f>
-        <v>463.217849593261</v>
+        <v>448.763879753939</v>
       </c>
       <c r="I10" s="43">
         <f>G18/E18</f>
-        <v>2.28299155547184</v>
+        <v>4.38150495375578</v>
       </c>
       <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>2.43583104342776</v>
+        <v>4.71547918604071</v>
       </c>
     </row>
     <row r="11" s="19" customFormat="1" spans="1:7">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B11" s="36">
         <f>B8*0.7/100</f>
-        <v>1.0612</v>
+        <v>1.1823</v>
       </c>
       <c r="D11" s="34">
         <v>8</v>
@@ -2839,7 +2839,7 @@
       <c r="G15" s="32"/>
       <c r="I15" s="33">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>2.43583104342776</v>
+        <v>4.71547918604071</v>
       </c>
     </row>
     <row r="16" s="19" customFormat="1" spans="4:9">
@@ -2860,15 +2860,15 @@
       <c r="E17" s="38"/>
       <c r="F17" s="39">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>2.42600881426638</v>
+        <v>4.66006459556411</v>
       </c>
       <c r="G17" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="33">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>6.69470229049227</v>
+        <v>7.62236345296481</v>
       </c>
       <c r="J17" s="43" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
@@ -2879,12 +2879,12 @@
       <c r="D18" s="41"/>
       <c r="E18" s="41">
         <f>SUM(E3:E17)</f>
-        <v>991.890263619071</v>
+        <v>505.72763905901</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="41">
         <f>SUM(G3:G17)</f>
-        <v>2264.47709579708</v>
+        <v>2215.84815578827</v>
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="47" t="s">
@@ -2894,7 +2894,7 @@
     <row r="19" s="19" customFormat="1" spans="9:9">
       <c r="I19" s="48">
         <f>G18/B3</f>
-        <v>1.49371840092156</v>
+        <v>1.31192904427962</v>
       </c>
     </row>
     <row r="20" s="19" customFormat="1"/>
@@ -3008,7 +3008,7 @@
   <sheetPr/>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3267,7 +3267,7 @@
   <sheetPr/>
   <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>15</t>
+    <t>30</t>
   </si>
   <si>
     <t>primer tp a 0.7 porciento</t>
@@ -204,7 +204,7 @@
     <t>muy movido</t>
   </si>
   <si>
-    <t>buena ganancia:</t>
+    <t>buena ganancia-mercado movido:</t>
   </si>
   <si>
     <t>ARCHIVO</t>
@@ -365,11 +365,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.000000"/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="27">
@@ -437,14 +437,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -461,7 +453,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,26 +483,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,29 +528,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,7 +568,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,7 +620,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,55 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,61 +776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,37 +794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,17 +1039,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,15 +1054,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,6 +1097,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1140,18 +1129,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,31 +1161,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1194,97 +1194,97 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1295,41 +1295,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2496,8 +2496,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="J3" s="42">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-7.08250888422096</v>
+        <v>-6.2977081349033</v>
       </c>
     </row>
     <row r="4" s="19" customFormat="1" spans="1:10">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="J4" s="42">
         <f>E18</f>
-        <v>505.72763905901</v>
+        <v>576.524433498759</v>
       </c>
     </row>
     <row r="5" s="19" customFormat="1" spans="1:10">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="E5" s="30">
         <f t="shared" ref="E4:E11" si="1">E4*(1+$B$6/100)</f>
-        <v>48.197270471464</v>
+        <v>54.4838709677419</v>
       </c>
       <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
@@ -2621,14 +2621,14 @@
       </c>
       <c r="G5" s="32">
         <f t="shared" si="0"/>
-        <v>202.082094</v>
+        <v>228.440628</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="42">
         <f>J4*J10</f>
-        <v>2384.74815578827</v>
+        <v>2681.92803448477</v>
       </c>
     </row>
     <row r="6" s="19" customFormat="1" spans="1:10">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="E6" s="30">
         <f t="shared" si="1"/>
-        <v>55.4268610421836</v>
+        <v>70.8290322580645</v>
       </c>
       <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="G6" s="32">
         <f t="shared" si="0"/>
-        <v>237.042296262</v>
+        <v>302.912272728</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>25</v>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="E7" s="30">
         <f t="shared" si="1"/>
-        <v>63.7408901985112</v>
+        <v>92.0777419354839</v>
       </c>
       <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
@@ -2681,14 +2681,14 @@
       </c>
       <c r="G7" s="32">
         <f t="shared" si="0"/>
-        <v>278.050613515326</v>
+        <v>401.661673637328</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="33">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>17.009409082896</v>
+        <v>15.4315045030972</v>
       </c>
     </row>
     <row r="8" s="19" customFormat="1" spans="1:7">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="E8" s="30">
         <f t="shared" si="1"/>
-        <v>73.3020237282878</v>
+        <v>119.701064516129</v>
       </c>
       <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="G8" s="32">
         <f t="shared" si="0"/>
-        <v>326.153369653477</v>
+        <v>532.603379243097</v>
       </c>
     </row>
     <row r="9" s="19" customFormat="1" spans="1:10">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="E9" s="30">
         <f t="shared" si="1"/>
-        <v>84.297327287531</v>
+        <v>155.611383870968</v>
       </c>
       <c r="F9" s="35">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="G9" s="32">
         <f t="shared" si="0"/>
-        <v>382.577902603529</v>
+        <v>706.232080876347</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>30</v>
@@ -2754,25 +2754,19 @@
       <c r="D10" s="34">
         <v>7</v>
       </c>
-      <c r="E10" s="30">
-        <f t="shared" si="1"/>
-        <v>96.9419263806606</v>
-      </c>
-      <c r="F10" s="35">
-        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>4.6292032406266</v>
-      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="32">
         <f t="shared" ref="G10:G16" si="2">E10*F10</f>
-        <v>448.763879753939</v>
+        <v>0</v>
       </c>
       <c r="I10" s="43">
         <f>G18/E18</f>
-        <v>4.38150495375578</v>
+        <v>4.35892719972671</v>
       </c>
       <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>4.71547918604071</v>
+        <v>4.65188963147482</v>
       </c>
     </row>
     <row r="11" s="19" customFormat="1" spans="1:7">
@@ -2839,7 +2833,7 @@
       <c r="G15" s="32"/>
       <c r="I15" s="33">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>4.71547918604071</v>
+        <v>4.65188963147482</v>
       </c>
     </row>
     <row r="16" s="19" customFormat="1" spans="4:9">
@@ -2860,7 +2854,7 @@
       <c r="E17" s="38"/>
       <c r="F17" s="39">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>4.66006459556411</v>
+        <v>4.56869077996481</v>
       </c>
       <c r="G17" s="40">
         <f t="shared" si="0"/>
@@ -2868,7 +2862,7 @@
       </c>
       <c r="I17" s="33">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>7.62236345296481</v>
+        <v>6.72097555945603</v>
       </c>
       <c r="J17" s="43" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
@@ -2879,12 +2873,12 @@
       <c r="D18" s="41"/>
       <c r="E18" s="41">
         <f>SUM(E3:E17)</f>
-        <v>505.72763905901</v>
+        <v>576.524433498759</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="41">
         <f>SUM(G3:G17)</f>
-        <v>2215.84815578827</v>
+        <v>2513.02803448477</v>
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="47" t="s">
@@ -2894,7 +2888,7 @@
     <row r="19" s="19" customFormat="1" spans="9:9">
       <c r="I19" s="48">
         <f>G18/B3</f>
-        <v>1.31192904427962</v>
+        <v>1.48787923888974</v>
       </c>
     </row>
     <row r="20" s="19" customFormat="1"/>
@@ -3267,8 +3261,8 @@
   <sheetPr/>
   <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -2496,7 +2496,7 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3261,7 +3261,7 @@
   <sheetPr/>
   <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="113">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -141,10 +141,13 @@
     <t>margen ratio</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1.7</t>
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>primer tp a 0.7 porciento</t>
@@ -1995,7 +1998,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2497,7 +2500,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2567,7 +2570,7 @@
       </c>
       <c r="J3" s="42">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-6.2977081349033</v>
+        <v>-4.73121859925554</v>
       </c>
     </row>
     <row r="4" s="19" customFormat="1" spans="1:10">
@@ -2587,18 +2590,18 @@
       </c>
       <c r="F4" s="35">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>4.1106</v>
+        <v>4.09851</v>
       </c>
       <c r="G4" s="32">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>172.278</v>
+        <v>171.7713</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="42">
         <f>E18</f>
-        <v>576.524433498759</v>
+        <v>778.819232531017</v>
       </c>
     </row>
     <row r="5" s="19" customFormat="1" spans="1:10">
@@ -2617,18 +2620,18 @@
       </c>
       <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>4.192812</v>
+        <v>4.16818467</v>
       </c>
       <c r="G5" s="32">
         <f t="shared" si="0"/>
-        <v>228.440628</v>
+        <v>227.09883573</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="42">
         <f>J4*J10</f>
-        <v>2681.92803448477</v>
+        <v>3569.90480267762</v>
       </c>
     </row>
     <row r="6" s="19" customFormat="1" spans="1:10">
@@ -2647,11 +2650,11 @@
       </c>
       <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>4.27666824</v>
+        <v>4.23904380939</v>
       </c>
       <c r="G6" s="32">
         <f t="shared" si="0"/>
-        <v>302.912272728</v>
+        <v>300.247370718633</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>25</v>
@@ -2665,8 +2668,8 @@
       <c r="A7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="33">
-        <v>10</v>
+      <c r="B7" s="33" t="s">
+        <v>41</v>
       </c>
       <c r="D7" s="34">
         <v>4</v>
@@ -2677,18 +2680,18 @@
       </c>
       <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>4.3622016048</v>
+        <v>4.31110755414963</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="0"/>
-        <v>401.661673637328</v>
+        <v>396.957048827105</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="33">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>15.4315045030972</v>
+        <v>13.740444539526</v>
       </c>
     </row>
     <row r="8" s="19" customFormat="1" spans="1:7">
@@ -2708,11 +2711,11 @@
       </c>
       <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>4.449445636896</v>
+        <v>4.38439638257017</v>
       </c>
       <c r="G8" s="32">
         <f t="shared" si="0"/>
-        <v>532.603379243097</v>
+        <v>524.816914254315</v>
       </c>
     </row>
     <row r="9" s="19" customFormat="1" spans="1:10">
@@ -2731,11 +2734,11 @@
       </c>
       <c r="F9" s="35">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>4.53843454963392</v>
+        <v>4.45893112107387</v>
       </c>
       <c r="G9" s="32">
         <f t="shared" si="0"/>
-        <v>706.232080876347</v>
+        <v>693.86044233563</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>30</v>
@@ -2754,24 +2757,30 @@
       <c r="D10" s="34">
         <v>7</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="35"/>
+      <c r="E10" s="30">
+        <f>E9*(1+$B$6/100)</f>
+        <v>202.294799032258</v>
+      </c>
+      <c r="F10" s="35">
+        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
+        <v>4.53473295013212</v>
+      </c>
       <c r="G10" s="32">
         <f t="shared" ref="G10:G16" si="2">E10*F10</f>
-        <v>0</v>
+        <v>917.352890811936</v>
       </c>
       <c r="I10" s="43">
         <f>G18/E18</f>
-        <v>4.35892719972671</v>
+        <v>4.36687315954562</v>
       </c>
       <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>4.65188963147482</v>
+        <v>4.5837399149429</v>
       </c>
     </row>
     <row r="11" s="19" customFormat="1" spans="1:7">
       <c r="A11" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="36">
         <f>B8*0.7/100</f>
@@ -2833,7 +2842,7 @@
       <c r="G15" s="32"/>
       <c r="I15" s="33">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>4.65188963147482</v>
+        <v>4.5837399149429</v>
       </c>
     </row>
     <row r="16" s="19" customFormat="1" spans="4:9">
@@ -2844,7 +2853,7 @@
       <c r="F16" s="35"/>
       <c r="G16" s="32"/>
       <c r="I16" s="47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" s="19" customFormat="1" ht="18.15" spans="4:10">
@@ -2854,7 +2863,7 @@
       <c r="E17" s="38"/>
       <c r="F17" s="39">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>4.56869077996481</v>
+        <v>4.56042977018287</v>
       </c>
       <c r="G17" s="40">
         <f t="shared" si="0"/>
@@ -2862,7 +2871,7 @@
       </c>
       <c r="I17" s="33">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>6.72097555945603</v>
+        <v>4.96617940283486</v>
       </c>
       <c r="J17" s="43" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
@@ -2873,12 +2882,12 @@
       <c r="D18" s="41"/>
       <c r="E18" s="41">
         <f>SUM(E3:E17)</f>
-        <v>576.524433498759</v>
+        <v>778.819232531017</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="41">
         <f>SUM(G3:G17)</f>
-        <v>2513.02803448477</v>
+        <v>3401.00480267762</v>
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="47" t="s">
@@ -2888,7 +2897,7 @@
     <row r="19" s="19" customFormat="1" spans="9:9">
       <c r="I19" s="48">
         <f>G18/B3</f>
-        <v>1.48787923888974</v>
+        <v>2.01362036866644</v>
       </c>
     </row>
     <row r="20" s="19" customFormat="1"/>
@@ -3036,31 +3045,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3072,7 +3081,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="11">
         <v>3179</v>
@@ -3103,14 +3112,14 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="6">
         <v>10</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="11">
         <v>0</v>
@@ -3276,18 +3285,18 @@
     <row r="1" spans="2:5">
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>26</v>
@@ -3299,7 +3308,7 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
@@ -3311,7 +3320,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -3323,7 +3332,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4">
         <v>7</v>
@@ -3337,7 +3346,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3371,895 +3380,895 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
         <v>77</v>
       </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -368,11 +368,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.000000"/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="27">
@@ -441,7 +441,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,14 +456,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,14 +500,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -493,10 +508,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,14 +528,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,22 +547,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -556,14 +556,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,14 +578,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,7 +623,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,7 +683,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,91 +779,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,61 +797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,6 +1042,15 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,6 +1079,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1081,6 +1101,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,15 +1129,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1123,36 +1143,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1167,127 +1167,127 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1298,41 +1298,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2499,7 +2499,7 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2758,7 +2758,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="30">
-        <f>E9*(1+$B$6/100)</f>
+        <f t="shared" si="1"/>
         <v>202.294799032258</v>
       </c>
       <c r="F10" s="35">
@@ -3362,8 +3362,8 @@
   <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3685,7 +3685,7 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
         <v>72</v>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="5"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="110">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -139,15 +139,6 @@
   </si>
   <si>
     <t>margen ratio</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>primer tp a 0.7 porciento</t>
@@ -368,12 +359,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.000000"/>
-    <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -440,6 +431,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -447,9 +446,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,6 +468,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -469,32 +476,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,7 +493,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,30 +547,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,14 +555,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,9 +568,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,126 +614,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -755,7 +626,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,37 +698,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,11 +1037,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,26 +1087,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,45 +1115,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1164,175 +1155,175 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1360,7 +1351,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1375,7 +1366,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1384,13 +1375,10 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1403,6 +1391,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1421,6 +1412,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1905,79 +1899,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="49" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="49" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="50" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="50" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="50" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="51" customWidth="1"/>
     <col min="4" max="4" width="21.8888888888889" style="20" customWidth="1"/>
     <col min="5" max="5" width="17.1111111111111" style="20" customWidth="1"/>
     <col min="6" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="52" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="54">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>5728.09946452305</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="54">
         <f>D2-A2</f>
         <v>2728.09946452305</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" ht="19.5" customHeight="1"/>
     <row r="5" ht="19.5" customHeight="1"/>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="56"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="57">
         <f>A9*100/A2</f>
         <v>0.833333333333333</v>
       </c>
@@ -1998,7 +1992,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2046,7 +2040,7 @@
       <c r="A3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="49">
         <v>1457</v>
       </c>
       <c r="D3" s="29" t="s">
@@ -2066,7 +2060,7 @@
       <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="41">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
         <v>-7.05645174826999</v>
       </c>
@@ -2075,7 +2069,7 @@
       <c r="A4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="42">
         <f>-B3*$B$10/100</f>
         <v>-145.7</v>
       </c>
@@ -2097,7 +2091,7 @@
       <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="41">
         <f>E18</f>
         <v>1206.77910471736</v>
       </c>
@@ -2106,7 +2100,7 @@
       <c r="A5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="42">
         <v>1.7</v>
       </c>
       <c r="D5" s="34">
@@ -2127,7 +2121,7 @@
       <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="41">
         <f>J4*J10</f>
         <v>2064.77710324769</v>
       </c>
@@ -2136,7 +2130,7 @@
       <c r="A6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="42">
         <v>30</v>
       </c>
       <c r="D6" s="34">
@@ -2157,7 +2151,7 @@
       <c r="I6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="41">
         <f>J3/100*J4*J10</f>
         <v>-145.7</v>
       </c>
@@ -2166,7 +2160,7 @@
       <c r="A7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="42">
         <v>10</v>
       </c>
       <c r="D7" s="34">
@@ -2187,7 +2181,7 @@
       <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="42">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
         <v>15.1400952418302</v>
       </c>
@@ -2196,7 +2190,7 @@
       <c r="A8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="42">
         <f>B3*$B$9/100</f>
         <v>101.99</v>
       </c>
@@ -2220,7 +2214,7 @@
       <c r="A9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="49">
         <v>7</v>
       </c>
       <c r="D9" s="34">
@@ -2249,7 +2243,7 @@
       <c r="A10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="42">
         <v>10</v>
       </c>
       <c r="D10" s="34">
@@ -2325,7 +2319,7 @@
       <c r="E15" s="30"/>
       <c r="F15" s="35"/>
       <c r="G15" s="32"/>
-      <c r="I15" s="33">
+      <c r="I15" s="42">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
         <v>1.7109818152936</v>
       </c>
@@ -2345,19 +2339,19 @@
       <c r="C17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39">
+      <c r="E17" s="37"/>
+      <c r="F17" s="38">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
         <v>1.65347861503125</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="39">
         <f>E17*F17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="42">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
         <v>7.59219104607256</v>
       </c>
@@ -2367,17 +2361,17 @@
       </c>
     </row>
     <row r="18" s="19" customFormat="1" spans="4:9">
-      <c r="D18" s="41"/>
-      <c r="E18" s="41">
+      <c r="D18" s="40"/>
+      <c r="E18" s="40">
         <f>SUM(E3:E17)</f>
         <v>1206.77910471736</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41">
+      <c r="F18" s="40"/>
+      <c r="G18" s="40">
         <f>SUM(G3:G17)</f>
         <v>1919.07710324769</v>
       </c>
-      <c r="H18" s="41"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="47" t="s">
         <v>38</v>
       </c>
@@ -2499,8 +2493,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2549,28 +2543,28 @@
         <v>17</v>
       </c>
       <c r="B3" s="28">
-        <v>1689</v>
+        <v>1748.57</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="30">
         <f>G3/F3</f>
-        <v>41.9106699751861</v>
+        <v>136.447132266875</v>
       </c>
       <c r="F3" s="31">
-        <v>4.03</v>
+        <v>2.563</v>
       </c>
       <c r="G3" s="32">
         <f>B8</f>
-        <v>168.9</v>
+        <v>349.714</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="41">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-4.73121859925554</v>
+        <v>-2.24409686827769</v>
       </c>
     </row>
     <row r="4" s="19" customFormat="1" spans="1:10">
@@ -2579,119 +2573,119 @@
       </c>
       <c r="B4" s="33">
         <f>-B3*$B$10/100</f>
-        <v>-168.9</v>
+        <v>-349.714</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="30">
         <f>E3</f>
-        <v>41.9106699751861</v>
+        <v>136.447132266875</v>
       </c>
       <c r="F4" s="35">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>4.09851</v>
+        <v>2.606571</v>
       </c>
       <c r="G4" s="32">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>171.7713</v>
+        <v>355.659138</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="41">
         <f>E18</f>
-        <v>778.819232531017</v>
+        <v>5481.4087762778</v>
       </c>
     </row>
     <row r="5" s="19" customFormat="1" spans="1:10">
       <c r="A5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>39</v>
+      <c r="B5" s="33">
+        <v>1.7</v>
       </c>
       <c r="D5" s="34">
         <v>2</v>
       </c>
       <c r="E5" s="30">
         <f t="shared" ref="E4:E11" si="1">E4*(1+$B$6/100)</f>
-        <v>54.4838709677419</v>
+        <v>177.381271946937</v>
       </c>
       <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>4.16818467</v>
+        <v>2.650882707</v>
       </c>
       <c r="G5" s="32">
         <f t="shared" si="0"/>
-        <v>227.09883573</v>
+        <v>470.2169463498</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="41">
         <f>J4*J10</f>
-        <v>3569.90480267762</v>
+        <v>15583.730138548</v>
       </c>
     </row>
     <row r="6" s="19" customFormat="1" spans="1:10">
       <c r="A6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>40</v>
+      <c r="B6" s="33">
+        <v>30</v>
       </c>
       <c r="D6" s="34">
         <v>3</v>
       </c>
       <c r="E6" s="30">
         <f t="shared" si="1"/>
-        <v>70.8290322580645</v>
+        <v>230.595653531018</v>
       </c>
       <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>4.23904380939</v>
+        <v>2.695947713019</v>
       </c>
       <c r="G6" s="32">
         <f t="shared" si="0"/>
-        <v>300.247370718633</v>
+        <v>621.67382476907</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="41">
         <f>J3/100*J4*J10</f>
-        <v>-168.9</v>
+        <v>-349.714000000001</v>
       </c>
     </row>
     <row r="7" s="19" customFormat="1" spans="1:10">
       <c r="A7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>41</v>
+      <c r="B7" s="33">
+        <v>10</v>
       </c>
       <c r="D7" s="34">
         <v>4</v>
       </c>
       <c r="E7" s="30">
         <f t="shared" si="1"/>
-        <v>92.0777419354839</v>
+        <v>299.774349590324</v>
       </c>
       <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>4.31110755414963</v>
+        <v>2.74177882414032</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="0"/>
-        <v>396.957048827105</v>
+        <v>821.914963727188</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="42">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>13.740444539526</v>
+        <v>10.9253025633419</v>
       </c>
     </row>
     <row r="8" s="19" customFormat="1" spans="1:7">
@@ -2700,22 +2694,22 @@
       </c>
       <c r="B8" s="33">
         <f>B3*$B$9/100</f>
-        <v>168.9</v>
+        <v>349.714</v>
       </c>
       <c r="D8" s="34">
         <v>5</v>
       </c>
       <c r="E8" s="30">
         <f t="shared" si="1"/>
-        <v>119.701064516129</v>
+        <v>389.706654467421</v>
       </c>
       <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>4.38439638257017</v>
+        <v>2.78838906415071</v>
       </c>
       <c r="G8" s="32">
         <f t="shared" si="0"/>
-        <v>524.816914254315</v>
+        <v>1086.65377354372</v>
       </c>
     </row>
     <row r="9" s="19" customFormat="1" spans="1:10">
@@ -2723,22 +2717,16 @@
         <v>29</v>
       </c>
       <c r="B9" s="28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D9" s="34">
         <v>6</v>
       </c>
-      <c r="E9" s="30">
-        <f t="shared" si="1"/>
-        <v>155.611383870968</v>
-      </c>
-      <c r="F9" s="35">
-        <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>4.45893112107387</v>
-      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="32">
         <f t="shared" si="0"/>
-        <v>693.86044233563</v>
+        <v>0</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>30</v>
@@ -2751,40 +2739,34 @@
       <c r="A10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="33">
-        <v>10</v>
+      <c r="B10" s="28">
+        <v>20</v>
       </c>
       <c r="D10" s="34">
         <v>7</v>
       </c>
-      <c r="E10" s="30">
-        <f t="shared" si="1"/>
-        <v>202.294799032258</v>
-      </c>
-      <c r="F10" s="35">
-        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>4.53473295013212</v>
-      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="32">
         <f t="shared" ref="G10:G16" si="2">E10*F10</f>
-        <v>917.352890811936</v>
+        <v>0</v>
       </c>
       <c r="I10" s="43">
         <f>G18/E18</f>
-        <v>4.36687315954562</v>
+        <v>2.77921548279286</v>
       </c>
       <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>4.5837399149429</v>
+        <v>2.84301550469845</v>
       </c>
     </row>
     <row r="11" s="19" customFormat="1" spans="1:7">
       <c r="A11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="36">
+        <v>39</v>
+      </c>
+      <c r="B11" s="33">
         <f>B8*0.7/100</f>
-        <v>1.1823</v>
+        <v>2.447998</v>
       </c>
       <c r="D11" s="34">
         <v>8</v>
@@ -2840,9 +2822,9 @@
       <c r="E15" s="30"/>
       <c r="F15" s="35"/>
       <c r="G15" s="32"/>
-      <c r="I15" s="33">
+      <c r="I15" s="42">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>4.5837399149429</v>
+        <v>2.84301550469845</v>
       </c>
     </row>
     <row r="16" s="19" customFormat="1" spans="4:9">
@@ -2853,25 +2835,28 @@
       <c r="F16" s="35"/>
       <c r="G16" s="32"/>
       <c r="I16" s="47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" s="19" customFormat="1" ht="18.15" spans="4:10">
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39">
+      <c r="E17" s="37">
+        <f>SUM(E3:E9)*3</f>
+        <v>4111.05658220835</v>
+      </c>
+      <c r="F17" s="38">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>4.56042977018287</v>
-      </c>
-      <c r="G17" s="40">
+        <v>2.80418993551423</v>
+      </c>
+      <c r="G17" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="33">
+        <v>11528.1834921582</v>
+      </c>
+      <c r="I17" s="42">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>4.96617940283486</v>
+        <v>2.29561263963145</v>
       </c>
       <c r="J17" s="43" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
@@ -2879,17 +2864,17 @@
       </c>
     </row>
     <row r="18" s="19" customFormat="1" spans="4:9">
-      <c r="D18" s="41"/>
-      <c r="E18" s="41">
+      <c r="D18" s="40"/>
+      <c r="E18" s="40">
         <f>SUM(E3:E17)</f>
-        <v>778.819232531017</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41">
+        <v>5481.4087762778</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40">
         <f>SUM(G3:G17)</f>
-        <v>3401.00480267762</v>
-      </c>
-      <c r="H18" s="41"/>
+        <v>15234.0161385479</v>
+      </c>
+      <c r="H18" s="40"/>
       <c r="I18" s="47" t="s">
         <v>38</v>
       </c>
@@ -2897,7 +2882,7 @@
     <row r="19" s="19" customFormat="1" spans="9:9">
       <c r="I19" s="48">
         <f>G18/B3</f>
-        <v>2.01362036866644</v>
+        <v>8.71227124939119</v>
       </c>
     </row>
     <row r="20" s="19" customFormat="1"/>
@@ -3045,31 +3030,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3081,7 +3066,7 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E3" s="11">
         <v>3179</v>
@@ -3112,14 +3097,14 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" s="6">
         <v>10</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" s="11">
         <v>0</v>
@@ -3285,18 +3270,18 @@
     <row r="1" spans="2:5">
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <v>26</v>
@@ -3308,7 +3293,7 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
@@ -3320,7 +3305,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -3332,7 +3317,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4">
         <v>7</v>
@@ -3346,7 +3331,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3362,7 +3347,7 @@
   <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3380,895 +3365,895 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
         <v>103</v>
       </c>
-      <c r="B34" t="s">
-        <v>106</v>
-      </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -141,13 +141,13 @@
     <t>margen ratio</t>
   </si>
   <si>
+    <t>BUY</t>
+  </si>
+  <si>
     <t>primer tp a 0.7 porciento</t>
   </si>
   <si>
     <t>porc distancia entre posicion y precio (se recomienda que sea al menos la mitad del porsentaje que soporta)</t>
-  </si>
-  <si>
-    <t>BUY</t>
   </si>
   <si>
     <t>Size</t>
@@ -359,12 +359,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00000"/>
-    <numFmt numFmtId="177" formatCode="0.000000"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.000000"/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -431,6 +431,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -440,7 +447,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,98 +545,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -614,7 +614,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,49 +698,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,19 +752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,55 +770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,25 +782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,17 +1037,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,8 +1064,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,11 +1109,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,13 +1137,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1155,130 +1155,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,41 +1289,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1378,7 +1378,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2494,7 +2494,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2521,7 +2521,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" s="19" customFormat="1" ht="15.15" spans="4:7">
@@ -2543,28 +2543,28 @@
         <v>17</v>
       </c>
       <c r="B3" s="28">
-        <v>1748.57</v>
+        <v>1754.18</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="30">
         <f>G3/F3</f>
-        <v>136.447132266875</v>
+        <v>111.589058524173</v>
       </c>
       <c r="F3" s="31">
-        <v>2.563</v>
+        <v>3.144</v>
       </c>
       <c r="G3" s="32">
         <f>B8</f>
-        <v>349.714</v>
+        <v>350.836</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="41">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-2.24409686827769</v>
+        <v>-2.04541417001616</v>
       </c>
     </row>
     <row r="4" s="19" customFormat="1" spans="1:10">
@@ -2573,29 +2573,29 @@
       </c>
       <c r="B4" s="33">
         <f>-B3*$B$10/100</f>
-        <v>-349.714</v>
+        <v>-350.836</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="30">
         <f>E3</f>
-        <v>136.447132266875</v>
+        <v>111.589058524173</v>
       </c>
       <c r="F4" s="35">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>2.606571</v>
+        <v>3.090552</v>
       </c>
       <c r="G4" s="32">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>355.659138</v>
+        <v>344.871788</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="41">
         <f>E18</f>
-        <v>5481.4087762778</v>
+        <v>6140.08974692112</v>
       </c>
     </row>
     <row r="5" s="19" customFormat="1" spans="1:10">
@@ -2610,22 +2610,22 @@
       </c>
       <c r="E5" s="30">
         <f t="shared" ref="E4:E11" si="1">E4*(1+$B$6/100)</f>
-        <v>177.381271946937</v>
+        <v>145.065776081425</v>
       </c>
       <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>2.650882707</v>
+        <v>3.038012616</v>
       </c>
       <c r="G5" s="32">
         <f t="shared" si="0"/>
-        <v>470.2169463498</v>
+        <v>440.7116578852</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="41">
         <f>J4*J10</f>
-        <v>15583.730138548</v>
+        <v>17152.3207936528</v>
       </c>
     </row>
     <row r="6" s="19" customFormat="1" spans="1:10">
@@ -2640,22 +2640,22 @@
       </c>
       <c r="E6" s="30">
         <f t="shared" si="1"/>
-        <v>230.595653531018</v>
+        <v>188.585508905852</v>
       </c>
       <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>2.695947713019</v>
+        <v>2.986366401528</v>
       </c>
       <c r="G6" s="32">
         <f t="shared" si="0"/>
-        <v>621.67382476907</v>
+        <v>563.185427611497</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="41">
         <f>J3/100*J4*J10</f>
-        <v>-349.714000000001</v>
+        <v>-350.836000000002</v>
       </c>
     </row>
     <row r="7" s="19" customFormat="1" spans="1:10">
@@ -2670,22 +2670,22 @@
       </c>
       <c r="E7" s="30">
         <f t="shared" si="1"/>
-        <v>299.774349590324</v>
+        <v>245.161161577608</v>
       </c>
       <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>2.74177882414032</v>
+        <v>2.93559817270202</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="0"/>
-        <v>821.914963727188</v>
+        <v>719.694657944732</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="42">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>10.9253025633419</v>
+        <v>11.1483219890443</v>
       </c>
     </row>
     <row r="8" s="19" customFormat="1" spans="1:7">
@@ -2694,22 +2694,22 @@
       </c>
       <c r="B8" s="33">
         <f>B3*$B$9/100</f>
-        <v>349.714</v>
+        <v>350.836</v>
       </c>
       <c r="D8" s="34">
         <v>5</v>
       </c>
       <c r="E8" s="30">
         <f t="shared" si="1"/>
-        <v>389.706654467421</v>
+        <v>318.709510050891</v>
       </c>
       <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>2.78838906415071</v>
+        <v>2.88569300376609</v>
       </c>
       <c r="G8" s="32">
         <f t="shared" si="0"/>
-        <v>1086.65377354372</v>
+        <v>919.697803387573</v>
       </c>
     </row>
     <row r="9" s="19" customFormat="1" spans="1:10">
@@ -2722,11 +2722,17 @@
       <c r="D9" s="34">
         <v>6</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="35"/>
+      <c r="E9" s="30">
+        <f>E8*(1+$B$6/100)</f>
+        <v>414.322363066158</v>
+      </c>
+      <c r="F9" s="35">
+        <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
+        <v>2.83663622270207</v>
+      </c>
       <c r="G9" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1175.28182294898</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>30</v>
@@ -2753,20 +2759,20 @@
       </c>
       <c r="I10" s="43">
         <f>G18/E18</f>
-        <v>2.77921548279286</v>
+        <v>2.8506353351642</v>
       </c>
       <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>2.84301550469845</v>
+        <v>2.79349675666445</v>
       </c>
     </row>
     <row r="11" s="19" customFormat="1" spans="1:7">
       <c r="A11" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="33">
         <f>B8*0.7/100</f>
-        <v>2.447998</v>
+        <v>2.455852</v>
       </c>
       <c r="D11" s="34">
         <v>8</v>
@@ -2824,7 +2830,7 @@
       <c r="G15" s="32"/>
       <c r="I15" s="42">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>2.84301550469845</v>
+        <v>2.79349675666445</v>
       </c>
     </row>
     <row r="16" s="19" customFormat="1" spans="4:9">
@@ -2835,7 +2841,7 @@
       <c r="F16" s="35"/>
       <c r="G16" s="32"/>
       <c r="I16" s="47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" s="19" customFormat="1" ht="18.15" spans="4:10">
@@ -2844,35 +2850,35 @@
       </c>
       <c r="E17" s="37">
         <f>SUM(E3:E9)*3</f>
-        <v>4111.05658220835</v>
+        <v>4605.06731019084</v>
       </c>
       <c r="F17" s="38">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>2.80418993551423</v>
+        <v>2.82056195077342</v>
       </c>
       <c r="G17" s="39">
         <f t="shared" si="0"/>
-        <v>11528.1834921582</v>
+        <v>12988.8776358748</v>
       </c>
       <c r="I17" s="42">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>2.29561263963145</v>
+        <v>2.00441556992293</v>
       </c>
       <c r="J17" s="43" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
-        <v>TIENE QUE BAJAR</v>
+        <v>TIENE QUE SUBIR</v>
       </c>
     </row>
     <row r="18" s="19" customFormat="1" spans="4:9">
       <c r="D18" s="40"/>
       <c r="E18" s="40">
         <f>SUM(E3:E17)</f>
-        <v>5481.4087762778</v>
+        <v>6140.08974692112</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40">
         <f>SUM(G3:G17)</f>
-        <v>15234.0161385479</v>
+        <v>17503.1567936528</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="47" t="s">
@@ -2882,7 +2888,7 @@
     <row r="19" s="19" customFormat="1" spans="9:9">
       <c r="I19" s="48">
         <f>G18/B3</f>
-        <v>8.71227124939119</v>
+        <v>9.97797078615237</v>
       </c>
     </row>
     <row r="20" s="19" customFormat="1"/>
@@ -3030,7 +3036,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -359,10 +359,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.000000"/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
@@ -431,6 +431,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -438,16 +453,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,7 +478,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,16 +507,33 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,44 +553,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -553,16 +561,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,13 +614,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +644,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,13 +674,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,13 +710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,13 +722,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,19 +740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,43 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +770,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,11 +1037,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,23 +1088,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,44 +1120,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1155,130 +1155,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2494,7 +2494,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2543,28 +2543,28 @@
         <v>17</v>
       </c>
       <c r="B3" s="28">
-        <v>1754.18</v>
+        <v>1929</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="30">
         <f>G3/F3</f>
-        <v>111.589058524173</v>
+        <v>106.964847768893</v>
       </c>
       <c r="F3" s="31">
-        <v>3.144</v>
+        <v>9.016981</v>
       </c>
       <c r="G3" s="32">
         <f>B8</f>
-        <v>350.836</v>
+        <v>964.5</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="41">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-2.04541417001616</v>
+        <v>-1.90326229629663</v>
       </c>
     </row>
     <row r="4" s="19" customFormat="1" spans="1:10">
@@ -2573,29 +2573,29 @@
       </c>
       <c r="B4" s="33">
         <f>-B3*$B$10/100</f>
-        <v>-350.836</v>
+        <v>-964.5</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="30">
         <f>E3</f>
-        <v>111.589058524173</v>
+        <v>106.964847768893</v>
       </c>
       <c r="F4" s="35">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>3.090552</v>
+        <v>8.863692323</v>
       </c>
       <c r="G4" s="32">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>344.871788</v>
+        <v>948.1035</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="41">
         <f>E18</f>
-        <v>6140.08974692112</v>
+        <v>6401.94550931182</v>
       </c>
     </row>
     <row r="5" s="19" customFormat="1" spans="1:10">
@@ -2609,23 +2609,23 @@
         <v>2</v>
       </c>
       <c r="E5" s="30">
-        <f t="shared" ref="E4:E11" si="1">E4*(1+$B$6/100)</f>
-        <v>145.065776081425</v>
+        <f>E4*(1+$B$6/100)</f>
+        <v>139.054302099561</v>
       </c>
       <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>3.038012616</v>
+        <v>8.713009553509</v>
       </c>
       <c r="G5" s="32">
         <f t="shared" si="0"/>
-        <v>440.7116578852</v>
+        <v>1211.58146265</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="41">
         <f>J4*J10</f>
-        <v>17152.3207936528</v>
+        <v>50676.1470490288</v>
       </c>
     </row>
     <row r="6" s="19" customFormat="1" spans="1:10">
@@ -2639,23 +2639,23 @@
         <v>3</v>
       </c>
       <c r="E6" s="30">
-        <f t="shared" si="1"/>
-        <v>188.585508905852</v>
+        <f>E5*(1+$B$6/100)</f>
+        <v>180.770592729429</v>
       </c>
       <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>2.986366401528</v>
+        <v>8.56488839109934</v>
       </c>
       <c r="G6" s="32">
         <f t="shared" si="0"/>
-        <v>563.185427611497</v>
+        <v>1548.27995112043</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="41">
         <f>J3/100*J4*J10</f>
-        <v>-350.836000000002</v>
+        <v>-964.500000000001</v>
       </c>
     </row>
     <row r="7" s="19" customFormat="1" spans="1:10">
@@ -2669,23 +2669,23 @@
         <v>4</v>
       </c>
       <c r="E7" s="30">
-        <f t="shared" si="1"/>
-        <v>245.161161577608</v>
+        <f>E6*(1+$B$6/100)</f>
+        <v>235.001770548258</v>
       </c>
       <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>2.93559817270202</v>
+        <v>8.41928528845066</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="0"/>
-        <v>719.694657944732</v>
+        <v>1978.5469495368</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="42">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>11.1483219890443</v>
+        <v>12.2129490668851</v>
       </c>
     </row>
     <row r="8" s="19" customFormat="1" spans="1:7">
@@ -2694,22 +2694,22 @@
       </c>
       <c r="B8" s="33">
         <f>B3*$B$9/100</f>
-        <v>350.836</v>
+        <v>964.5</v>
       </c>
       <c r="D8" s="34">
         <v>5</v>
       </c>
       <c r="E8" s="30">
-        <f t="shared" si="1"/>
-        <v>318.709510050891</v>
+        <f>E7*(1+$B$6/100)</f>
+        <v>305.502301712735</v>
       </c>
       <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>2.88569300376609</v>
+        <v>8.27615743854699</v>
       </c>
       <c r="G8" s="32">
         <f t="shared" si="0"/>
-        <v>919.697803387573</v>
+        <v>2528.38514681308</v>
       </c>
     </row>
     <row r="9" s="19" customFormat="1" spans="1:10">
@@ -2717,22 +2717,22 @@
         <v>29</v>
       </c>
       <c r="B9" s="28">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D9" s="34">
         <v>6</v>
       </c>
       <c r="E9" s="30">
         <f>E8*(1+$B$6/100)</f>
-        <v>414.322363066158</v>
+        <v>397.152992226556</v>
       </c>
       <c r="F9" s="35">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>2.83663622270207</v>
+        <v>8.1354627620917</v>
       </c>
       <c r="G9" s="32">
         <f t="shared" si="0"/>
-        <v>1175.28182294898</v>
+        <v>3231.02337911244</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>30</v>
@@ -2746,24 +2746,30 @@
         <v>32</v>
       </c>
       <c r="B10" s="28">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D10" s="34">
         <v>7</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="35"/>
+      <c r="E10" s="30">
+        <f>E9*(1+$B$6/100)</f>
+        <v>516.298889894523</v>
+      </c>
+      <c r="F10" s="35">
+        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
+        <v>7.99715989513614</v>
+      </c>
       <c r="G10" s="32">
-        <f t="shared" ref="G10:G16" si="2">E10*F10</f>
-        <v>0</v>
+        <f t="shared" ref="G10:G16" si="1">E10*F10</f>
+        <v>4128.92477616778</v>
       </c>
       <c r="I10" s="43">
         <f>G18/E18</f>
-        <v>2.8506353351642</v>
+        <v>8.06639903040661</v>
       </c>
       <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>2.79349675666445</v>
+        <v>7.91574170309929</v>
       </c>
     </row>
     <row r="11" s="19" customFormat="1" spans="1:7">
@@ -2772,7 +2778,7 @@
       </c>
       <c r="B11" s="33">
         <f>B8*0.7/100</f>
-        <v>2.455852</v>
+        <v>6.7515</v>
       </c>
       <c r="D11" s="34">
         <v>8</v>
@@ -2780,7 +2786,7 @@
       <c r="E11" s="30"/>
       <c r="F11" s="35"/>
       <c r="G11" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2791,7 +2797,7 @@
       <c r="E12" s="30"/>
       <c r="F12" s="35"/>
       <c r="G12" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2802,7 +2808,7 @@
       <c r="E13" s="30"/>
       <c r="F13" s="35"/>
       <c r="G13" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="45" t="s">
@@ -2830,7 +2836,7 @@
       <c r="G15" s="32"/>
       <c r="I15" s="42">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>2.79349675666445</v>
+        <v>7.91574170309929</v>
       </c>
     </row>
     <row r="16" s="19" customFormat="1" spans="4:9">
@@ -2850,19 +2856,19 @@
       </c>
       <c r="E17" s="37">
         <f>SUM(E3:E9)*3</f>
-        <v>4605.06731019084</v>
+        <v>4414.23496456297</v>
       </c>
       <c r="F17" s="38">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>2.82056195077342</v>
+        <v>7.95184265573036</v>
       </c>
       <c r="G17" s="39">
         <f t="shared" si="0"/>
-        <v>12988.8776358748</v>
+        <v>35101.3018836283</v>
       </c>
       <c r="I17" s="42">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>2.00441556992293</v>
+        <v>1.86771478499153</v>
       </c>
       <c r="J17" s="43" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
@@ -2873,12 +2879,12 @@
       <c r="D18" s="40"/>
       <c r="E18" s="40">
         <f>SUM(E3:E17)</f>
-        <v>6140.08974692112</v>
+        <v>6401.94550931182</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40">
         <f>SUM(G3:G17)</f>
-        <v>17503.1567936528</v>
+        <v>51640.6470490288</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="47" t="s">
@@ -2888,7 +2894,7 @@
     <row r="19" s="19" customFormat="1" spans="9:9">
       <c r="I19" s="48">
         <f>G18/B3</f>
-        <v>9.97797078615237</v>
+        <v>26.7706827625862</v>
       </c>
     </row>
     <row r="20" s="19" customFormat="1"/>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -141,13 +141,13 @@
     <t>margen ratio</t>
   </si>
   <si>
+    <t>primer tp a 0.7 porciento</t>
+  </si>
+  <si>
+    <t>porc distancia entre posicion y precio (se recomienda que sea al menos la mitad del porsentaje que soporta)</t>
+  </si>
+  <si>
     <t>BUY</t>
-  </si>
-  <si>
-    <t>primer tp a 0.7 porciento</t>
-  </si>
-  <si>
-    <t>porc distancia entre posicion y precio (se recomienda que sea al menos la mitad del porsentaje que soporta)</t>
   </si>
   <si>
     <t>Size</t>
@@ -359,11 +359,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000000"/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="27">
@@ -431,23 +431,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,37 +449,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,7 +462,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,33 +470,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,9 +492,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,8 +507,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,7 +614,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,25 +668,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,25 +704,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,73 +776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,25 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,39 +1033,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,18 +1055,31 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1120,32 +1100,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,130 +1155,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,41 +1289,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2494,7 +2494,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2521,7 +2521,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" s="19" customFormat="1" ht="15.15" spans="4:7">
@@ -2543,28 +2543,28 @@
         <v>17</v>
       </c>
       <c r="B3" s="28">
-        <v>1929</v>
+        <v>2222.55</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="30">
         <f>G3/F3</f>
-        <v>106.964847768893</v>
+        <v>26.1522621639113</v>
       </c>
       <c r="F3" s="31">
-        <v>9.016981</v>
+        <v>16.997</v>
       </c>
       <c r="G3" s="32">
         <f>B8</f>
-        <v>964.5</v>
+        <v>444.51</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="41">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-1.90326229629663</v>
+        <v>-1.9856126430573</v>
       </c>
     </row>
     <row r="4" s="19" customFormat="1" spans="1:10">
@@ -2573,29 +2573,29 @@
       </c>
       <c r="B4" s="33">
         <f>-B3*$B$10/100</f>
-        <v>-964.5</v>
+        <v>-444.51</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="30">
         <f>E3</f>
-        <v>106.964847768893</v>
+        <v>26.1522621639113</v>
       </c>
       <c r="F4" s="35">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>8.863692323</v>
+        <v>17.285949</v>
       </c>
       <c r="G4" s="32">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>948.1035</v>
+        <v>452.06667</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="41">
         <f>E18</f>
-        <v>6401.94550931182</v>
+        <v>1501.27967043868</v>
       </c>
     </row>
     <row r="5" s="19" customFormat="1" spans="1:10">
@@ -2609,23 +2609,23 @@
         <v>2</v>
       </c>
       <c r="E5" s="30">
-        <f>E4*(1+$B$6/100)</f>
-        <v>139.054302099561</v>
+        <f t="shared" ref="E5:E10" si="1">E4*(1+$B$6/100)</f>
+        <v>33.9979408130847</v>
       </c>
       <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>8.713009553509</v>
+        <v>17.579810133</v>
       </c>
       <c r="G5" s="32">
         <f t="shared" si="0"/>
-        <v>1211.58146265</v>
+        <v>597.677344407</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="41">
         <f>J4*J10</f>
-        <v>50676.1470490288</v>
+        <v>22386.5415822281</v>
       </c>
     </row>
     <row r="6" s="19" customFormat="1" spans="1:10">
@@ -2639,23 +2639,23 @@
         <v>3</v>
       </c>
       <c r="E6" s="30">
-        <f>E5*(1+$B$6/100)</f>
-        <v>180.770592729429</v>
+        <f t="shared" si="1"/>
+        <v>44.1973230570101</v>
       </c>
       <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>8.56488839109934</v>
+        <v>17.878666905261</v>
       </c>
       <c r="G6" s="32">
         <f t="shared" si="0"/>
-        <v>1548.27995112043</v>
+        <v>790.189217040495</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="41">
         <f>J3/100*J4*J10</f>
-        <v>-964.500000000001</v>
+        <v>-444.510000000001</v>
       </c>
     </row>
     <row r="7" s="19" customFormat="1" spans="1:10">
@@ -2669,23 +2669,23 @@
         <v>4</v>
       </c>
       <c r="E7" s="30">
-        <f>E6*(1+$B$6/100)</f>
-        <v>235.001770548258</v>
+        <f t="shared" si="1"/>
+        <v>57.4565199741131</v>
       </c>
       <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>8.41928528845066</v>
+        <v>18.1826042426504</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="0"/>
-        <v>1978.5469495368</v>
+        <v>1044.70916384924</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="42">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>12.2129490668851</v>
+        <v>-12.2689902230939</v>
       </c>
     </row>
     <row r="8" s="19" customFormat="1" spans="1:7">
@@ -2694,22 +2694,22 @@
       </c>
       <c r="B8" s="33">
         <f>B3*$B$9/100</f>
-        <v>964.5</v>
+        <v>444.51</v>
       </c>
       <c r="D8" s="34">
         <v>5</v>
       </c>
       <c r="E8" s="30">
-        <f>E7*(1+$B$6/100)</f>
-        <v>305.502301712735</v>
+        <f t="shared" si="1"/>
+        <v>74.693475966347</v>
       </c>
       <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>8.27615743854699</v>
+        <v>18.4917085147755</v>
       </c>
       <c r="G8" s="32">
         <f t="shared" si="0"/>
-        <v>2528.38514681308</v>
+        <v>1381.20998552508</v>
       </c>
     </row>
     <row r="9" s="19" customFormat="1" spans="1:10">
@@ -2717,22 +2717,22 @@
         <v>29</v>
       </c>
       <c r="B9" s="28">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D9" s="34">
         <v>6</v>
       </c>
       <c r="E9" s="30">
-        <f>E8*(1+$B$6/100)</f>
-        <v>397.152992226556</v>
+        <f t="shared" si="1"/>
+        <v>97.1015187562511</v>
       </c>
       <c r="F9" s="35">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>8.1354627620917</v>
+        <v>18.8060675595267</v>
       </c>
       <c r="G9" s="32">
         <f t="shared" si="0"/>
-        <v>3231.02337911244</v>
+        <v>1826.0977218627</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>30</v>
@@ -2746,70 +2746,88 @@
         <v>32</v>
       </c>
       <c r="B10" s="28">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D10" s="34">
         <v>7</v>
       </c>
       <c r="E10" s="30">
-        <f>E9*(1+$B$6/100)</f>
-        <v>516.298889894523</v>
+        <f t="shared" si="1"/>
+        <v>126.231974383126</v>
       </c>
       <c r="F10" s="35">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>7.99715989513614</v>
+        <v>19.1257707080386</v>
       </c>
       <c r="G10" s="32">
-        <f t="shared" ref="G10:G16" si="1">E10*F10</f>
-        <v>4128.92477616778</v>
+        <f t="shared" ref="G10:G16" si="2">E10*F10</f>
+        <v>2414.28379807468</v>
       </c>
       <c r="I10" s="43">
         <f>G18/E18</f>
-        <v>8.06639903040661</v>
+        <v>14.6155523279793</v>
       </c>
       <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>7.91574170309929</v>
+        <v>14.9116397317807</v>
       </c>
     </row>
     <row r="11" s="19" customFormat="1" spans="1:7">
       <c r="A11" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="33">
         <f>B8*0.7/100</f>
-        <v>6.7515</v>
+        <v>3.11157</v>
       </c>
       <c r="D11" s="34">
         <v>8</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="35"/>
+      <c r="E11" s="30">
+        <f>E10*(1+$B$6/100)</f>
+        <v>164.101566698064</v>
+      </c>
+      <c r="F11" s="35">
+        <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
+        <v>19.4509088100753</v>
+      </c>
       <c r="G11" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3191.92460943454</v>
       </c>
     </row>
     <row r="12" s="19" customFormat="1" spans="4:7">
       <c r="D12" s="34">
         <v>9</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="35"/>
+      <c r="E12" s="30">
+        <f>E11*(1+$B$6/100)</f>
+        <v>213.332036707484</v>
+      </c>
+      <c r="F12" s="35">
+        <f>IF($B$1="BUY",F11*(1-$B$5/100),F11*(1+$B$5/100))</f>
+        <v>19.7815742598466</v>
+      </c>
       <c r="G12" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4220.0435261334</v>
       </c>
     </row>
     <row r="13" s="19" customFormat="1" spans="4:10">
       <c r="D13" s="34">
         <v>10</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="35"/>
+      <c r="E13" s="30">
+        <f>E12*(1+$B$6/100)</f>
+        <v>277.331647719729</v>
+      </c>
+      <c r="F13" s="35">
+        <f>IF($B$1="BUY",F12*(1-$B$5/100),F12*(1+$B$5/100))</f>
+        <v>20.1178610222639</v>
+      </c>
       <c r="G13" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5579.31954590097</v>
       </c>
       <c r="I13" s="45" t="s">
         <v>33</v>
@@ -2820,8 +2838,14 @@
       <c r="D14" s="34">
         <v>11</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="35"/>
+      <c r="E14" s="30">
+        <f>E13*(1+$B$6/100)</f>
+        <v>360.531142035648</v>
+      </c>
+      <c r="F14" s="35">
+        <f>IF($B$1="BUY",F13*(1-$B$5/100),F13*(1+$B$5/100))</f>
+        <v>20.4598646596424</v>
+      </c>
       <c r="G14" s="32"/>
       <c r="I14" s="46" t="s">
         <v>34</v>
@@ -2836,7 +2860,7 @@
       <c r="G15" s="32"/>
       <c r="I15" s="42">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>7.91574170309929</v>
+        <v>14.9116397317807</v>
       </c>
     </row>
     <row r="16" s="19" customFormat="1" spans="4:9">
@@ -2847,44 +2871,41 @@
       <c r="F16" s="35"/>
       <c r="G16" s="32"/>
       <c r="I16" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" s="19" customFormat="1" ht="18.15" spans="4:10">
       <c r="D17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="37">
-        <f>SUM(E3:E9)*3</f>
-        <v>4414.23496456297</v>
-      </c>
+      <c r="E17" s="37"/>
       <c r="F17" s="38">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>7.95184265573036</v>
+        <v>20.5758038927137</v>
       </c>
       <c r="G17" s="39">
         <f t="shared" si="0"/>
-        <v>35101.3018836283</v>
+        <v>0</v>
       </c>
       <c r="I17" s="42">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>1.86771478499153</v>
+        <v>2.02583793726754</v>
       </c>
       <c r="J17" s="43" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
-        <v>TIENE QUE SUBIR</v>
+        <v>TIENE QUE BAJAR</v>
       </c>
     </row>
     <row r="18" s="19" customFormat="1" spans="4:9">
       <c r="D18" s="40"/>
       <c r="E18" s="40">
         <f>SUM(E3:E17)</f>
-        <v>6401.94550931182</v>
+        <v>1501.27967043868</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40">
         <f>SUM(G3:G17)</f>
-        <v>51640.6470490288</v>
+        <v>21942.0315822281</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="47" t="s">
@@ -2894,7 +2915,7 @@
     <row r="19" s="19" customFormat="1" spans="9:9">
       <c r="I19" s="48">
         <f>G18/B3</f>
-        <v>26.7706827625862</v>
+        <v>9.87245802444404</v>
       </c>
     </row>
     <row r="20" s="19" customFormat="1"/>
@@ -3042,7 +3063,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -132,7 +132,7 @@
     <t>distancia entre posicion y precio</t>
   </si>
   <si>
-    <t>ataque seria (=SUM(E3:E9)*3)</t>
+    <t>ataque seria =SUM(E3:E9)*3</t>
   </si>
   <si>
     <t>ataque</t>
@@ -359,11 +359,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.000000"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.000000"/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="27">
@@ -431,9 +431,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,15 +446,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,9 +499,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,19 +514,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,11 +536,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,15 +560,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,29 +570,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,7 +614,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +638,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,13 +662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,91 +674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,13 +686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +704,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +728,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,11 +1052,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,6 +1078,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,21 +1124,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1137,13 +1137,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1155,130 +1155,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,41 +1289,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1992,7 +1992,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2494,7 +2494,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2543,28 +2543,28 @@
         <v>17</v>
       </c>
       <c r="B3" s="28">
-        <v>2222.55</v>
+        <v>2254</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="30">
         <f>G3/F3</f>
-        <v>26.1522621639113</v>
+        <v>13.2611637347767</v>
       </c>
       <c r="F3" s="31">
         <v>16.997</v>
       </c>
       <c r="G3" s="32">
         <f>B8</f>
-        <v>444.51</v>
+        <v>225.4</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="41">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-1.9856126430573</v>
+        <v>-1.47414326889549</v>
       </c>
     </row>
     <row r="4" s="19" customFormat="1" spans="1:10">
@@ -2573,14 +2573,14 @@
       </c>
       <c r="B4" s="33">
         <f>-B3*$B$10/100</f>
-        <v>-444.51</v>
+        <v>-225.4</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="30">
         <f>E3</f>
-        <v>26.1522621639113</v>
+        <v>13.2611637347767</v>
       </c>
       <c r="F4" s="35">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
@@ -2588,14 +2588,14 @@
       </c>
       <c r="G4" s="32">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>452.06667</v>
+        <v>229.2318</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="41">
         <f>E18</f>
-        <v>1501.27967043868</v>
+        <v>793.692969147497</v>
       </c>
     </row>
     <row r="5" s="19" customFormat="1" spans="1:10">
@@ -2609,8 +2609,8 @@
         <v>2</v>
       </c>
       <c r="E5" s="30">
-        <f t="shared" ref="E5:E10" si="1">E4*(1+$B$6/100)</f>
-        <v>33.9979408130847</v>
+        <f t="shared" ref="E5:E14" si="1">E4*(1+$B$6/100)</f>
+        <v>17.2395128552097</v>
       </c>
       <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
@@ -2618,14 +2618,14 @@
       </c>
       <c r="G5" s="32">
         <f t="shared" si="0"/>
-        <v>597.677344407</v>
+        <v>303.06736278</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="41">
         <f>J4*J10</f>
-        <v>22386.5415822281</v>
+        <v>15290.2370316341</v>
       </c>
     </row>
     <row r="6" s="19" customFormat="1" spans="1:10">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="E6" s="30">
         <f t="shared" si="1"/>
-        <v>44.1973230570101</v>
+        <v>22.4113667117727</v>
       </c>
       <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
@@ -2648,14 +2648,14 @@
       </c>
       <c r="G6" s="32">
         <f t="shared" si="0"/>
-        <v>790.189217040495</v>
+        <v>400.685360331438</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="41">
         <f>J3/100*J4*J10</f>
-        <v>-444.510000000001</v>
+        <v>-225.4</v>
       </c>
     </row>
     <row r="7" s="19" customFormat="1" spans="1:10">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="E7" s="30">
         <f t="shared" si="1"/>
-        <v>57.4565199741131</v>
+        <v>29.1347767253045</v>
       </c>
       <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
@@ -2678,14 +2678,14 @@
       </c>
       <c r="G7" s="32">
         <f t="shared" si="0"/>
-        <v>1044.70916384924</v>
+        <v>529.746114894193</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="42">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>-12.2689902230939</v>
+        <v>13.3416185994297</v>
       </c>
     </row>
     <row r="8" s="19" customFormat="1" spans="1:7">
@@ -2694,14 +2694,14 @@
       </c>
       <c r="B8" s="33">
         <f>B3*$B$9/100</f>
-        <v>444.51</v>
+        <v>225.4</v>
       </c>
       <c r="D8" s="34">
         <v>5</v>
       </c>
       <c r="E8" s="30">
         <f t="shared" si="1"/>
-        <v>74.693475966347</v>
+        <v>37.8752097428958</v>
       </c>
       <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="G8" s="32">
         <f t="shared" si="0"/>
-        <v>1381.20998552508</v>
+        <v>700.377338501615</v>
       </c>
     </row>
     <row r="9" s="19" customFormat="1" spans="1:10">
@@ -2717,14 +2717,14 @@
         <v>29</v>
       </c>
       <c r="B9" s="28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D9" s="34">
         <v>6</v>
       </c>
       <c r="E9" s="30">
         <f t="shared" si="1"/>
-        <v>97.1015187562511</v>
+        <v>49.2377726657646</v>
       </c>
       <c r="F9" s="35">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="G9" s="32">
         <f t="shared" si="0"/>
-        <v>1826.0977218627</v>
+        <v>925.968879232986</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>30</v>
@@ -2746,30 +2746,30 @@
         <v>32</v>
       </c>
       <c r="B10" s="28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D10" s="34">
         <v>7</v>
       </c>
       <c r="E10" s="30">
-        <f t="shared" si="1"/>
-        <v>126.231974383126</v>
+        <f>E9*(1+$B$6/100)</f>
+        <v>64.0091044654939</v>
       </c>
       <c r="F10" s="35">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>19.1257707080386</v>
+        <v>19.1257707080387</v>
       </c>
       <c r="G10" s="32">
         <f t="shared" ref="G10:G16" si="2">E10*F10</f>
-        <v>2414.28379807468</v>
+        <v>1224.22345523393</v>
       </c>
       <c r="I10" s="43">
         <f>G18/E18</f>
-        <v>14.6155523279793</v>
+        <v>18.9806860048354</v>
       </c>
       <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>14.9116397317807</v>
+        <v>19.2646749133451</v>
       </c>
     </row>
     <row r="11" s="19" customFormat="1" spans="1:7">
@@ -2778,56 +2778,38 @@
       </c>
       <c r="B11" s="33">
         <f>B8*0.7/100</f>
-        <v>3.11157</v>
+        <v>1.5778</v>
       </c>
       <c r="D11" s="34">
         <v>8</v>
       </c>
-      <c r="E11" s="30">
-        <f>E10*(1+$B$6/100)</f>
-        <v>164.101566698064</v>
-      </c>
-      <c r="F11" s="35">
-        <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
-        <v>19.4509088100753</v>
-      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="32">
         <f t="shared" si="2"/>
-        <v>3191.92460943454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" s="19" customFormat="1" spans="4:7">
       <c r="D12" s="34">
         <v>9</v>
       </c>
-      <c r="E12" s="30">
-        <f>E11*(1+$B$6/100)</f>
-        <v>213.332036707484</v>
-      </c>
-      <c r="F12" s="35">
-        <f>IF($B$1="BUY",F11*(1-$B$5/100),F11*(1+$B$5/100))</f>
-        <v>19.7815742598466</v>
-      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="32">
         <f t="shared" si="2"/>
-        <v>4220.0435261334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" s="19" customFormat="1" spans="4:10">
       <c r="D13" s="34">
         <v>10</v>
       </c>
-      <c r="E13" s="30">
-        <f>E12*(1+$B$6/100)</f>
-        <v>277.331647719729</v>
-      </c>
-      <c r="F13" s="35">
-        <f>IF($B$1="BUY",F12*(1-$B$5/100),F12*(1+$B$5/100))</f>
-        <v>20.1178610222639</v>
-      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="32">
         <f t="shared" si="2"/>
-        <v>5579.31954590097</v>
+        <v>0</v>
       </c>
       <c r="I13" s="45" t="s">
         <v>33</v>
@@ -2838,14 +2820,8 @@
       <c r="D14" s="34">
         <v>11</v>
       </c>
-      <c r="E14" s="30">
-        <f>E13*(1+$B$6/100)</f>
-        <v>360.531142035648</v>
-      </c>
-      <c r="F14" s="35">
-        <f>IF($B$1="BUY",F13*(1-$B$5/100),F13*(1+$B$5/100))</f>
-        <v>20.4598646596424</v>
-      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="32"/>
       <c r="I14" s="46" t="s">
         <v>34</v>
@@ -2860,7 +2836,7 @@
       <c r="G15" s="32"/>
       <c r="I15" s="42">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>14.9116397317807</v>
+        <v>19.2646749133451</v>
       </c>
     </row>
     <row r="16" s="19" customFormat="1" spans="4:9">
@@ -2878,18 +2854,21 @@
       <c r="D17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="37"/>
+      <c r="E17" s="37">
+        <f>SUM(E3:E9)*3</f>
+        <v>547.262898511502</v>
+      </c>
       <c r="F17" s="38">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>20.5758038927137</v>
+        <v>19.2341500753842</v>
       </c>
       <c r="G17" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10526.13672066</v>
       </c>
       <c r="I17" s="42">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>2.02583793726754</v>
+        <v>1.49619939151475</v>
       </c>
       <c r="J17" s="43" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
@@ -2900,12 +2879,12 @@
       <c r="D18" s="40"/>
       <c r="E18" s="40">
         <f>SUM(E3:E17)</f>
-        <v>1501.27967043868</v>
+        <v>793.692969147497</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40">
         <f>SUM(G3:G17)</f>
-        <v>21942.0315822281</v>
+        <v>15064.8370316341</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="47" t="s">
@@ -2915,7 +2894,7 @@
     <row r="19" s="19" customFormat="1" spans="9:9">
       <c r="I19" s="48">
         <f>G18/B3</f>
-        <v>9.87245802444404</v>
+        <v>6.68360116753955</v>
       </c>
     </row>
     <row r="20" s="19" customFormat="1"/>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <t>GANANCIA TOTAL</t>
   </si>
   <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>65</t>
+    <t>2254</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>calculadora diaria</t>
@@ -54,7 +54,7 @@
     <t>ganancia diaria</t>
   </si>
   <si>
-    <t>25</t>
+    <t>18</t>
   </si>
   <si>
     <t>ALL IN ONE</t>
@@ -359,11 +359,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.000000"/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="27">
@@ -431,14 +431,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -454,53 +476,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,8 +491,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,6 +515,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -536,9 +530,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,15 +547,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,7 +614,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,13 +674,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,49 +770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,91 +782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,16 +1038,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,30 +1091,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1101,16 +1101,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,10 +1137,10 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1155,130 +1155,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,41 +1289,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1893,8 +1893,8 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1936,11 +1936,11 @@
       </c>
       <c r="D2" s="54">
         <f>POWER(1+(B2/100),C2)*A2</f>
-        <v>5728.09946452305</v>
+        <v>2862.66069441872</v>
       </c>
       <c r="E2" s="54">
         <f>D2-A2</f>
-        <v>2728.09946452305</v>
+        <v>608.660694418721</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="B9" s="57">
         <f>A9*100/A2</f>
-        <v>0.833333333333333</v>
+        <v>0.798580301685892</v>
       </c>
     </row>
   </sheetData>
@@ -2493,8 +2493,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="G5" s="32">
         <f t="shared" si="0"/>
-        <v>303.06736278</v>
+        <v>303.067362779999</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>23</v>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="G6" s="32">
         <f t="shared" si="0"/>
-        <v>400.685360331438</v>
+        <v>400.685360331439</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>25</v>
@@ -2678,14 +2678,14 @@
       </c>
       <c r="G7" s="32">
         <f t="shared" si="0"/>
-        <v>529.746114894193</v>
+        <v>529.746114894195</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="42">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>13.3416185994297</v>
+        <v>13.3416185994295</v>
       </c>
     </row>
     <row r="8" s="19" customFormat="1" spans="1:7">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="G8" s="32">
         <f t="shared" si="0"/>
-        <v>700.377338501615</v>
+        <v>700.377338501614</v>
       </c>
     </row>
     <row r="9" s="19" customFormat="1" spans="1:10">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="G9" s="32">
         <f t="shared" si="0"/>
-        <v>925.968879232986</v>
+        <v>925.968879232985</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>30</v>
@@ -2752,12 +2752,12 @@
         <v>7</v>
       </c>
       <c r="E10" s="30">
-        <f>E9*(1+$B$6/100)</f>
+        <f t="shared" si="1"/>
         <v>64.0091044654939</v>
       </c>
       <c r="F10" s="35">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>19.1257707080387</v>
+        <v>19.1257707080386</v>
       </c>
       <c r="G10" s="32">
         <f t="shared" ref="G10:G16" si="2">E10*F10</f>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>19.2646749133451</v>
+        <v>19.264674913345</v>
       </c>
     </row>
     <row r="11" s="19" customFormat="1" spans="1:7">
@@ -2836,7 +2836,7 @@
       <c r="G15" s="32"/>
       <c r="I15" s="42">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>19.2646749133451</v>
+        <v>19.264674913345</v>
       </c>
     </row>
     <row r="16" s="19" customFormat="1" spans="4:9">
@@ -2894,7 +2894,7 @@
     <row r="19" s="19" customFormat="1" spans="9:9">
       <c r="I19" s="48">
         <f>G18/B3</f>
-        <v>6.68360116753955</v>
+        <v>6.68360116753954</v>
       </c>
     </row>
     <row r="20" s="19" customFormat="1"/>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -359,11 +359,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.000000"/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="27">
@@ -431,21 +431,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -453,9 +438,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,6 +447,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,7 +476,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,41 +537,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,31 +553,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,7 +614,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,13 +668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,37 +692,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +722,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,67 +770,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,13 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,6 +1033,30 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,8 +1079,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,57 +1134,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1158,127 +1158,127 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,41 +1289,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1893,7 +1893,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2493,8 +2493,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2543,21 +2543,21 @@
         <v>17</v>
       </c>
       <c r="B3" s="28">
-        <v>2254</v>
+        <v>2222</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="30">
         <f>G3/F3</f>
-        <v>13.2611637347767</v>
+        <v>13.072895216803</v>
       </c>
       <c r="F3" s="31">
         <v>16.997</v>
       </c>
       <c r="G3" s="32">
         <f>B8</f>
-        <v>225.4</v>
+        <v>222.2</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>19</v>
@@ -2573,14 +2573,14 @@
       </c>
       <c r="B4" s="33">
         <f>-B3*$B$10/100</f>
-        <v>-225.4</v>
+        <v>-222.2</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="30">
         <f>E3</f>
-        <v>13.2611637347767</v>
+        <v>13.072895216803</v>
       </c>
       <c r="F4" s="35">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
@@ -2588,14 +2588,14 @@
       </c>
       <c r="G4" s="32">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>229.2318</v>
+        <v>225.9774</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="41">
         <f>E18</f>
-        <v>793.692969147497</v>
+        <v>782.424923445314</v>
       </c>
     </row>
     <row r="5" s="19" customFormat="1" spans="1:10">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="E5" s="30">
         <f t="shared" ref="E5:E14" si="1">E4*(1+$B$6/100)</f>
-        <v>17.2395128552097</v>
+        <v>16.9947637818439</v>
       </c>
       <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
@@ -2618,14 +2618,14 @@
       </c>
       <c r="G5" s="32">
         <f t="shared" si="0"/>
-        <v>303.067362779999</v>
+        <v>298.76472054</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="41">
         <f>J4*J10</f>
-        <v>15290.2370316341</v>
+        <v>15073.1617942729</v>
       </c>
     </row>
     <row r="6" s="19" customFormat="1" spans="1:10">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="E6" s="30">
         <f t="shared" si="1"/>
-        <v>22.4113667117727</v>
+        <v>22.093192916397</v>
       </c>
       <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
@@ -2648,14 +2648,14 @@
       </c>
       <c r="G6" s="32">
         <f t="shared" si="0"/>
-        <v>400.685360331439</v>
+        <v>394.996837025934</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="41">
         <f>J3/100*J4*J10</f>
-        <v>-225.4</v>
+        <v>-222.2</v>
       </c>
     </row>
     <row r="7" s="19" customFormat="1" spans="1:10">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="E7" s="30">
         <f t="shared" si="1"/>
-        <v>29.1347767253045</v>
+        <v>28.7211507913161</v>
       </c>
       <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
@@ -2678,14 +2678,14 @@
       </c>
       <c r="G7" s="32">
         <f t="shared" si="0"/>
-        <v>529.746114894195</v>
+        <v>522.225318231987</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="42">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>13.3416185994295</v>
+        <v>13.3416185994296</v>
       </c>
     </row>
     <row r="8" s="19" customFormat="1" spans="1:7">
@@ -2694,14 +2694,14 @@
       </c>
       <c r="B8" s="33">
         <f>B3*$B$9/100</f>
-        <v>225.4</v>
+        <v>222.2</v>
       </c>
       <c r="D8" s="34">
         <v>5</v>
       </c>
       <c r="E8" s="30">
         <f t="shared" si="1"/>
-        <v>37.8752097428958</v>
+        <v>37.337496028711</v>
       </c>
       <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="G8" s="32">
         <f t="shared" si="0"/>
-        <v>700.377338501614</v>
+        <v>690.43409323451</v>
       </c>
     </row>
     <row r="9" s="19" customFormat="1" spans="1:10">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="E9" s="30">
         <f t="shared" si="1"/>
-        <v>49.2377726657646</v>
+        <v>48.5387448373242</v>
       </c>
       <c r="F9" s="35">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="G9" s="32">
         <f t="shared" si="0"/>
-        <v>925.968879232985</v>
+        <v>912.822914665346</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>30</v>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="E10" s="30">
         <f t="shared" si="1"/>
-        <v>64.0091044654939</v>
+        <v>63.1003682885215</v>
       </c>
       <c r="F10" s="35">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="G10" s="32">
         <f t="shared" ref="G10:G16" si="2">E10*F10</f>
-        <v>1224.22345523393</v>
+        <v>1206.84317547905</v>
       </c>
       <c r="I10" s="43">
         <f>G18/E18</f>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="B11" s="33">
         <f>B8*0.7/100</f>
-        <v>1.5778</v>
+        <v>1.5554</v>
       </c>
       <c r="D11" s="34">
         <v>8</v>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E17" s="37">
         <f>SUM(E3:E9)*3</f>
-        <v>547.262898511502</v>
+        <v>539.493416367594</v>
       </c>
       <c r="F17" s="38">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="G17" s="39">
         <f t="shared" si="0"/>
-        <v>10526.13672066</v>
+        <v>10376.697335096</v>
       </c>
       <c r="I17" s="42">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
@@ -2879,12 +2879,12 @@
       <c r="D18" s="40"/>
       <c r="E18" s="40">
         <f>SUM(E3:E17)</f>
-        <v>793.692969147497</v>
+        <v>782.424923445314</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40">
         <f>SUM(G3:G17)</f>
-        <v>15064.8370316341</v>
+        <v>14850.9617942729</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="47" t="s">

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -359,11 +359,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000000"/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="27">
@@ -439,29 +439,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,30 +454,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,15 +470,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,8 +485,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,14 +501,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -561,8 +515,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,13 +614,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,13 +746,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,25 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,97 +776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,16 +1047,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,7 +1104,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,190 +1134,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,41 +1289,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2494,7 +2494,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D1" sqref="D1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2543,28 +2543,28 @@
         <v>17</v>
       </c>
       <c r="B3" s="28">
-        <v>2222</v>
+        <v>2264.78</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="30">
         <f>G3/F3</f>
-        <v>13.072895216803</v>
+        <v>716.249209361164</v>
       </c>
       <c r="F3" s="31">
-        <v>16.997</v>
+        <v>0.3162</v>
       </c>
       <c r="G3" s="32">
         <f>B8</f>
-        <v>222.2</v>
+        <v>226.478</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="41">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-1.47414326889549</v>
+        <v>-1.47414326889548</v>
       </c>
     </row>
     <row r="4" s="19" customFormat="1" spans="1:10">
@@ -2573,29 +2573,29 @@
       </c>
       <c r="B4" s="33">
         <f>-B3*$B$10/100</f>
-        <v>-222.2</v>
+        <v>-226.478</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="30">
         <f>E3</f>
-        <v>13.072895216803</v>
+        <v>716.249209361164</v>
       </c>
       <c r="F4" s="35">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>17.285949</v>
+        <v>0.3215754</v>
       </c>
       <c r="G4" s="32">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>225.9774</v>
+        <v>230.328126</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="41">
         <f>E18</f>
-        <v>782.424923445314</v>
+        <v>42868.1805757812</v>
       </c>
     </row>
     <row r="5" s="19" customFormat="1" spans="1:10">
@@ -2610,22 +2610,22 @@
       </c>
       <c r="E5" s="30">
         <f t="shared" ref="E5:E14" si="1">E4*(1+$B$6/100)</f>
-        <v>16.9947637818439</v>
+        <v>931.123972169513</v>
       </c>
       <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>17.579810133</v>
+        <v>0.3270421818</v>
       </c>
       <c r="G5" s="32">
         <f t="shared" si="0"/>
-        <v>298.76472054</v>
+        <v>304.5168153846</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="41">
         <f>J4*J10</f>
-        <v>15073.1617942729</v>
+        <v>15363.3642522202</v>
       </c>
     </row>
     <row r="6" s="19" customFormat="1" spans="1:10">
@@ -2640,22 +2640,22 @@
       </c>
       <c r="E6" s="30">
         <f t="shared" si="1"/>
-        <v>22.093192916397</v>
+        <v>1210.46116382037</v>
       </c>
       <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>17.878666905261</v>
+        <v>0.3326018988906</v>
       </c>
       <c r="G6" s="32">
         <f t="shared" si="0"/>
-        <v>394.996837025934</v>
+        <v>402.60168161998</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="41">
         <f>J3/100*J4*J10</f>
-        <v>-222.2</v>
+        <v>-226.477999999998</v>
       </c>
     </row>
     <row r="7" s="19" customFormat="1" spans="1:10">
@@ -2670,15 +2670,15 @@
       </c>
       <c r="E7" s="30">
         <f t="shared" si="1"/>
-        <v>28.7211507913161</v>
+        <v>1573.59951296648</v>
       </c>
       <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>18.1826042426504</v>
+        <v>0.33825613117174</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="0"/>
-        <v>522.225318231987</v>
+        <v>532.279683269775</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>27</v>
@@ -2694,22 +2694,22 @@
       </c>
       <c r="B8" s="33">
         <f>B3*$B$9/100</f>
-        <v>222.2</v>
+        <v>226.478</v>
       </c>
       <c r="D8" s="34">
         <v>5</v>
       </c>
       <c r="E8" s="30">
         <f t="shared" si="1"/>
-        <v>37.337496028711</v>
+        <v>2045.67936685642</v>
       </c>
       <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>18.4917085147755</v>
+        <v>0.34400648540166</v>
       </c>
       <c r="G8" s="32">
         <f t="shared" si="0"/>
-        <v>690.43409323451</v>
+        <v>703.72696925097</v>
       </c>
     </row>
     <row r="9" s="19" customFormat="1" spans="1:10">
@@ -2724,15 +2724,15 @@
       </c>
       <c r="E9" s="30">
         <f t="shared" si="1"/>
-        <v>48.5387448373242</v>
+        <v>2659.38317691335</v>
       </c>
       <c r="F9" s="35">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>18.8060675595267</v>
+        <v>0.349854595653488</v>
       </c>
       <c r="G9" s="32">
         <f t="shared" si="0"/>
-        <v>912.822914665346</v>
+        <v>930.397426046707</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>30</v>
@@ -2753,23 +2753,23 @@
       </c>
       <c r="E10" s="30">
         <f t="shared" si="1"/>
-        <v>63.1003682885215</v>
+        <v>3457.19812998735</v>
       </c>
       <c r="F10" s="35">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>19.1257707080386</v>
+        <v>0.355802123779597</v>
       </c>
       <c r="G10" s="32">
         <f t="shared" ref="G10:G16" si="2">E10*F10</f>
-        <v>1206.84317547905</v>
+        <v>1230.07843697635</v>
       </c>
       <c r="I10" s="43">
         <f>G18/E18</f>
-        <v>18.9806860048354</v>
+        <v>0.353103071996761</v>
       </c>
       <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>19.264674913345</v>
+        <v>0.358386198011396</v>
       </c>
     </row>
     <row r="11" s="19" customFormat="1" spans="1:7">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="B11" s="33">
         <f>B8*0.7/100</f>
-        <v>1.5554</v>
+        <v>1.585346</v>
       </c>
       <c r="D11" s="34">
         <v>8</v>
@@ -2836,7 +2836,7 @@
       <c r="G15" s="32"/>
       <c r="I15" s="42">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>19.264674913345</v>
+        <v>0.358386198011396</v>
       </c>
     </row>
     <row r="16" s="19" customFormat="1" spans="4:9">
@@ -2856,15 +2856,15 @@
       </c>
       <c r="E17" s="37">
         <f>SUM(E3:E9)*3</f>
-        <v>539.493416367594</v>
+        <v>29558.2368343454</v>
       </c>
       <c r="F17" s="38">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>19.2341500753842</v>
+        <v>0.357818335814348</v>
       </c>
       <c r="G17" s="39">
         <f t="shared" si="0"/>
-        <v>10376.697335096</v>
+        <v>10576.4791136718</v>
       </c>
       <c r="I17" s="42">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
@@ -2879,12 +2879,12 @@
       <c r="D18" s="40"/>
       <c r="E18" s="40">
         <f>SUM(E3:E17)</f>
-        <v>782.424923445314</v>
+        <v>42868.1805757812</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40">
         <f>SUM(G3:G17)</f>
-        <v>14850.9617942729</v>
+        <v>15136.8862522202</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="47" t="s">

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -132,7 +132,7 @@
     <t>distancia entre posicion y precio</t>
   </si>
   <si>
-    <t>ataque seria =SUM(E3:E9)*3</t>
+    <t>ataque seria =SUM(E3:E16)*3</t>
   </si>
   <si>
     <t>ataque</t>
@@ -141,13 +141,13 @@
     <t>margen ratio</t>
   </si>
   <si>
+    <t>BUY</t>
+  </si>
+  <si>
     <t>primer tp a 0.7 porciento</t>
   </si>
   <si>
     <t>porc distancia entre posicion y precio (se recomienda que sea al menos la mitad del porsentaje que soporta)</t>
-  </si>
-  <si>
-    <t>BUY</t>
   </si>
   <si>
     <t>Size</t>
@@ -359,12 +359,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.00000"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0.00000"/>
+    <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -432,22 +432,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,40 +445,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,46 +460,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,8 +492,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,37 +614,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,25 +638,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +668,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,13 +746,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,73 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,6 +1037,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1046,17 +1061,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,16 +1112,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,177 +1134,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,41 +1289,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1378,7 +1378,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2494,7 +2494,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2521,7 +2521,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" s="19" customFormat="1" ht="15.15" spans="4:7">
@@ -2543,28 +2543,28 @@
         <v>17</v>
       </c>
       <c r="B3" s="28">
-        <v>2264.78</v>
+        <v>1932.25</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="30">
         <f>G3/F3</f>
-        <v>716.249209361164</v>
+        <v>16.1235814419226</v>
       </c>
       <c r="F3" s="31">
-        <v>0.3162</v>
+        <v>5.992</v>
       </c>
       <c r="G3" s="32">
         <f>B8</f>
-        <v>226.478</v>
+        <v>96.6125</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="41">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-1.47414326889548</v>
+        <v>-1.83361453335968</v>
       </c>
     </row>
     <row r="4" s="19" customFormat="1" spans="1:10">
@@ -2573,29 +2573,29 @@
       </c>
       <c r="B4" s="33">
         <f>-B3*$B$10/100</f>
-        <v>-226.478</v>
+        <v>-193.225</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="30">
         <f>E3</f>
-        <v>716.249209361164</v>
+        <v>16.1235814419226</v>
       </c>
       <c r="F4" s="35">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.3215754</v>
+        <v>5.87216</v>
       </c>
       <c r="G4" s="32">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>230.328126</v>
+        <v>94.68025</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="41">
         <f>E18</f>
-        <v>42868.1805757812</v>
+        <v>2129.28003042715</v>
       </c>
     </row>
     <row r="5" s="19" customFormat="1" spans="1:10">
@@ -2603,29 +2603,29 @@
         <v>22</v>
       </c>
       <c r="B5" s="33">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="34">
         <v>2</v>
       </c>
       <c r="E5" s="30">
         <f t="shared" ref="E5:E14" si="1">E4*(1+$B$6/100)</f>
-        <v>931.123972169513</v>
+        <v>20.9606558744993</v>
       </c>
       <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.3270421818</v>
+        <v>5.7547168</v>
       </c>
       <c r="G5" s="32">
         <f t="shared" si="0"/>
-        <v>304.5168153846</v>
+        <v>120.6226385</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="41">
         <f>J4*J10</f>
-        <v>15363.3642522202</v>
+        <v>10537.9291276645</v>
       </c>
     </row>
     <row r="6" s="19" customFormat="1" spans="1:10">
@@ -2640,22 +2640,22 @@
       </c>
       <c r="E6" s="30">
         <f t="shared" si="1"/>
-        <v>1210.46116382037</v>
+        <v>27.2488526368491</v>
       </c>
       <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>0.3326018988906</v>
+        <v>5.639622464</v>
       </c>
       <c r="G6" s="32">
         <f t="shared" si="0"/>
-        <v>402.60168161998</v>
+        <v>153.673241449</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="41">
         <f>J3/100*J4*J10</f>
-        <v>-226.477999999998</v>
+        <v>-193.225</v>
       </c>
     </row>
     <row r="7" s="19" customFormat="1" spans="1:10">
@@ -2670,22 +2670,22 @@
       </c>
       <c r="E7" s="30">
         <f t="shared" si="1"/>
-        <v>1573.59951296648</v>
+        <v>35.4235084279039</v>
       </c>
       <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>0.33825613117174</v>
+        <v>5.52683001472</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="0"/>
-        <v>532.279683269775</v>
+        <v>195.779709606026</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="42">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>13.3416185994296</v>
+        <v>17.4055838267995</v>
       </c>
     </row>
     <row r="8" s="19" customFormat="1" spans="1:7">
@@ -2694,22 +2694,22 @@
       </c>
       <c r="B8" s="33">
         <f>B3*$B$9/100</f>
-        <v>226.478</v>
+        <v>96.6125</v>
       </c>
       <c r="D8" s="34">
         <v>5</v>
       </c>
       <c r="E8" s="30">
         <f t="shared" si="1"/>
-        <v>2045.67936685642</v>
+        <v>46.050560956275</v>
       </c>
       <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>0.34400648540166</v>
+        <v>5.4162934144256</v>
       </c>
       <c r="G8" s="32">
         <f t="shared" si="0"/>
-        <v>703.72696925097</v>
+        <v>249.423350038077</v>
       </c>
     </row>
     <row r="9" s="19" customFormat="1" spans="1:10">
@@ -2717,22 +2717,22 @@
         <v>29</v>
       </c>
       <c r="B9" s="28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" s="34">
         <v>6</v>
       </c>
       <c r="E9" s="30">
         <f t="shared" si="1"/>
-        <v>2659.38317691335</v>
+        <v>59.8657292431576</v>
       </c>
       <c r="F9" s="35">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>0.349854595653488</v>
+        <v>5.30796754613709</v>
       </c>
       <c r="G9" s="32">
         <f t="shared" si="0"/>
-        <v>930.397426046707</v>
+        <v>317.76534794851</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>30</v>
@@ -2753,52 +2753,64 @@
       </c>
       <c r="E10" s="30">
         <f t="shared" si="1"/>
-        <v>3457.19812998735</v>
+        <v>77.8254480161048</v>
       </c>
       <c r="F10" s="35">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>0.355802123779597</v>
+        <v>5.20180819521435</v>
       </c>
       <c r="G10" s="32">
         <f t="shared" ref="G10:G16" si="2">E10*F10</f>
-        <v>1230.07843697635</v>
+        <v>404.833053286402</v>
       </c>
       <c r="I10" s="43">
         <f>G18/E18</f>
-        <v>0.353103071996761</v>
+        <v>5.0398040531624</v>
       </c>
       <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.358386198011396</v>
+        <v>4.94905741709817</v>
       </c>
     </row>
     <row r="11" s="19" customFormat="1" spans="1:7">
       <c r="A11" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="33">
         <f>B8*0.7/100</f>
-        <v>1.585346</v>
+        <v>0.6762875</v>
       </c>
       <c r="D11" s="34">
         <v>8</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="35"/>
+      <c r="E11" s="30">
+        <f>E10*(1+$B$6/100)</f>
+        <v>101.173082420936</v>
+      </c>
+      <c r="F11" s="35">
+        <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
+        <v>5.09777203131006</v>
+      </c>
       <c r="G11" s="32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>515.757309886876</v>
       </c>
     </row>
     <row r="12" s="19" customFormat="1" spans="4:7">
       <c r="D12" s="34">
         <v>9</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="35"/>
+      <c r="E12" s="30">
+        <f>E11*(1+$B$6/100)</f>
+        <v>131.525007147217</v>
+      </c>
+      <c r="F12" s="35">
+        <f>IF($B$1="BUY",F11*(1-$B$5/100),F11*(1+$B$5/100))</f>
+        <v>4.99581659068386</v>
+      </c>
       <c r="G12" s="32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>657.07481279588</v>
       </c>
     </row>
     <row r="13" s="19" customFormat="1" spans="4:10">
@@ -2836,7 +2848,7 @@
       <c r="G15" s="32"/>
       <c r="I15" s="42">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>0.358386198011396</v>
+        <v>4.94905741709817</v>
       </c>
     </row>
     <row r="16" s="19" customFormat="1" spans="4:9">
@@ -2847,7 +2859,7 @@
       <c r="F16" s="35"/>
       <c r="G16" s="32"/>
       <c r="I16" s="47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" s="19" customFormat="1" ht="18.15" spans="4:10">
@@ -2855,36 +2867,36 @@
         <v>37</v>
       </c>
       <c r="E17" s="37">
-        <f>SUM(E3:E9)*3</f>
-        <v>29558.2368343454</v>
+        <f>SUM(E3:E16)*3</f>
+        <v>1596.96002282036</v>
       </c>
       <c r="F17" s="38">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>0.357818335814348</v>
+        <v>4.96251114674596</v>
       </c>
       <c r="G17" s="39">
         <f t="shared" si="0"/>
-        <v>10576.4791136718</v>
+        <v>7924.93191415375</v>
       </c>
       <c r="I17" s="42">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>1.49619939151475</v>
+        <v>1.80059849761987</v>
       </c>
       <c r="J17" s="43" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
-        <v>TIENE QUE BAJAR</v>
+        <v>TIENE QUE SUBIR</v>
       </c>
     </row>
     <row r="18" s="19" customFormat="1" spans="4:9">
       <c r="D18" s="40"/>
       <c r="E18" s="40">
         <f>SUM(E3:E17)</f>
-        <v>42868.1805757812</v>
+        <v>2129.28003042715</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40">
         <f>SUM(G3:G17)</f>
-        <v>15136.8862522202</v>
+        <v>10731.1541276645</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="47" t="s">
@@ -2894,7 +2906,7 @@
     <row r="19" s="19" customFormat="1" spans="9:9">
       <c r="I19" s="48">
         <f>G18/B3</f>
-        <v>6.68360116753954</v>
+        <v>5.55370895467177</v>
       </c>
     </row>
     <row r="20" s="19" customFormat="1"/>
@@ -3042,7 +3054,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -141,13 +141,13 @@
     <t>margen ratio</t>
   </si>
   <si>
+    <t>primer tp a 0.7 porciento</t>
+  </si>
+  <si>
+    <t>porc distancia entre posicion y precio (se recomienda que sea al menos la mitad del porsentaje que soporta)</t>
+  </si>
+  <si>
     <t>BUY</t>
-  </si>
-  <si>
-    <t>primer tp a 0.7 porciento</t>
-  </si>
-  <si>
-    <t>porc distancia entre posicion y precio (se recomienda que sea al menos la mitad del porsentaje que soporta)</t>
   </si>
   <si>
     <t>Size</t>
@@ -359,12 +359,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.00000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.000000"/>
+    <numFmt numFmtId="178" formatCode="0.000000"/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -432,31 +432,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -477,54 +477,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -539,10 +492,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -554,8 +507,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,8 +553,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,7 +614,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,169 +782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,6 +1033,30 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,11 +1076,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,60 +1126,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1158,127 +1158,127 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,41 +1289,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1378,7 +1378,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2494,7 +2494,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2521,7 +2521,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" s="19" customFormat="1" ht="15.15" spans="4:7">
@@ -2543,28 +2543,28 @@
         <v>17</v>
       </c>
       <c r="B3" s="28">
-        <v>1932.25</v>
+        <v>2010</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="30">
         <f>G3/F3</f>
-        <v>16.1235814419226</v>
+        <v>25.8634000720572</v>
       </c>
       <c r="F3" s="31">
-        <v>5.992</v>
+        <v>7.7716</v>
       </c>
       <c r="G3" s="32">
         <f>B8</f>
-        <v>96.6125</v>
+        <v>201</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="41">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-1.83361453335968</v>
+        <v>-1.59583308977876</v>
       </c>
     </row>
     <row r="4" s="19" customFormat="1" spans="1:10">
@@ -2573,29 +2573,29 @@
       </c>
       <c r="B4" s="33">
         <f>-B3*$B$10/100</f>
-        <v>-193.225</v>
+        <v>-201</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="30">
         <f>E3</f>
-        <v>16.1235814419226</v>
+        <v>25.8634000720572</v>
       </c>
       <c r="F4" s="35">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>5.87216</v>
+        <v>7.927032</v>
       </c>
       <c r="G4" s="32">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>94.68025</v>
+        <v>205.02</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="41">
         <f>E18</f>
-        <v>2129.28003042715</v>
+        <v>1423.11082917289</v>
       </c>
     </row>
     <row r="5" s="19" customFormat="1" spans="1:10">
@@ -2609,23 +2609,23 @@
         <v>2</v>
       </c>
       <c r="E5" s="30">
-        <f t="shared" ref="E5:E14" si="1">E4*(1+$B$6/100)</f>
-        <v>20.9606558744993</v>
+        <f>E4*(1+$B$6/100)</f>
+        <v>33.6224200936744</v>
       </c>
       <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>5.7547168</v>
+        <v>8.08557264</v>
       </c>
       <c r="G5" s="32">
         <f t="shared" si="0"/>
-        <v>120.6226385</v>
+        <v>271.85652</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="41">
         <f>J4*J10</f>
-        <v>10537.9291276645</v>
+        <v>12595.3021833796</v>
       </c>
     </row>
     <row r="6" s="19" customFormat="1" spans="1:10">
@@ -2639,23 +2639,23 @@
         <v>3</v>
       </c>
       <c r="E6" s="30">
-        <f t="shared" si="1"/>
-        <v>27.2488526368491</v>
+        <f>E5*(1+$B$6/100)</f>
+        <v>43.7091461217767</v>
       </c>
       <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>5.639622464</v>
+        <v>8.2472840928</v>
       </c>
       <c r="G6" s="32">
         <f t="shared" si="0"/>
-        <v>153.673241449</v>
+        <v>360.48174552</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="41">
         <f>J3/100*J4*J10</f>
-        <v>-193.225</v>
+        <v>-200.999999999999</v>
       </c>
     </row>
     <row r="7" s="19" customFormat="1" spans="1:10">
@@ -2669,23 +2669,23 @@
         <v>4</v>
       </c>
       <c r="E7" s="30">
-        <f t="shared" si="1"/>
-        <v>35.4235084279039</v>
+        <f>E6*(1+$B$6/100)</f>
+        <v>56.8218899583097</v>
       </c>
       <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>5.52683001472</v>
+        <v>8.412229774656</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="0"/>
-        <v>195.779709606026</v>
+        <v>477.99879455952</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="42">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>17.4055838267995</v>
+        <v>13.8831387802063</v>
       </c>
     </row>
     <row r="8" s="19" customFormat="1" spans="1:7">
@@ -2694,22 +2694,22 @@
       </c>
       <c r="B8" s="33">
         <f>B3*$B$9/100</f>
-        <v>96.6125</v>
+        <v>201</v>
       </c>
       <c r="D8" s="34">
         <v>5</v>
       </c>
       <c r="E8" s="30">
-        <f t="shared" si="1"/>
-        <v>46.050560956275</v>
+        <f>E7*(1+$B$6/100)</f>
+        <v>73.8684569458027</v>
       </c>
       <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>5.4162934144256</v>
+        <v>8.58047437014912</v>
       </c>
       <c r="G8" s="32">
         <f t="shared" si="0"/>
-        <v>249.423350038077</v>
+        <v>633.826401585924</v>
       </c>
     </row>
     <row r="9" s="19" customFormat="1" spans="1:10">
@@ -2717,22 +2717,22 @@
         <v>29</v>
       </c>
       <c r="B9" s="28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="34">
         <v>6</v>
       </c>
       <c r="E9" s="30">
-        <f t="shared" si="1"/>
-        <v>59.8657292431576</v>
+        <f>E8*(1+$B$6/100)</f>
+        <v>96.0289940295435</v>
       </c>
       <c r="F9" s="35">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>5.30796754613709</v>
+        <v>8.7520838575521</v>
       </c>
       <c r="G9" s="32">
         <f t="shared" si="0"/>
-        <v>317.76534794851</v>
+        <v>840.453808502935</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>30</v>
@@ -2751,66 +2751,48 @@
       <c r="D10" s="34">
         <v>7</v>
       </c>
-      <c r="E10" s="30">
-        <f t="shared" si="1"/>
-        <v>77.8254480161048</v>
-      </c>
-      <c r="F10" s="35">
-        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>5.20180819521435</v>
-      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="32">
-        <f t="shared" ref="G10:G16" si="2">E10*F10</f>
-        <v>404.833053286402</v>
+        <f t="shared" ref="G10:G16" si="1">E10*F10</f>
+        <v>0</v>
       </c>
       <c r="I10" s="43">
         <f>G18/E18</f>
-        <v>5.0398040531624</v>
+        <v>8.70930213536723</v>
       </c>
       <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>4.94905741709817</v>
+        <v>8.85054201344251</v>
       </c>
     </row>
     <row r="11" s="19" customFormat="1" spans="1:7">
       <c r="A11" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="33">
         <f>B8*0.7/100</f>
-        <v>0.6762875</v>
+        <v>1.407</v>
       </c>
       <c r="D11" s="34">
         <v>8</v>
       </c>
-      <c r="E11" s="30">
-        <f>E10*(1+$B$6/100)</f>
-        <v>101.173082420936</v>
-      </c>
-      <c r="F11" s="35">
-        <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
-        <v>5.09777203131006</v>
-      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="32">
-        <f t="shared" si="2"/>
-        <v>515.757309886876</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" s="19" customFormat="1" spans="4:7">
       <c r="D12" s="34">
         <v>9</v>
       </c>
-      <c r="E12" s="30">
-        <f>E11*(1+$B$6/100)</f>
-        <v>131.525007147217</v>
-      </c>
-      <c r="F12" s="35">
-        <f>IF($B$1="BUY",F11*(1-$B$5/100),F11*(1+$B$5/100))</f>
-        <v>4.99581659068386</v>
-      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="32">
-        <f t="shared" si="2"/>
-        <v>657.07481279588</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" s="19" customFormat="1" spans="4:10">
@@ -2820,7 +2802,7 @@
       <c r="E13" s="30"/>
       <c r="F13" s="35"/>
       <c r="G13" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="45" t="s">
@@ -2848,7 +2830,7 @@
       <c r="G15" s="32"/>
       <c r="I15" s="42">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>4.94905741709817</v>
+        <v>8.85054201344251</v>
       </c>
     </row>
     <row r="16" s="19" customFormat="1" spans="4:9">
@@ -2859,7 +2841,7 @@
       <c r="F16" s="35"/>
       <c r="G16" s="32"/>
       <c r="I16" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" s="19" customFormat="1" ht="18.15" spans="4:10">
@@ -2868,35 +2850,35 @@
       </c>
       <c r="E17" s="37">
         <f>SUM(E3:E16)*3</f>
-        <v>1596.96002282036</v>
+        <v>1067.33312187966</v>
       </c>
       <c r="F17" s="38">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>4.96251114674596</v>
+        <v>8.81043108326912</v>
       </c>
       <c r="G17" s="39">
         <f t="shared" si="0"/>
-        <v>7924.93191415375</v>
+        <v>9403.66491321126</v>
       </c>
       <c r="I17" s="42">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>1.80059849761987</v>
+        <v>1.62171292119644</v>
       </c>
       <c r="J17" s="43" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
-        <v>TIENE QUE SUBIR</v>
+        <v>TIENE QUE BAJAR</v>
       </c>
     </row>
     <row r="18" s="19" customFormat="1" spans="4:9">
       <c r="D18" s="40"/>
       <c r="E18" s="40">
         <f>SUM(E3:E17)</f>
-        <v>2129.28003042715</v>
+        <v>1423.11082917289</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40">
         <f>SUM(G3:G17)</f>
-        <v>10731.1541276645</v>
+        <v>12394.3021833796</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="47" t="s">
@@ -2906,7 +2888,7 @@
     <row r="19" s="19" customFormat="1" spans="9:9">
       <c r="I19" s="48">
         <f>G18/B3</f>
-        <v>5.55370895467177</v>
+        <v>6.16631949421873</v>
       </c>
     </row>
     <row r="20" s="19" customFormat="1"/>
@@ -3054,7 +3036,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -2494,7 +2494,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F10"/>
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2543,28 +2543,28 @@
         <v>17</v>
       </c>
       <c r="B3" s="28">
-        <v>2010</v>
+        <v>2052</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="30">
         <f>G3/F3</f>
-        <v>25.8634000720572</v>
+        <v>2.55541718555417</v>
       </c>
       <c r="F3" s="31">
-        <v>7.7716</v>
+        <v>80.3</v>
       </c>
       <c r="G3" s="32">
         <f>B8</f>
-        <v>201</v>
+        <v>205.2</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="41">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-1.59583308977876</v>
+        <v>-1.24299468127218</v>
       </c>
     </row>
     <row r="4" s="19" customFormat="1" spans="1:10">
@@ -2573,29 +2573,29 @@
       </c>
       <c r="B4" s="33">
         <f>-B3*$B$10/100</f>
-        <v>-201</v>
+        <v>-205.2</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="30">
         <f>E3</f>
-        <v>25.8634000720572</v>
+        <v>2.55541718555417</v>
       </c>
       <c r="F4" s="35">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>7.927032</v>
+        <v>81.103</v>
       </c>
       <c r="G4" s="32">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>205.02</v>
+        <v>207.252</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="41">
         <f>E18</f>
-        <v>1423.11082917289</v>
+        <v>189.947624547945</v>
       </c>
     </row>
     <row r="5" s="19" customFormat="1" spans="1:10">
@@ -2603,29 +2603,29 @@
         <v>22</v>
       </c>
       <c r="B5" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="34">
         <v>2</v>
       </c>
       <c r="E5" s="30">
         <f>E4*(1+$B$6/100)</f>
-        <v>33.6224200936744</v>
+        <v>3.32204234122042</v>
       </c>
       <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>8.08557264</v>
+        <v>81.91403</v>
       </c>
       <c r="G5" s="32">
         <f t="shared" si="0"/>
-        <v>271.85652</v>
+        <v>272.121876</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="41">
         <f>J4*J10</f>
-        <v>12595.3021833796</v>
+        <v>16508.5179439371</v>
       </c>
     </row>
     <row r="6" s="19" customFormat="1" spans="1:10">
@@ -2640,22 +2640,22 @@
       </c>
       <c r="E6" s="30">
         <f>E5*(1+$B$6/100)</f>
-        <v>43.7091461217767</v>
+        <v>4.31865504358655</v>
       </c>
       <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>8.2472840928</v>
+        <v>82.7331703</v>
       </c>
       <c r="G6" s="32">
         <f t="shared" si="0"/>
-        <v>360.48174552</v>
+        <v>357.296023188</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="41">
         <f>J3/100*J4*J10</f>
-        <v>-200.999999999999</v>
+        <v>-205.200000000001</v>
       </c>
     </row>
     <row r="7" s="19" customFormat="1" spans="1:10">
@@ -2670,22 +2670,22 @@
       </c>
       <c r="E7" s="30">
         <f>E6*(1+$B$6/100)</f>
-        <v>56.8218899583097</v>
+        <v>5.61425155666252</v>
       </c>
       <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>8.412229774656</v>
+        <v>83.560502003</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="0"/>
-        <v>477.99879455952</v>
+        <v>469.129678445844</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="42">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>13.8831387802063</v>
+        <v>8.23274524035678</v>
       </c>
     </row>
     <row r="8" s="19" customFormat="1" spans="1:7">
@@ -2694,22 +2694,22 @@
       </c>
       <c r="B8" s="33">
         <f>B3*$B$9/100</f>
-        <v>201</v>
+        <v>205.2</v>
       </c>
       <c r="D8" s="34">
         <v>5</v>
       </c>
       <c r="E8" s="30">
         <f>E7*(1+$B$6/100)</f>
-        <v>73.8684569458027</v>
+        <v>7.29852702366127</v>
       </c>
       <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>8.58047437014912</v>
+        <v>84.39610702303</v>
       </c>
       <c r="G8" s="32">
         <f t="shared" si="0"/>
-        <v>633.826401585924</v>
+        <v>615.967267799393</v>
       </c>
     </row>
     <row r="9" s="19" customFormat="1" spans="1:10">
@@ -2724,15 +2724,15 @@
       </c>
       <c r="E9" s="30">
         <f>E8*(1+$B$6/100)</f>
-        <v>96.0289940295435</v>
+        <v>9.48808513075965</v>
       </c>
       <c r="F9" s="35">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>8.7520838575521</v>
+        <v>85.2400680932603</v>
       </c>
       <c r="G9" s="32">
         <f t="shared" si="0"/>
-        <v>840.453808502935</v>
+        <v>808.765022620604</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>30</v>
@@ -2751,19 +2751,25 @@
       <c r="D10" s="34">
         <v>7</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="35"/>
+      <c r="E10" s="30">
+        <f>E9*(1+$B$6/100)</f>
+        <v>12.3345106699875</v>
+      </c>
+      <c r="F10" s="35">
+        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
+        <v>86.0924687741929</v>
+      </c>
       <c r="G10" s="32">
         <f t="shared" ref="G10:G16" si="1">E10*F10</f>
-        <v>0</v>
+        <v>1061.90847470085</v>
       </c>
       <c r="I10" s="43">
         <f>G18/E18</f>
-        <v>8.70930213536723</v>
+        <v>85.8305966328203</v>
       </c>
       <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>8.85054201344251</v>
+        <v>86.9108944280065</v>
       </c>
     </row>
     <row r="11" s="19" customFormat="1" spans="1:7">
@@ -2772,7 +2778,7 @@
       </c>
       <c r="B11" s="33">
         <f>B8*0.7/100</f>
-        <v>1.407</v>
+        <v>1.4364</v>
       </c>
       <c r="D11" s="34">
         <v>8</v>
@@ -2830,7 +2836,7 @@
       <c r="G15" s="32"/>
       <c r="I15" s="42">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>8.85054201344251</v>
+        <v>86.9108944280065</v>
       </c>
     </row>
     <row r="16" s="19" customFormat="1" spans="4:9">
@@ -2850,19 +2856,19 @@
       </c>
       <c r="E17" s="37">
         <f>SUM(E3:E16)*3</f>
-        <v>1067.33312187966</v>
+        <v>142.460718410959</v>
       </c>
       <c r="F17" s="38">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>8.81043108326912</v>
+        <v>86.3794436701069</v>
       </c>
       <c r="G17" s="39">
         <f t="shared" si="0"/>
-        <v>9403.66491321126</v>
+        <v>12305.6776011824</v>
       </c>
       <c r="I17" s="42">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>1.62171292119644</v>
+        <v>1.25863950335527</v>
       </c>
       <c r="J17" s="43" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
@@ -2873,12 +2879,12 @@
       <c r="D18" s="40"/>
       <c r="E18" s="40">
         <f>SUM(E3:E17)</f>
-        <v>1423.11082917289</v>
+        <v>189.947624547945</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40">
         <f>SUM(G3:G17)</f>
-        <v>12394.3021833796</v>
+        <v>16303.3179439371</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="47" t="s">
@@ -2888,7 +2894,7 @@
     <row r="19" s="19" customFormat="1" spans="9:9">
       <c r="I19" s="48">
         <f>G18/B3</f>
-        <v>6.16631949421873</v>
+        <v>7.94508671731827</v>
       </c>
     </row>
     <row r="20" s="19" customFormat="1"/>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -359,9 +359,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.000000"/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
@@ -431,23 +431,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,9 +454,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,10 +484,34 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -515,37 +546,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -555,7 +555,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,7 +614,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +644,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,78 +716,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -728,7 +728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,25 +740,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,19 +776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,6 +1033,30 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,41 +1101,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1128,6 +1117,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1137,15 +1137,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,130 +1155,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2494,7 +2494,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2543,28 +2543,28 @@
         <v>17</v>
       </c>
       <c r="B3" s="28">
-        <v>2052</v>
+        <v>2321.88</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="30">
         <f>G3/F3</f>
-        <v>2.55541718555417</v>
+        <v>311.369183317688</v>
       </c>
       <c r="F3" s="31">
-        <v>80.3</v>
+        <v>0.7457</v>
       </c>
       <c r="G3" s="32">
         <f>B8</f>
-        <v>205.2</v>
+        <v>232.188</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="41">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-1.24299468127218</v>
+        <v>-1.18733319678793</v>
       </c>
     </row>
     <row r="4" s="19" customFormat="1" spans="1:10">
@@ -2573,29 +2573,29 @@
       </c>
       <c r="B4" s="33">
         <f>-B3*$B$10/100</f>
-        <v>-205.2</v>
+        <v>-232.188</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="30">
         <f>E3</f>
-        <v>2.55541718555417</v>
+        <v>311.369183317688</v>
       </c>
       <c r="F4" s="35">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>81.103</v>
+        <v>0.7583769</v>
       </c>
       <c r="G4" s="32">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>207.252</v>
+        <v>236.135196</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="41">
         <f>E18</f>
-        <v>189.947624547945</v>
+        <v>23144.4936126163</v>
       </c>
     </row>
     <row r="5" s="19" customFormat="1" spans="1:10">
@@ -2603,29 +2603,29 @@
         <v>22</v>
       </c>
       <c r="B5" s="33">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="D5" s="34">
         <v>2</v>
       </c>
       <c r="E5" s="30">
-        <f>E4*(1+$B$6/100)</f>
-        <v>3.32204234122042</v>
+        <f t="shared" ref="E5:E10" si="1">E4*(1+$B$6/100)</f>
+        <v>404.779938312995</v>
       </c>
       <c r="F5" s="35">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>81.91403</v>
+        <v>0.7712693073</v>
       </c>
       <c r="G5" s="32">
         <f t="shared" si="0"/>
-        <v>272.121876</v>
+        <v>312.1943426316</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="41">
         <f>J4*J10</f>
-        <v>16508.5179439371</v>
+        <v>19555.4205532309</v>
       </c>
     </row>
     <row r="6" s="19" customFormat="1" spans="1:10">
@@ -2639,23 +2639,23 @@
         <v>3</v>
       </c>
       <c r="E6" s="30">
-        <f>E5*(1+$B$6/100)</f>
-        <v>4.31865504358655</v>
+        <f t="shared" si="1"/>
+        <v>526.213919806893</v>
       </c>
       <c r="F6" s="35">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>82.7331703</v>
+        <v>0.7843808855241</v>
       </c>
       <c r="G6" s="32">
         <f t="shared" si="0"/>
-        <v>357.296023188</v>
+        <v>412.752140393238</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="41">
         <f>J3/100*J4*J10</f>
-        <v>-205.200000000001</v>
+        <v>-232.188</v>
       </c>
     </row>
     <row r="7" s="19" customFormat="1" spans="1:10">
@@ -2669,23 +2669,23 @@
         <v>4</v>
       </c>
       <c r="E7" s="30">
-        <f>E6*(1+$B$6/100)</f>
-        <v>5.61425155666252</v>
+        <f t="shared" si="1"/>
+        <v>684.078095748961</v>
       </c>
       <c r="F7" s="35">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>83.560502003</v>
+        <v>0.797715360578009</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="0"/>
-        <v>469.129678445844</v>
+        <v>545.6996048139</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="42">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>8.23274524035678</v>
+        <v>13.3066329124783</v>
       </c>
     </row>
     <row r="8" s="19" customFormat="1" spans="1:7">
@@ -2694,22 +2694,22 @@
       </c>
       <c r="B8" s="33">
         <f>B3*$B$9/100</f>
-        <v>205.2</v>
+        <v>232.188</v>
       </c>
       <c r="D8" s="34">
         <v>5</v>
       </c>
       <c r="E8" s="30">
-        <f>E7*(1+$B$6/100)</f>
-        <v>7.29852702366127</v>
+        <f t="shared" si="1"/>
+        <v>889.301524473649</v>
       </c>
       <c r="F8" s="35">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>84.39610702303</v>
+        <v>0.811276521707835</v>
       </c>
       <c r="G8" s="32">
         <f t="shared" si="0"/>
-        <v>615.967267799393</v>
+        <v>721.469447524458</v>
       </c>
     </row>
     <row r="9" s="19" customFormat="1" spans="1:10">
@@ -2723,16 +2723,16 @@
         <v>6</v>
       </c>
       <c r="E9" s="30">
-        <f>E8*(1+$B$6/100)</f>
-        <v>9.48808513075965</v>
+        <f t="shared" si="1"/>
+        <v>1156.09198181574</v>
       </c>
       <c r="F9" s="35">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>85.2400680932603</v>
+        <v>0.825068222576869</v>
       </c>
       <c r="G9" s="32">
         <f t="shared" si="0"/>
-        <v>808.765022620604</v>
+        <v>953.854756572085</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>30</v>
@@ -2752,24 +2752,24 @@
         <v>7</v>
       </c>
       <c r="E10" s="30">
-        <f>E9*(1+$B$6/100)</f>
-        <v>12.3345106699875</v>
+        <f t="shared" si="1"/>
+        <v>1502.91957636047</v>
       </c>
       <c r="F10" s="35">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>86.0924687741929</v>
+        <v>0.839094382360675</v>
       </c>
       <c r="G10" s="32">
-        <f t="shared" ref="G10:G16" si="1">E10*F10</f>
-        <v>1061.90847470085</v>
+        <f t="shared" ref="G10:G16" si="2">E10*F10</f>
+        <v>1261.09137366395</v>
       </c>
       <c r="I10" s="43">
         <f>G18/E18</f>
-        <v>85.8305966328203</v>
+        <v>0.834895456200326</v>
       </c>
       <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>86.9108944280065</v>
+        <v>0.844927561628351</v>
       </c>
     </row>
     <row r="11" s="19" customFormat="1" spans="1:7">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="B11" s="33">
         <f>B8*0.7/100</f>
-        <v>1.4364</v>
+        <v>1.625316</v>
       </c>
       <c r="D11" s="34">
         <v>8</v>
@@ -2786,7 +2786,7 @@
       <c r="E11" s="30"/>
       <c r="F11" s="35"/>
       <c r="G11" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       <c r="E12" s="30"/>
       <c r="F12" s="35"/>
       <c r="G12" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
       <c r="E13" s="30"/>
       <c r="F13" s="35"/>
       <c r="G13" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13" s="45" t="s">
@@ -2836,7 +2836,7 @@
       <c r="G15" s="32"/>
       <c r="I15" s="42">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>86.9108944280065</v>
+        <v>0.844927561628351</v>
       </c>
     </row>
     <row r="16" s="19" customFormat="1" spans="4:9">
@@ -2856,19 +2856,19 @@
       </c>
       <c r="E17" s="37">
         <f>SUM(E3:E16)*3</f>
-        <v>142.460718410959</v>
+        <v>17358.3702094623</v>
       </c>
       <c r="F17" s="38">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>86.3794436701069</v>
+        <v>0.843849250527386</v>
       </c>
       <c r="G17" s="39">
         <f t="shared" si="0"/>
-        <v>12305.6776011824</v>
+        <v>14647.8476916316</v>
       </c>
       <c r="I17" s="42">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>1.25863950335527</v>
+        <v>1.20160019479336</v>
       </c>
       <c r="J17" s="43" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
@@ -2879,12 +2879,12 @@
       <c r="D18" s="40"/>
       <c r="E18" s="40">
         <f>SUM(E3:E17)</f>
-        <v>189.947624547945</v>
+        <v>23144.4936126163</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40">
         <f>SUM(G3:G17)</f>
-        <v>16303.3179439371</v>
+        <v>19323.2325532309</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="47" t="s">
@@ -2894,7 +2894,7 @@
     <row r="19" s="19" customFormat="1" spans="9:9">
       <c r="I19" s="48">
         <f>G18/B3</f>
-        <v>7.94508671731827</v>
+        <v>8.32223566817875</v>
       </c>
     </row>
     <row r="20" s="19" customFormat="1"/>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <t>GANANCIA TOTAL</t>
   </si>
   <si>
-    <t>2254</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>2932</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
   <si>
     <t>calculadora diaria</t>
@@ -54,7 +54,7 @@
     <t>ganancia diaria</t>
   </si>
   <si>
-    <t>18</t>
+    <t>100</t>
   </si>
   <si>
     <t>ALL IN ONE</t>
@@ -359,10 +359,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.000000"/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
@@ -439,9 +439,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,38 +493,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,14 +517,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -527,14 +529,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,9 +547,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,7 +614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,19 +626,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,7 +662,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,48 +704,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -728,7 +716,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,31 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,13 +782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,11 +1037,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,6 +1063,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,28 +1117,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,12 +1140,12 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,130 +1155,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1893,8 +1893,8 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1936,11 +1936,11 @@
       </c>
       <c r="D2" s="54">
         <f>POWER(1+(B2/100),C2)*A2</f>
-        <v>2862.66069441872</v>
+        <v>9619.9822714874</v>
       </c>
       <c r="E2" s="54">
         <f>D2-A2</f>
-        <v>608.660694418721</v>
+        <v>6687.9822714874</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="B9" s="57">
         <f>A9*100/A2</f>
-        <v>0.798580301685892</v>
+        <v>3.4106412005457</v>
       </c>
     </row>
   </sheetData>
@@ -2493,7 +2493,7 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -39,13 +39,13 @@
     <t>GANANCIA TOTAL</t>
   </si>
   <si>
-    <t>2932</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>60</t>
+    <t>2949</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>calculadora diaria</t>
@@ -54,7 +54,7 @@
     <t>ganancia diaria</t>
   </si>
   <si>
-    <t>100</t>
+    <t>92</t>
   </si>
   <si>
     <t>ALL IN ONE</t>
@@ -359,12 +359,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.000000"/>
-    <numFmt numFmtId="179" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -431,25 +431,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,32 +446,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,6 +470,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,6 +505,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -540,15 +529,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,6 +551,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -568,8 +559,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,7 +614,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,19 +680,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,37 +728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,31 +752,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,55 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,32 +1048,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,16 +1108,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1155,130 +1155,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,41 +1289,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1378,7 +1378,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1894,7 +1894,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1936,11 +1936,11 @@
       </c>
       <c r="D2" s="54">
         <f>POWER(1+(B2/100),C2)*A2</f>
-        <v>9619.9822714874</v>
+        <v>7390.91790332117</v>
       </c>
       <c r="E2" s="54">
         <f>D2-A2</f>
-        <v>6687.9822714874</v>
+        <v>4441.91790332117</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="B9" s="57">
         <f>A9*100/A2</f>
-        <v>3.4106412005457</v>
+        <v>3.1197015937606</v>
       </c>
     </row>
   </sheetData>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -4,16 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
-    <sheet name="GRILLA" sheetId="6" r:id="rId2"/>
-    <sheet name="grilla de pruebas" sheetId="10" r:id="rId3"/>
-    <sheet name="CALCULADORA" sheetId="9" r:id="rId4"/>
-    <sheet name="estrategias" sheetId="11" r:id="rId5"/>
+    <sheet name="Grilla Master" sheetId="6" r:id="rId2"/>
+    <sheet name="Grilla bkup" sheetId="10" r:id="rId3"/>
+    <sheet name="Grilla Develop" sheetId="14" r:id="rId4"/>
+    <sheet name="CALCULADORA" sheetId="9" r:id="rId5"/>
     <sheet name="ESTRUCTURA" sheetId="12" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ESTRUCTURA!$A$1:$G$40</definedName>
   </definedNames>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="106">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -123,16 +126,16 @@
     <t>Porcentaje de pérdida</t>
   </si>
   <si>
+    <t>primer tp a 0.7 porciento</t>
+  </si>
+  <si>
     <t>peor de los casos</t>
   </si>
   <si>
     <t>donde quedaría el precio al final</t>
   </si>
   <si>
-    <t>distancia entre posicion y precio</t>
-  </si>
-  <si>
-    <t>ataque seria =SUM(E3:E16)*3</t>
+    <t>porc distancia entre posicion y precio (se recomienda que sea al menos la mitad del porsentaje que soporta)</t>
   </si>
   <si>
     <t>ataque</t>
@@ -141,15 +144,21 @@
     <t>margen ratio</t>
   </si>
   <si>
-    <t>primer tp a 0.7 porciento</t>
-  </si>
-  <si>
-    <t>porc distancia entre posicion y precio (se recomienda que sea al menos la mitad del porsentaje que soporta)</t>
-  </si>
-  <si>
     <t>BUY</t>
   </si>
   <si>
+    <t>primer tp</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>distancia entre ataque y stop</t>
+  </si>
+  <si>
+    <t>distancia entre posición y stop</t>
+  </si>
+  <si>
     <t>Size</t>
   </si>
   <si>
@@ -180,127 +189,109 @@
     <t>Ataque</t>
   </si>
   <si>
-    <t>entrada porc</t>
+    <t>ARCHIVO</t>
+  </si>
+  <si>
+    <t>FUNCION</t>
+  </si>
+  <si>
+    <t>MULTI EXCHANGE</t>
+  </si>
+  <si>
+    <t>funciona en binance</t>
+  </si>
+  <si>
+    <t>funciona en kucoin</t>
+  </si>
+  <si>
+    <t>comentarios</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>UTIL</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>truncate</t>
+  </si>
+  <si>
+    <t>obtienecantidaddecimales</t>
+  </si>
+  <si>
+    <t>RoundToTickUp</t>
+  </si>
+  <si>
+    <t>get_tick_size</t>
+  </si>
+  <si>
+    <t>POR SELECCION</t>
+  </si>
+  <si>
+    <t>lista_de_monedas</t>
+  </si>
+  <si>
+    <t>timeindex</t>
+  </si>
+  <si>
+    <t>calculardf</t>
+  </si>
+  <si>
+    <t>CCXT</t>
+  </si>
+  <si>
+    <t>equipoliquidando</t>
+  </si>
+  <si>
+    <t>volumeOf24h</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>printandlog</t>
+  </si>
+  <si>
+    <t>currentprice</t>
+  </si>
+  <si>
+    <t>balancetotal</t>
+  </si>
+  <si>
+    <t>getentryprice</t>
+  </si>
+  <si>
+    <t>get_quantityprecision</t>
+  </si>
+  <si>
+    <t>BINANCE</t>
+  </si>
+  <si>
+    <t>creoposicion</t>
+  </si>
+  <si>
+    <t>get_positionamt</t>
+  </si>
+  <si>
+    <t>get_positionamtusdt</t>
+  </si>
+  <si>
+    <t>get_rounded_price</t>
+  </si>
+  <si>
+    <t>get_priceprecision</t>
   </si>
   <si>
     <t>compensaciones</t>
-  </si>
-  <si>
-    <t>máxima variación diaria</t>
-  </si>
-  <si>
-    <t>mercado tranquilo</t>
-  </si>
-  <si>
-    <t>mercado movido</t>
-  </si>
-  <si>
-    <t>muy movido</t>
-  </si>
-  <si>
-    <t>buena ganancia-mercado movido:</t>
-  </si>
-  <si>
-    <t>ARCHIVO</t>
-  </si>
-  <si>
-    <t>FUNCION</t>
-  </si>
-  <si>
-    <t>MULTI EXCHANGE</t>
-  </si>
-  <si>
-    <t>funciona en binance</t>
-  </si>
-  <si>
-    <t>funciona en kucoin</t>
-  </si>
-  <si>
-    <t>comentarios</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>UTIL</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>truncate</t>
-  </si>
-  <si>
-    <t>obtienecantidaddecimales</t>
-  </si>
-  <si>
-    <t>RoundToTickUp</t>
-  </si>
-  <si>
-    <t>get_tick_size</t>
-  </si>
-  <si>
-    <t>POR SELECCION</t>
-  </si>
-  <si>
-    <t>lista_de_monedas</t>
-  </si>
-  <si>
-    <t>timeindex</t>
-  </si>
-  <si>
-    <t>calculardf</t>
-  </si>
-  <si>
-    <t>CCXT</t>
-  </si>
-  <si>
-    <t>equipoliquidando</t>
-  </si>
-  <si>
-    <t>volumeOf24h</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>printandlog</t>
-  </si>
-  <si>
-    <t>currentprice</t>
-  </si>
-  <si>
-    <t>balancetotal</t>
-  </si>
-  <si>
-    <t>getentryprice</t>
-  </si>
-  <si>
-    <t>get_quantityprecision</t>
-  </si>
-  <si>
-    <t>BINANCE</t>
-  </si>
-  <si>
-    <t>creoposicion</t>
-  </si>
-  <si>
-    <t>get_positionamt</t>
-  </si>
-  <si>
-    <t>get_positionamtusdt</t>
-  </si>
-  <si>
-    <t>get_rounded_price</t>
-  </si>
-  <si>
-    <t>get_priceprecision</t>
   </si>
   <si>
     <t>creotakeprofit</t>
@@ -360,11 +351,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="178" formatCode="0.00000"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.00000"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -431,9 +422,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,15 +436,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,22 +453,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,15 +468,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,6 +510,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -538,14 +538,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,35 +565,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -614,7 +599,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +623,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,7 +677,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,7 +707,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,13 +737,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,115 +755,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,69 +1018,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,6 +1046,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1134,18 +1080,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,175 +1140,247 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1333,7 +1390,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1351,46 +1408,25 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1411,10 +1447,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1424,7 +1466,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1439,7 +1481,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1557,51 +1599,971 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grilla Develop'!$F$3:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.088823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.087313009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.085828687847</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.084369600153601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0829353169509898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.081525416562823</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.080139484481255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0787771132450736</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0774379023199074</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0766279142720484</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0785697243340093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="818217620"/>
+        <c:axId val="465484551"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="818217620"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465484551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465484551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818217620"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6985</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="616585" y="1438910"/>
-          <a:ext cx="8824595" cy="3422650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7099300" y="2586990"/>
+        <a:ext cx="4572000" cy="2745105"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="#REF"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1893,85 +2855,85 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="50" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="50" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="51" customWidth="1"/>
-    <col min="4" max="4" width="21.8888888888889" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.1111111111111" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="20.5740740740741" style="67" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="67" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="68" customWidth="1"/>
+    <col min="4" max="4" width="21.8888888888889" style="42" customWidth="1"/>
+    <col min="5" max="5" width="17.1111111111111" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="69" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="71">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>7390.91790332117</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="71">
         <f>D2-A2</f>
         <v>4441.91790332117</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
     </row>
     <row r="4" ht="19.5" customHeight="1"/>
     <row r="5" ht="19.5" customHeight="1"/>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="73"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="74" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="74">
         <f>A9*100/A2</f>
         <v>3.1197015937606</v>
       </c>
@@ -1992,430 +2954,443 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I11" sqref="I11:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="19" customWidth="1"/>
-    <col min="3" max="3" width="27.7777777777778" style="19" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="19" customWidth="1"/>
-    <col min="5" max="5" width="18.5555555555556" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="19" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="19" customWidth="1"/>
-    <col min="8" max="8" width="1.66666666666667" style="19" customWidth="1"/>
-    <col min="9" max="9" width="32.8888888888889" style="19" customWidth="1"/>
-    <col min="10" max="10" width="31.2222222222222" style="19" customWidth="1"/>
-    <col min="11" max="11" width="8.44444444444444" style="19" customWidth="1"/>
-    <col min="12" max="12" width="31.2222222222222" style="19" customWidth="1"/>
-    <col min="13" max="16374" width="8.44444444444444" style="19" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="19"/>
-    <col min="16376" max="16384" width="8.44444444444444" style="20"/>
+    <col min="1" max="1" width="22" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="15" customWidth="1"/>
+    <col min="3" max="3" width="4.55555555555556" style="15" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="15" customWidth="1"/>
+    <col min="5" max="5" width="18.5555555555556" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="15" customWidth="1"/>
+    <col min="8" max="8" width="1.66666666666667" style="15" customWidth="1"/>
+    <col min="9" max="9" width="32.8888888888889" style="15" customWidth="1"/>
+    <col min="10" max="10" width="31.2222222222222" style="15" customWidth="1"/>
+    <col min="11" max="11" width="8.44444444444444" style="15" customWidth="1"/>
+    <col min="12" max="12" width="31.2222222222222" style="15" customWidth="1"/>
+    <col min="13" max="16374" width="8.44444444444444" style="15" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="15"/>
+    <col min="16376" max="16384" width="8.44444444444444" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="15" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="23" t="s">
+    <row r="2" s="15" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="19" customFormat="1" spans="1:10">
-      <c r="A3" s="27" t="s">
+    <row r="3" s="15" customFormat="1" spans="1:10">
+      <c r="A3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="49">
-        <v>1457</v>
-      </c>
-      <c r="D3" s="29" t="s">
+      <c r="B3" s="24">
+        <v>2321.88</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="26">
         <f>G3/F3</f>
-        <v>68.6339165545087</v>
-      </c>
-      <c r="F3" s="31">
-        <v>1.486</v>
-      </c>
-      <c r="G3" s="32">
+        <v>311.369183317688</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0.7457</v>
+      </c>
+      <c r="G3" s="28">
         <f>B8</f>
-        <v>101.99</v>
-      </c>
-      <c r="I3" s="27" t="s">
+        <v>232.188</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="38">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-7.05645174826999</v>
-      </c>
-    </row>
-    <row r="4" s="19" customFormat="1" spans="1:10">
-      <c r="A4" s="27" t="s">
+        <v>-1.18733319678793</v>
+      </c>
+    </row>
+    <row r="4" s="15" customFormat="1" spans="1:10">
+      <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="29">
         <f>-B3*$B$10/100</f>
-        <v>-145.7</v>
-      </c>
-      <c r="D4" s="34">
+        <v>-232.188</v>
+      </c>
+      <c r="D4" s="30">
         <v>1</v>
       </c>
-      <c r="E4" s="30">
-        <f t="shared" ref="E4:E9" si="0">E3*(1+$B$6/100)</f>
-        <v>89.2240915208614</v>
-      </c>
-      <c r="F4" s="35">
+      <c r="E4" s="26">
+        <f>E3</f>
+        <v>311.369183317688</v>
+      </c>
+      <c r="F4" s="31">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>1.511262</v>
-      </c>
-      <c r="G4" s="32">
-        <f t="shared" ref="G4:G13" si="1">E4*F4</f>
-        <v>134.840979</v>
-      </c>
-      <c r="I4" s="27" t="s">
+        <v>0.7583769</v>
+      </c>
+      <c r="G4" s="28">
+        <f t="shared" ref="G4:G13" si="0">E4*F4</f>
+        <v>236.135196</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="38">
         <f>E18</f>
-        <v>1206.77910471736</v>
-      </c>
-    </row>
-    <row r="5" s="19" customFormat="1" spans="1:10">
-      <c r="A5" s="27" t="s">
+        <v>23144.4936126163</v>
+      </c>
+    </row>
+    <row r="5" s="15" customFormat="1" spans="1:10">
+      <c r="A5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="29">
         <v>1.7</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="30">
         <v>2</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="26">
+        <f t="shared" ref="E5:E10" si="1">E4*(1+$B$6/100)</f>
+        <v>404.779938312995</v>
+      </c>
+      <c r="F5" s="31">
+        <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
+        <v>0.7712693073</v>
+      </c>
+      <c r="G5" s="28">
         <f t="shared" si="0"/>
-        <v>115.99131897712</v>
-      </c>
-      <c r="F5" s="35">
-        <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>1.536953454</v>
-      </c>
-      <c r="G5" s="32">
+        <v>312.1943426316</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="38">
+        <f>J4*J10</f>
+        <v>19555.4205532309</v>
+      </c>
+    </row>
+    <row r="6" s="15" customFormat="1" spans="1:10">
+      <c r="A6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="29">
+        <v>30</v>
+      </c>
+      <c r="D6" s="30">
+        <v>3</v>
+      </c>
+      <c r="E6" s="26">
         <f t="shared" si="1"/>
-        <v>178.2732583359</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="41">
-        <f>J4*J10</f>
-        <v>2064.77710324769</v>
-      </c>
-    </row>
-    <row r="6" s="19" customFormat="1" spans="1:10">
-      <c r="A6" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="42">
+        <v>526.213919806893</v>
+      </c>
+      <c r="F6" s="31">
+        <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
+        <v>0.7843808855241</v>
+      </c>
+      <c r="G6" s="28">
+        <f t="shared" si="0"/>
+        <v>412.752140393238</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="38">
+        <f>J3/100*J4*J10</f>
+        <v>-232.188</v>
+      </c>
+    </row>
+    <row r="7" s="15" customFormat="1" spans="1:10">
+      <c r="A7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="29">
+        <v>10</v>
+      </c>
+      <c r="D7" s="30">
+        <v>4</v>
+      </c>
+      <c r="E7" s="26">
+        <f t="shared" si="1"/>
+        <v>684.078095748961</v>
+      </c>
+      <c r="F7" s="31">
+        <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
+        <v>0.797715360578009</v>
+      </c>
+      <c r="G7" s="28">
+        <f t="shared" si="0"/>
+        <v>545.6996048139</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="29">
+        <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
+        <v>13.3066329124783</v>
+      </c>
+    </row>
+    <row r="8" s="15" customFormat="1" spans="1:7">
+      <c r="A8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="29">
+        <f>B3*$B$9/100</f>
+        <v>232.188</v>
+      </c>
+      <c r="D8" s="30">
+        <v>5</v>
+      </c>
+      <c r="E8" s="26">
+        <f t="shared" si="1"/>
+        <v>889.301524473649</v>
+      </c>
+      <c r="F8" s="31">
+        <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
+        <v>0.811276521707835</v>
+      </c>
+      <c r="G8" s="28">
+        <f t="shared" si="0"/>
+        <v>721.469447524458</v>
+      </c>
+    </row>
+    <row r="9" s="15" customFormat="1" spans="1:10">
+      <c r="A9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="24">
+        <v>10</v>
+      </c>
+      <c r="D9" s="30">
+        <v>6</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" si="1"/>
+        <v>1156.09198181574</v>
+      </c>
+      <c r="F9" s="31">
+        <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
+        <v>0.825068222576869</v>
+      </c>
+      <c r="G9" s="28">
+        <f t="shared" si="0"/>
+        <v>953.854756572085</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="34">
-        <v>3</v>
-      </c>
-      <c r="E6" s="30">
+      <c r="J9" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" s="15" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="24">
+        <v>10</v>
+      </c>
+      <c r="D10" s="30">
+        <v>7</v>
+      </c>
+      <c r="E10" s="26">
+        <f t="shared" si="1"/>
+        <v>1502.91957636047</v>
+      </c>
+      <c r="F10" s="31">
+        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
+        <v>0.839094382360675</v>
+      </c>
+      <c r="G10" s="28">
         <f t="shared" si="0"/>
-        <v>150.788714670256</v>
-      </c>
-      <c r="F6" s="35">
-        <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>1.563081662718</v>
-      </c>
-      <c r="G6" s="32">
-        <f t="shared" si="1"/>
-        <v>235.695074845893</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="41">
-        <f>J3/100*J4*J10</f>
-        <v>-145.7</v>
-      </c>
-    </row>
-    <row r="7" s="19" customFormat="1" spans="1:10">
-      <c r="A7" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="42">
+        <v>1261.09137366395</v>
+      </c>
+      <c r="I10" s="39">
+        <f>G18/E18</f>
+        <v>0.834895456200326</v>
+      </c>
+      <c r="J10" s="40">
+        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
+        <v>0.844927561628351</v>
+      </c>
+    </row>
+    <row r="11" s="15" customFormat="1" spans="1:7">
+      <c r="A11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="29">
+        <f>B8*0.7/100</f>
+        <v>1.625316</v>
+      </c>
+      <c r="D11" s="30">
+        <v>8</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="15" customFormat="1" spans="4:7">
+      <c r="D12" s="30">
+        <v>9</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="15" customFormat="1" spans="4:10">
+      <c r="D13" s="30">
         <v>10</v>
       </c>
-      <c r="D7" s="34">
-        <v>4</v>
-      </c>
-      <c r="E7" s="30">
+      <c r="E13" s="26"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="28">
         <f t="shared" si="0"/>
-        <v>196.025329071332</v>
-      </c>
-      <c r="F7" s="35">
-        <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>1.58965405098421</v>
-      </c>
-      <c r="G7" s="32">
-        <f t="shared" si="1"/>
-        <v>311.612458453756</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="42">
-        <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>15.1400952418302</v>
-      </c>
-    </row>
-    <row r="8" s="19" customFormat="1" spans="1:7">
-      <c r="A8" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="42">
-        <f>B3*$B$9/100</f>
-        <v>101.99</v>
-      </c>
-      <c r="D8" s="34">
-        <v>5</v>
-      </c>
-      <c r="E8" s="30">
-        <f t="shared" si="0"/>
-        <v>254.832927792732</v>
-      </c>
-      <c r="F8" s="35">
-        <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>1.61667816985094</v>
-      </c>
-      <c r="G8" s="32">
-        <f t="shared" si="1"/>
-        <v>411.982831321711</v>
-      </c>
-    </row>
-    <row r="9" s="19" customFormat="1" spans="1:10">
-      <c r="A9" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="49">
-        <v>7</v>
-      </c>
-      <c r="D9" s="34">
-        <v>6</v>
-      </c>
-      <c r="E9" s="30">
-        <f t="shared" si="0"/>
-        <v>331.282806130552</v>
-      </c>
-      <c r="F9" s="35">
-        <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>1.6441616987384</v>
-      </c>
-      <c r="G9" s="32">
-        <f t="shared" si="1"/>
-        <v>544.682501290432</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" s="19" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="42">
-        <v>10</v>
-      </c>
-      <c r="D10" s="34">
-        <v>7</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="32">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="43">
-        <f>G18/E18</f>
-        <v>1.59024720907573</v>
-      </c>
-      <c r="J10" s="44">
-        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>1.7109818152936</v>
-      </c>
-    </row>
-    <row r="11" s="19" customFormat="1" spans="4:7">
-      <c r="D11" s="34">
-        <v>8</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="19" customFormat="1" spans="4:7">
-      <c r="D12" s="34">
-        <v>9</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="19" customFormat="1" spans="4:10">
-      <c r="D13" s="34">
-        <v>10</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="45"/>
-    </row>
-    <row r="14" s="19" customFormat="1" spans="4:9">
-      <c r="D14" s="34">
+      <c r="I13" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="64"/>
+    </row>
+    <row r="14" s="15" customFormat="1" spans="4:9">
+      <c r="D14" s="30">
         <v>11</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="32"/>
-      <c r="I14" s="46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" s="19" customFormat="1" spans="4:9">
-      <c r="D15" s="34">
+      <c r="E14" s="26"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="28"/>
+      <c r="I14" s="65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" s="15" customFormat="1" spans="4:9">
+      <c r="D15" s="30">
         <v>12</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="32"/>
-      <c r="I15" s="42">
+      <c r="E15" s="26"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="28"/>
+      <c r="I15" s="29">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>1.7109818152936</v>
-      </c>
-    </row>
-    <row r="16" s="19" customFormat="1" spans="4:9">
-      <c r="D16" s="34">
+        <v>0.844927561628351</v>
+      </c>
+    </row>
+    <row r="16" s="15" customFormat="1" spans="4:9">
+      <c r="D16" s="30">
         <v>13</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="32"/>
-      <c r="I16" s="47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" s="19" customFormat="1" ht="18.15" spans="3:10">
-      <c r="C17" s="19" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="28"/>
+      <c r="I16" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="36" t="s">
+    </row>
+    <row r="17" s="15" customFormat="1" ht="18.15" spans="4:10">
+      <c r="D17" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38">
+      <c r="E17" s="33">
+        <f>SUM(E3:E16)*3</f>
+        <v>17358.3702094623</v>
+      </c>
+      <c r="F17" s="34">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>1.65347861503125</v>
-      </c>
-      <c r="G17" s="39">
+        <v>0.843849250527386</v>
+      </c>
+      <c r="G17" s="35">
         <f>E17*F17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="42">
+        <v>14647.8476916316</v>
+      </c>
+      <c r="I17" s="29">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>7.59219104607256</v>
-      </c>
-      <c r="J17" s="43" t="str">
+        <v>1.20160019479336</v>
+      </c>
+      <c r="J17" s="39" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
         <v>TIENE QUE BAJAR</v>
       </c>
     </row>
-    <row r="18" s="19" customFormat="1" spans="4:9">
-      <c r="D18" s="40"/>
-      <c r="E18" s="40">
+    <row r="18" s="15" customFormat="1" spans="4:9">
+      <c r="D18" s="36"/>
+      <c r="E18" s="36">
         <f>SUM(E3:E17)</f>
-        <v>1206.77910471736</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40">
+        <v>23144.4936126163</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36">
         <f>SUM(G3:G17)</f>
-        <v>1919.07710324769</v>
-      </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="47" t="s">
+        <v>19323.2325532309</v>
+      </c>
+      <c r="H18" s="36"/>
+      <c r="I18" s="66" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" s="19" customFormat="1" spans="9:9">
-      <c r="I19" s="48">
+    <row r="19" s="15" customFormat="1" spans="9:9">
+      <c r="I19" s="38">
         <f>G18/B3</f>
-        <v>1.31714282995724</v>
-      </c>
-    </row>
-    <row r="20" s="19" customFormat="1"/>
-    <row r="21" s="19" customFormat="1"/>
-    <row r="22" s="19" customFormat="1" spans="16376:16384">
-      <c r="XEV22" s="20"/>
-      <c r="XEW22" s="20"/>
-      <c r="XEX22" s="20"/>
-      <c r="XEY22" s="20"/>
-      <c r="XEZ22" s="20"/>
-      <c r="XFA22" s="20"/>
-      <c r="XFB22" s="20"/>
-      <c r="XFC22" s="20"/>
-      <c r="XFD22" s="20"/>
-    </row>
-    <row r="23" s="19" customFormat="1" spans="16376:16384">
-      <c r="XEV23" s="20"/>
-      <c r="XEW23" s="20"/>
-      <c r="XEX23" s="20"/>
-      <c r="XEY23" s="20"/>
-      <c r="XEZ23" s="20"/>
-      <c r="XFA23" s="20"/>
-      <c r="XFB23" s="20"/>
-      <c r="XFC23" s="20"/>
-      <c r="XFD23" s="20"/>
-    </row>
-    <row r="24" s="19" customFormat="1" spans="16376:16384">
-      <c r="XEV24" s="20"/>
-      <c r="XEW24" s="20"/>
-      <c r="XEX24" s="20"/>
-      <c r="XEY24" s="20"/>
-      <c r="XEZ24" s="20"/>
-      <c r="XFA24" s="20"/>
-      <c r="XFB24" s="20"/>
-      <c r="XFC24" s="20"/>
-      <c r="XFD24" s="20"/>
+        <v>8.32223566817875</v>
+      </c>
+    </row>
+    <row r="20" s="15" customFormat="1"/>
+    <row r="21" s="15" customFormat="1"/>
+    <row r="22" s="15" customFormat="1" spans="16376:16384">
+      <c r="XEV22" s="16"/>
+      <c r="XEW22" s="16"/>
+      <c r="XEX22" s="16"/>
+      <c r="XEY22" s="16"/>
+      <c r="XEZ22" s="16"/>
+      <c r="XFA22" s="16"/>
+      <c r="XFB22" s="16"/>
+      <c r="XFC22" s="16"/>
+      <c r="XFD22" s="16"/>
+    </row>
+    <row r="23" s="15" customFormat="1" spans="16376:16384">
+      <c r="XEV23" s="16"/>
+      <c r="XEW23" s="16"/>
+      <c r="XEX23" s="16"/>
+      <c r="XEY23" s="16"/>
+      <c r="XEZ23" s="16"/>
+      <c r="XFA23" s="16"/>
+      <c r="XFB23" s="16"/>
+      <c r="XFC23" s="16"/>
+      <c r="XFD23" s="16"/>
+    </row>
+    <row r="24" s="15" customFormat="1" spans="16376:16384">
+      <c r="XEV24" s="16"/>
+      <c r="XEW24" s="16"/>
+      <c r="XEX24" s="16"/>
+      <c r="XEY24" s="16"/>
+      <c r="XEZ24" s="16"/>
+      <c r="XFA24" s="16"/>
+      <c r="XFB24" s="16"/>
+      <c r="XFC24" s="16"/>
+      <c r="XFD24" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2494,443 +3469,443 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="19" customWidth="1"/>
-    <col min="3" max="3" width="4.55555555555556" style="19" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="19" customWidth="1"/>
-    <col min="5" max="5" width="18.5555555555556" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="19" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="19" customWidth="1"/>
-    <col min="8" max="8" width="1.66666666666667" style="19" customWidth="1"/>
-    <col min="9" max="9" width="32.8888888888889" style="19" customWidth="1"/>
-    <col min="10" max="10" width="31.2222222222222" style="19" customWidth="1"/>
-    <col min="11" max="11" width="8.44444444444444" style="19" customWidth="1"/>
-    <col min="12" max="12" width="31.2222222222222" style="19" customWidth="1"/>
-    <col min="13" max="16374" width="8.44444444444444" style="19" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="19"/>
-    <col min="16376" max="16384" width="8.44444444444444" style="20"/>
+    <col min="1" max="1" width="22" style="41" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="41" customWidth="1"/>
+    <col min="3" max="3" width="4.55555555555556" style="41" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="41" customWidth="1"/>
+    <col min="5" max="5" width="18.5555555555556" style="41" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="41" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="41" customWidth="1"/>
+    <col min="8" max="8" width="1.66666666666667" style="41" customWidth="1"/>
+    <col min="9" max="9" width="32.8888888888889" style="41" customWidth="1"/>
+    <col min="10" max="10" width="31.2222222222222" style="41" customWidth="1"/>
+    <col min="11" max="11" width="8.44444444444444" style="41" customWidth="1"/>
+    <col min="12" max="12" width="31.2222222222222" style="41" customWidth="1"/>
+    <col min="13" max="16374" width="8.44444444444444" style="41" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="41"/>
+    <col min="16376" max="16384" width="8.44444444444444" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="41" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="44" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="23" t="s">
+    <row r="2" s="41" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="19" customFormat="1" spans="1:10">
-      <c r="A3" s="27" t="s">
+    <row r="3" s="41" customFormat="1" spans="1:10">
+      <c r="A3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="50">
         <v>2321.88</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="26">
         <f>G3/F3</f>
         <v>311.369183317688</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="27">
         <v>0.7457</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="28">
         <f>B8</f>
         <v>232.188</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="56">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
         <v>-1.18733319678793</v>
       </c>
     </row>
-    <row r="4" s="19" customFormat="1" spans="1:10">
-      <c r="A4" s="27" t="s">
+    <row r="4" s="41" customFormat="1" spans="1:10">
+      <c r="A4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="52">
         <f>-B3*$B$10/100</f>
         <v>-232.188</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="53">
         <v>1</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="26">
         <f>E3</f>
         <v>311.369183317688</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="31">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
         <v>0.7583769</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="28">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
         <v>236.135196</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="56">
         <f>E18</f>
         <v>23144.4936126163</v>
       </c>
     </row>
-    <row r="5" s="19" customFormat="1" spans="1:10">
-      <c r="A5" s="27" t="s">
+    <row r="5" s="41" customFormat="1" spans="1:10">
+      <c r="A5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="52">
         <v>1.7</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="53">
         <v>2</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="26">
         <f t="shared" ref="E5:E10" si="1">E4*(1+$B$6/100)</f>
         <v>404.779938312995</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="31">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
         <v>0.7712693073</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="28">
         <f t="shared" si="0"/>
         <v>312.1943426316</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="56">
         <f>J4*J10</f>
         <v>19555.4205532309</v>
       </c>
     </row>
-    <row r="6" s="19" customFormat="1" spans="1:10">
-      <c r="A6" s="27" t="s">
+    <row r="6" s="41" customFormat="1" spans="1:10">
+      <c r="A6" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="52">
         <v>30</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="53">
         <v>3</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="26">
         <f t="shared" si="1"/>
         <v>526.213919806893</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="31">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
         <v>0.7843808855241</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="28">
         <f t="shared" si="0"/>
         <v>412.752140393238</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="56">
         <f>J3/100*J4*J10</f>
         <v>-232.188</v>
       </c>
     </row>
-    <row r="7" s="19" customFormat="1" spans="1:10">
-      <c r="A7" s="27" t="s">
+    <row r="7" s="41" customFormat="1" spans="1:10">
+      <c r="A7" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="52">
         <v>10</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="53">
         <v>4</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="26">
         <f t="shared" si="1"/>
         <v>684.078095748961</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="31">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
         <v>0.797715360578009</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="28">
         <f t="shared" si="0"/>
         <v>545.6996048139</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="57">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
         <v>13.3066329124783</v>
       </c>
     </row>
-    <row r="8" s="19" customFormat="1" spans="1:7">
-      <c r="A8" s="27" t="s">
+    <row r="8" s="41" customFormat="1" spans="1:7">
+      <c r="A8" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="52">
         <f>B3*$B$9/100</f>
         <v>232.188</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="53">
         <v>5</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="26">
         <f t="shared" si="1"/>
         <v>889.301524473649</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="31">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
         <v>0.811276521707835</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="28">
         <f t="shared" si="0"/>
         <v>721.469447524458</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="1" spans="1:10">
-      <c r="A9" s="27" t="s">
+    <row r="9" s="41" customFormat="1" spans="1:10">
+      <c r="A9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="50">
         <v>10</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="53">
         <v>6</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="26">
         <f t="shared" si="1"/>
         <v>1156.09198181574</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="31">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
         <v>0.825068222576869</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="28">
         <f t="shared" si="0"/>
         <v>953.854756572085</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" s="19" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="27" t="s">
+    <row r="10" s="41" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="50">
         <v>10</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="53">
         <v>7</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="26">
         <f t="shared" si="1"/>
         <v>1502.91957636047</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="31">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
         <v>0.839094382360675</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="28">
         <f t="shared" ref="G10:G16" si="2">E10*F10</f>
         <v>1261.09137366395</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="58">
         <f>G18/E18</f>
         <v>0.834895456200326</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="59">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.844927561628351</v>
       </c>
     </row>
-    <row r="11" s="19" customFormat="1" spans="1:7">
-      <c r="A11" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="33">
+    <row r="11" s="41" customFormat="1" spans="1:7">
+      <c r="A11" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="52">
         <f>B8*0.7/100</f>
         <v>1.625316</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="53">
         <v>8</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="32">
+      <c r="E11" s="26"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="19" customFormat="1" spans="4:7">
-      <c r="D12" s="34">
+    <row r="12" s="41" customFormat="1" spans="4:7">
+      <c r="D12" s="53">
         <v>9</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="32">
+      <c r="E12" s="26"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="19" customFormat="1" spans="4:10">
-      <c r="D13" s="34">
+    <row r="13" s="41" customFormat="1" spans="4:10">
+      <c r="D13" s="53">
         <v>10</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="32">
+      <c r="E13" s="26"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I13" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="45"/>
-    </row>
-    <row r="14" s="19" customFormat="1" spans="4:9">
-      <c r="D14" s="34">
+      <c r="I13" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="60"/>
+    </row>
+    <row r="14" s="41" customFormat="1" spans="4:9">
+      <c r="D14" s="53">
         <v>11</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="32"/>
-      <c r="I14" s="46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" s="19" customFormat="1" spans="4:9">
-      <c r="D15" s="34">
+      <c r="E14" s="26"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="28"/>
+      <c r="I14" s="61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" s="41" customFormat="1" spans="4:9">
+      <c r="D15" s="53">
         <v>12</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="32"/>
-      <c r="I15" s="42">
+      <c r="E15" s="26"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="28"/>
+      <c r="I15" s="57">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
         <v>0.844927561628351</v>
       </c>
     </row>
-    <row r="16" s="19" customFormat="1" spans="4:9">
-      <c r="D16" s="34">
+    <row r="16" s="41" customFormat="1" spans="4:9">
+      <c r="D16" s="53">
         <v>13</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="32"/>
-      <c r="I16" s="47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" s="19" customFormat="1" ht="18.15" spans="4:10">
-      <c r="D17" s="36" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="28"/>
+      <c r="I16" s="62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" s="41" customFormat="1" ht="18.15" spans="4:10">
+      <c r="D17" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="33">
         <f>SUM(E3:E16)*3</f>
         <v>17358.3702094623</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="34">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
         <v>0.843849250527386</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="35">
         <f t="shared" si="0"/>
         <v>14647.8476916316</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="57">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
         <v>1.20160019479336</v>
       </c>
-      <c r="J17" s="43" t="str">
+      <c r="J17" s="58" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
         <v>TIENE QUE BAJAR</v>
       </c>
     </row>
-    <row r="18" s="19" customFormat="1" spans="4:9">
-      <c r="D18" s="40"/>
-      <c r="E18" s="40">
+    <row r="18" s="41" customFormat="1" spans="4:9">
+      <c r="D18" s="55"/>
+      <c r="E18" s="36">
         <f>SUM(E3:E17)</f>
         <v>23144.4936126163</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40">
+      <c r="F18" s="36"/>
+      <c r="G18" s="36">
         <f>SUM(G3:G17)</f>
         <v>19323.2325532309</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="47" t="s">
+      <c r="H18" s="55"/>
+      <c r="I18" s="62" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" s="19" customFormat="1" spans="9:9">
-      <c r="I19" s="48">
+    <row r="19" s="41" customFormat="1" spans="9:9">
+      <c r="I19" s="63">
         <f>G18/B3</f>
         <v>8.32223566817875</v>
       </c>
     </row>
-    <row r="20" s="19" customFormat="1"/>
-    <row r="21" s="19" customFormat="1"/>
-    <row r="22" s="19" customFormat="1" spans="16376:16384">
-      <c r="XEV22" s="20"/>
-      <c r="XEW22" s="20"/>
-      <c r="XEX22" s="20"/>
-      <c r="XEY22" s="20"/>
-      <c r="XEZ22" s="20"/>
-      <c r="XFA22" s="20"/>
-      <c r="XFB22" s="20"/>
-      <c r="XFC22" s="20"/>
-      <c r="XFD22" s="20"/>
-    </row>
-    <row r="23" s="19" customFormat="1" spans="16376:16384">
-      <c r="XEV23" s="20"/>
-      <c r="XEW23" s="20"/>
-      <c r="XEX23" s="20"/>
-      <c r="XEY23" s="20"/>
-      <c r="XEZ23" s="20"/>
-      <c r="XFA23" s="20"/>
-      <c r="XFB23" s="20"/>
-      <c r="XFC23" s="20"/>
-      <c r="XFD23" s="20"/>
-    </row>
-    <row r="24" s="19" customFormat="1" spans="16376:16384">
-      <c r="XEV24" s="20"/>
-      <c r="XEW24" s="20"/>
-      <c r="XEX24" s="20"/>
-      <c r="XEY24" s="20"/>
-      <c r="XEZ24" s="20"/>
-      <c r="XFA24" s="20"/>
-      <c r="XFB24" s="20"/>
-      <c r="XFC24" s="20"/>
-      <c r="XFD24" s="20"/>
+    <row r="20" s="41" customFormat="1"/>
+    <row r="21" s="41" customFormat="1"/>
+    <row r="22" s="41" customFormat="1" spans="16376:16384">
+      <c r="XEV22" s="42"/>
+      <c r="XEW22" s="42"/>
+      <c r="XEX22" s="42"/>
+      <c r="XEY22" s="42"/>
+      <c r="XEZ22" s="42"/>
+      <c r="XFA22" s="42"/>
+      <c r="XFB22" s="42"/>
+      <c r="XFC22" s="42"/>
+      <c r="XFD22" s="42"/>
+    </row>
+    <row r="23" s="41" customFormat="1" spans="16376:16384">
+      <c r="XEV23" s="42"/>
+      <c r="XEW23" s="42"/>
+      <c r="XEX23" s="42"/>
+      <c r="XEY23" s="42"/>
+      <c r="XEZ23" s="42"/>
+      <c r="XFA23" s="42"/>
+      <c r="XFB23" s="42"/>
+      <c r="XFC23" s="42"/>
+      <c r="XFD23" s="42"/>
+    </row>
+    <row r="24" s="41" customFormat="1" spans="16376:16384">
+      <c r="XEV24" s="42"/>
+      <c r="XEW24" s="42"/>
+      <c r="XEX24" s="42"/>
+      <c r="XEY24" s="42"/>
+      <c r="XEZ24" s="42"/>
+      <c r="XFA24" s="42"/>
+      <c r="XFB24" s="42"/>
+      <c r="XFC24" s="42"/>
+      <c r="XFD24" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3006,218 +3981,755 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:XFD27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="15" customWidth="1"/>
+    <col min="3" max="3" width="4.55555555555556" style="15" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="15" customWidth="1"/>
+    <col min="5" max="5" width="21.5555555555556" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="15" customWidth="1"/>
+    <col min="8" max="8" width="1.66666666666667" style="15" customWidth="1"/>
+    <col min="9" max="9" width="32.8888888888889" style="15" customWidth="1"/>
+    <col min="10" max="10" width="31.2222222222222" style="15" customWidth="1"/>
+    <col min="11" max="11" width="8.44444444444444" style="15" customWidth="1"/>
+    <col min="12" max="12" width="31.2222222222222" style="15" customWidth="1"/>
+    <col min="13" max="16374" width="8.44444444444444" style="15" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="15"/>
+    <col min="16376" max="16384" width="8.44444444444444" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="15" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" s="15" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="15" customFormat="1" spans="1:10">
+      <c r="A3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="24">
+        <v>2246</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="26">
+        <f>G3/F3</f>
+        <v>2022.89947423528</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0.088823</v>
+      </c>
+      <c r="G3" s="28">
+        <f>B8</f>
+        <v>179.68</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="38">
+        <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
+        <v>-2.53407662260912</v>
+      </c>
+    </row>
+    <row r="4" s="15" customFormat="1" spans="1:10">
+      <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="29">
+        <f>-B3*$B$10/100</f>
+        <v>-291.98</v>
+      </c>
+      <c r="D4" s="30">
+        <v>1</v>
+      </c>
+      <c r="E4" s="26">
+        <f>E3</f>
+        <v>2022.89947423528</v>
+      </c>
+      <c r="F4" s="31">
+        <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
+        <v>0.087313009</v>
+      </c>
+      <c r="G4" s="28">
+        <f t="shared" ref="G4:G13" si="0">E4*F4</f>
+        <v>176.62544</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="38">
+        <f>E18</f>
+        <v>150364.860971595</v>
+      </c>
+    </row>
+    <row r="5" s="15" customFormat="1" spans="1:10">
+      <c r="A5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="24">
+        <v>1.7</v>
+      </c>
+      <c r="D5" s="30">
+        <v>2</v>
+      </c>
+      <c r="E5" s="26">
+        <f>E4*(1+$B$6/100)</f>
+        <v>2629.76931650586</v>
+      </c>
+      <c r="F5" s="31">
+        <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
+        <v>0.085828687847</v>
+      </c>
+      <c r="G5" s="28">
+        <f t="shared" si="0"/>
+        <v>225.709649776</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="38">
+        <f>J4*J10</f>
+        <v>11522.1456760599</v>
+      </c>
+    </row>
+    <row r="6" s="15" customFormat="1" spans="1:10">
+      <c r="A6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="29">
+        <v>30</v>
+      </c>
+      <c r="D6" s="30">
+        <v>3</v>
+      </c>
+      <c r="E6" s="26">
+        <f>E5*(1+$B$6/100)</f>
+        <v>3418.70011145762</v>
+      </c>
+      <c r="F6" s="31">
+        <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
+        <v>0.084369600153601</v>
+      </c>
+      <c r="G6" s="28">
+        <f t="shared" si="0"/>
+        <v>288.43436144875</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="38">
+        <f>J3/100*J4*J10</f>
+        <v>-291.98</v>
+      </c>
+    </row>
+    <row r="7" s="15" customFormat="1" spans="1:10">
+      <c r="A7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="29">
+        <v>10</v>
+      </c>
+      <c r="D7" s="30">
+        <v>4</v>
+      </c>
+      <c r="E7" s="26">
+        <f>E6*(1+$B$6/100)</f>
+        <v>4444.3101448949</v>
+      </c>
+      <c r="F7" s="31">
+        <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
+        <v>0.0829353169509898</v>
+      </c>
+      <c r="G7" s="28">
+        <f t="shared" si="0"/>
+        <v>368.590270495358</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="29">
+        <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
+        <v>13.7296485459302</v>
+      </c>
+    </row>
+    <row r="8" s="15" customFormat="1" spans="1:7">
+      <c r="A8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="29">
+        <f>B3*$B$9/100</f>
+        <v>179.68</v>
+      </c>
+      <c r="D8" s="30">
+        <v>5</v>
+      </c>
+      <c r="E8" s="26">
+        <f>E7*(1+$B$6/100)</f>
+        <v>5777.60318836338</v>
+      </c>
+      <c r="F8" s="31">
+        <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
+        <v>0.081525416562823</v>
+      </c>
+      <c r="G8" s="28">
+        <f t="shared" si="0"/>
+        <v>471.021506666018</v>
+      </c>
+    </row>
+    <row r="9" s="15" customFormat="1" spans="1:10">
+      <c r="A9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="24">
+        <v>8</v>
+      </c>
+      <c r="D9" s="30">
+        <v>6</v>
+      </c>
+      <c r="E9" s="26">
+        <f>E8*(1+$B$6/100)</f>
+        <v>7510.88414487239</v>
+      </c>
+      <c r="F9" s="31">
+        <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
+        <v>0.080139484481255</v>
+      </c>
+      <c r="G9" s="28">
+        <f t="shared" si="0"/>
+        <v>601.918383368505</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" s="15" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="24">
+        <v>13</v>
+      </c>
+      <c r="D10" s="30">
+        <v>7</v>
+      </c>
+      <c r="E10" s="26">
+        <f>E9*(1+$B$6/100)</f>
+        <v>9764.14938833411</v>
+      </c>
+      <c r="F10" s="31">
+        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
+        <v>0.0787771132450736</v>
+      </c>
+      <c r="G10" s="28">
+        <f t="shared" si="0"/>
+        <v>769.191502106612</v>
+      </c>
+      <c r="I10" s="39">
+        <f>G18/E18</f>
+        <v>0.0785697243340093</v>
+      </c>
+      <c r="J10" s="40">
+        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
+        <v>0.0766279142720484</v>
+      </c>
+    </row>
+    <row r="11" s="15" customFormat="1" spans="1:7">
+      <c r="A11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="29">
+        <f>B8*1.15/100</f>
+        <v>2.06632</v>
+      </c>
+      <c r="D11" s="30">
+        <v>8</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="28">
+        <f>E11*F11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="15" customFormat="1" spans="4:7">
+      <c r="D12" s="30">
+        <v>9</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="28">
+        <f>E12*F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="15" customFormat="1" spans="4:7">
+      <c r="D13" s="30">
+        <v>10</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="28">
+        <f>E13*F13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="15" customFormat="1" spans="4:7">
+      <c r="D14" s="30">
+        <v>11</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="28">
+        <f>E14*F14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="15" customFormat="1" spans="4:7">
+      <c r="D15" s="30">
+        <v>12</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="28">
+        <f>E15*F15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="15" customFormat="1" spans="4:7">
+      <c r="D16" s="30">
+        <v>13</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="28">
+        <f>E16*F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="15" customFormat="1" ht="18.15" spans="4:7">
+      <c r="D17" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="33">
+        <f>SUM(E3:E16)*3</f>
+        <v>112773.645728696</v>
+      </c>
+      <c r="F17" s="34">
+        <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5)/100),MAX(F3:F16)*(1+($B$5)/100))</f>
+        <v>0.0774379023199074</v>
+      </c>
+      <c r="G17" s="35">
+        <f>E17*F17</f>
+        <v>8732.95456219863</v>
+      </c>
+    </row>
+    <row r="18" s="15" customFormat="1" spans="4:8">
+      <c r="D18" s="36"/>
+      <c r="E18" s="36">
+        <f>SUM(E3:E17)</f>
+        <v>150364.860971595</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36">
+        <f>SUM(G3:G17)</f>
+        <v>11814.1256760599</v>
+      </c>
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" s="15" customFormat="1" spans="4:6">
+      <c r="D19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37">
+        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
+        <v>0.0766279142720484</v>
+      </c>
+    </row>
+    <row r="20" s="15" customFormat="1"/>
+    <row r="21" s="15" customFormat="1" spans="4:6">
+      <c r="D21" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37">
+        <f>G18/E18</f>
+        <v>0.0785697243340093</v>
+      </c>
+    </row>
+    <row r="22" s="15" customFormat="1" spans="16376:16384">
+      <c r="XEV22" s="16"/>
+      <c r="XEW22" s="16"/>
+      <c r="XEX22" s="16"/>
+      <c r="XEY22" s="16"/>
+      <c r="XEZ22" s="16"/>
+      <c r="XFA22" s="16"/>
+      <c r="XFB22" s="16"/>
+      <c r="XFC22" s="16"/>
+      <c r="XFD22" s="16"/>
+    </row>
+    <row r="23" s="15" customFormat="1" spans="4:16384">
+      <c r="D23" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37">
+        <f>IF($B$1="BUY",(($F$17/$F$19)-1)*100,(($F$19/$F$17)-1)*100)</f>
+        <v>1.05704044740575</v>
+      </c>
+      <c r="XEV23" s="16"/>
+      <c r="XEW23" s="16"/>
+      <c r="XEX23" s="16"/>
+      <c r="XEY23" s="16"/>
+      <c r="XEZ23" s="16"/>
+      <c r="XFA23" s="16"/>
+      <c r="XFB23" s="16"/>
+      <c r="XFC23" s="16"/>
+      <c r="XFD23" s="16"/>
+    </row>
+    <row r="24" s="15" customFormat="1" spans="16376:16384">
+      <c r="XEV24" s="16"/>
+      <c r="XEW24" s="16"/>
+      <c r="XEX24" s="16"/>
+      <c r="XEY24" s="16"/>
+      <c r="XEZ24" s="16"/>
+      <c r="XFA24" s="16"/>
+      <c r="XFB24" s="16"/>
+      <c r="XFC24" s="16"/>
+      <c r="XFD24" s="16"/>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37">
+        <f>IF($B$1="BUY",(($F$21/$F$19)-1)*100,(($F$19/$F$21)-1)*100)</f>
+        <v>2.53407662260912</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37">
+        <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
+        <v>13.7296485459302</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>$B$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="lessThan">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>$J$6&gt;=$B$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>IF(AND($J$10&lt;=$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>IF(AND($J$10&gt;$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="14">
+      <formula>IF(AND($J$10&gt;=$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="15">
+      <formula>IF(AND($J$10&lt;$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="4" priority="13">
+      <formula>$G$18&gt;$B$3*$B$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
+      <formula>$B$3*$B$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="lessThan">
+      <formula>$B$3*10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="lessThan">
+      <formula>#REF!*#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="greaterThan">
+      <formula>#REF!*#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D16">
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="lessThan">
+      <formula>#REF!+1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="LONG/SHORT" sqref="B1">
+      <formula1>"BUY,SELL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.5555555555556" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="6"/>
-    <col min="4" max="4" width="9" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.5555555555556" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.1111111111111" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.2222222222222" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10.2222222222222" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.7777777777778" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.88888888888889" style="6"/>
+    <col min="1" max="1" width="13" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5555555555556" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="2"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5555555555556" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.1111111111111" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.2222222222222" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.2222222222222" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.7777777777778" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="A2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="J2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="7">
         <v>1546</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="C3" s="3"/>
+      <c r="D3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="7">
         <v>3179</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="7">
         <v>1.0896</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="9">
         <f t="shared" ref="G3:G6" si="0">E3/F3</f>
         <v>2917.58443465492</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="10">
         <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
         <v>-5.11175770400742</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="10">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
         <v>1.0896</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="10">
         <f>IF(A2="BUY",((B5/SUM(E3:E4))+1)*I3,((B5/-SUM(E3:E4))+1)*I3)</f>
         <v>1.0366109594212</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="12">
         <f>H3/100*SUM(G3:G4)*J3</f>
         <v>-154.600000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="C4" s="3"/>
+      <c r="D4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="7">
         <v>0</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="7">
         <v>1.0817</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="17"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="9">
         <f>-B3*B4/100</f>
         <v>-154.6</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="3:11">
-      <c r="C6" s="7"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9">
         <f>IF(A2="BUY",((F3/J6)-1)*-100,((F3/J6)-1)*100)</f>
         <v>2.89635504856967</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="11">
+      <c r="I6" s="9"/>
+      <c r="J6" s="7">
         <v>1.1221</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="14">
         <f>H6/100*SUM(G3:G4)*J6</f>
         <v>94.8214941262855</v>
       </c>
     </row>
     <row r="7" spans="3:11">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="3:11">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="3:10">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="6">
+      <c r="E14" s="2">
         <v>87.36</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="2">
         <f>E14*0.7/100</f>
         <v>0.61152</v>
       </c>
@@ -3262,98 +4774,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:E7"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
-  <cols>
-    <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="12.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="22.4444444444444" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5">
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -3377,895 +4797,895 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
         <v>100</v>
       </c>
-      <c r="B35" t="s">
-        <v>104</v>
-      </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -14,9 +14,6 @@
     <sheet name="CALCULADORA" sheetId="9" r:id="rId5"/>
     <sheet name="ESTRUCTURA" sheetId="12" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ESTRUCTURA!$A$1:$G$40</definedName>
   </definedNames>
@@ -144,19 +141,19 @@
     <t>margen ratio</t>
   </si>
   <si>
+    <t>primer tp</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>distancia entre ataque y stop</t>
+  </si>
+  <si>
+    <t>distancia entre posición y stop</t>
+  </si>
+  <si>
     <t>BUY</t>
-  </si>
-  <si>
-    <t>primer tp</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>distancia entre ataque y stop</t>
-  </si>
-  <si>
-    <t>distancia entre posición y stop</t>
   </si>
   <si>
     <t>Size</t>
@@ -350,12 +347,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.000000"/>
-    <numFmt numFmtId="178" formatCode="0.00000"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -422,10 +419,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,24 +457,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,46 +495,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -529,11 +519,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,8 +533,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,6 +551,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,7 +602,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,97 +662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,13 +680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,25 +698,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +722,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,6 +1021,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1032,16 +1040,49 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,74 +1102,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1140,247 +1137,244 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1450,13 +1444,13 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1777,37 +1771,37 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.088823</c:v>
+                  <c:v>1.7713</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.087313009</c:v>
+                  <c:v>1.8014121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.085828687847</c:v>
+                  <c:v>1.8320361057</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.084369600153601</c:v>
+                  <c:v>1.8631807194969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0829353169509898</c:v>
+                  <c:v>1.89485479172835</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.081525416562823</c:v>
+                  <c:v>1.92706732318773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.080139484481255</c:v>
+                  <c:v>1.95982746768192</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0787771132450736</c:v>
+                  <c:v>1.99314453463251</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0774379023199074</c:v>
+                  <c:v>2.02702799172126</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0766279142720484</c:v>
+                  <c:v>2.03883573099537</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0785697243340093</c:v>
+                  <c:v>2.00011233544747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2553,19 +2547,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="#REF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2861,79 +2842,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="67" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="67" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="68" customWidth="1"/>
-    <col min="4" max="4" width="21.8888888888889" style="42" customWidth="1"/>
-    <col min="5" max="5" width="17.1111111111111" style="42" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="42"/>
+    <col min="1" max="1" width="20.5740740740741" style="66" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="66" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="67" customWidth="1"/>
+    <col min="4" max="4" width="21.8888888888889" style="41" customWidth="1"/>
+    <col min="5" max="5" width="17.1111111111111" style="41" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="71">
+      <c r="D2" s="70">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>7390.91790332117</v>
       </c>
-      <c r="E2" s="71">
+      <c r="E2" s="70">
         <f>D2-A2</f>
         <v>4441.91790332117</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
     </row>
     <row r="4" ht="19.5" customHeight="1"/>
     <row r="5" ht="19.5" customHeight="1"/>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="73"/>
+      <c r="B7" s="72"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="73" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="74">
+      <c r="B9" s="73">
         <f>A9*100/A2</f>
         <v>3.1197015937606</v>
       </c>
@@ -3022,7 +3003,7 @@
       <c r="I3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="37">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
         <v>-1.18733319678793</v>
       </c>
@@ -3053,7 +3034,7 @@
       <c r="I4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="37">
         <f>E18</f>
         <v>23144.4936126163</v>
       </c>
@@ -3083,7 +3064,7 @@
       <c r="I5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="37">
         <f>J4*J10</f>
         <v>19555.4205532309</v>
       </c>
@@ -3113,7 +3094,7 @@
       <c r="I6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <f>J3/100*J4*J10</f>
         <v>-232.188</v>
       </c>
@@ -3223,11 +3204,11 @@
         <f t="shared" si="0"/>
         <v>1261.09137366395</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="38">
         <f>G18/E18</f>
         <v>0.834895456200326</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="39">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.844927561628351</v>
       </c>
@@ -3271,10 +3252,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="64" t="s">
+      <c r="I13" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="64"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" s="15" customFormat="1" spans="4:9">
       <c r="D14" s="30">
@@ -3283,7 +3264,7 @@
       <c r="E14" s="26"/>
       <c r="F14" s="31"/>
       <c r="G14" s="28"/>
-      <c r="I14" s="65" t="s">
+      <c r="I14" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3306,7 +3287,7 @@
       <c r="E16" s="26"/>
       <c r="F16" s="31"/>
       <c r="G16" s="28"/>
-      <c r="I16" s="66" t="s">
+      <c r="I16" s="65" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3330,7 +3311,7 @@
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
         <v>1.20160019479336</v>
       </c>
-      <c r="J17" s="39" t="str">
+      <c r="J17" s="38" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
         <v>TIENE QUE BAJAR</v>
       </c>
@@ -3347,12 +3328,12 @@
         <v>19323.2325532309</v>
       </c>
       <c r="H18" s="36"/>
-      <c r="I18" s="66" t="s">
+      <c r="I18" s="65" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" s="15" customFormat="1" spans="9:9">
-      <c r="I19" s="38">
+      <c r="I19" s="37">
         <f>G18/B3</f>
         <v>8.32223566817875</v>
       </c>
@@ -3474,53 +3455,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22" style="41" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="41" customWidth="1"/>
-    <col min="3" max="3" width="4.55555555555556" style="41" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="41" customWidth="1"/>
-    <col min="5" max="5" width="18.5555555555556" style="41" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="41" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="41" customWidth="1"/>
-    <col min="8" max="8" width="1.66666666666667" style="41" customWidth="1"/>
-    <col min="9" max="9" width="32.8888888888889" style="41" customWidth="1"/>
-    <col min="10" max="10" width="31.2222222222222" style="41" customWidth="1"/>
-    <col min="11" max="11" width="8.44444444444444" style="41" customWidth="1"/>
-    <col min="12" max="12" width="31.2222222222222" style="41" customWidth="1"/>
-    <col min="13" max="16374" width="8.44444444444444" style="41" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="41"/>
-    <col min="16376" max="16384" width="8.44444444444444" style="42"/>
+    <col min="1" max="1" width="22" style="40" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="40" customWidth="1"/>
+    <col min="3" max="3" width="4.55555555555556" style="40" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="40" customWidth="1"/>
+    <col min="5" max="5" width="18.5555555555556" style="40" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="40" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="40" customWidth="1"/>
+    <col min="8" max="8" width="1.66666666666667" style="40" customWidth="1"/>
+    <col min="9" max="9" width="32.8888888888889" style="40" customWidth="1"/>
+    <col min="10" max="10" width="31.2222222222222" style="40" customWidth="1"/>
+    <col min="11" max="11" width="8.44444444444444" style="40" customWidth="1"/>
+    <col min="12" max="12" width="31.2222222222222" style="40" customWidth="1"/>
+    <col min="13" max="16374" width="8.44444444444444" style="40" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="40"/>
+    <col min="16376" max="16384" width="8.44444444444444" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="43" t="s">
+    <row r="1" s="40" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="41" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="45" t="s">
+    <row r="2" s="40" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="47" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="41" customFormat="1" spans="1:10">
-      <c r="A3" s="49" t="s">
+    <row r="3" s="40" customFormat="1" spans="1:10">
+      <c r="A3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="49">
         <v>2321.88</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="26">
@@ -3534,23 +3515,23 @@
         <f>B8</f>
         <v>232.188</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="55">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
         <v>-1.18733319678793</v>
       </c>
     </row>
-    <row r="4" s="41" customFormat="1" spans="1:10">
-      <c r="A4" s="49" t="s">
+    <row r="4" s="40" customFormat="1" spans="1:10">
+      <c r="A4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="51">
         <f>-B3*$B$10/100</f>
         <v>-232.188</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="52">
         <v>1</v>
       </c>
       <c r="E4" s="26">
@@ -3565,22 +3546,22 @@
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
         <v>236.135196</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="55">
         <f>E18</f>
         <v>23144.4936126163</v>
       </c>
     </row>
-    <row r="5" s="41" customFormat="1" spans="1:10">
-      <c r="A5" s="49" t="s">
+    <row r="5" s="40" customFormat="1" spans="1:10">
+      <c r="A5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="51">
         <v>1.7</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="52">
         <v>2</v>
       </c>
       <c r="E5" s="26">
@@ -3595,22 +3576,22 @@
         <f t="shared" si="0"/>
         <v>312.1943426316</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="55">
         <f>J4*J10</f>
         <v>19555.4205532309</v>
       </c>
     </row>
-    <row r="6" s="41" customFormat="1" spans="1:10">
-      <c r="A6" s="49" t="s">
+    <row r="6" s="40" customFormat="1" spans="1:10">
+      <c r="A6" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="51">
         <v>30</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="52">
         <v>3</v>
       </c>
       <c r="E6" s="26">
@@ -3625,22 +3606,22 @@
         <f t="shared" si="0"/>
         <v>412.752140393238</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="56">
+      <c r="J6" s="55">
         <f>J3/100*J4*J10</f>
         <v>-232.188</v>
       </c>
     </row>
-    <row r="7" s="41" customFormat="1" spans="1:10">
-      <c r="A7" s="49" t="s">
+    <row r="7" s="40" customFormat="1" spans="1:10">
+      <c r="A7" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="51">
         <v>10</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="52">
         <v>4</v>
       </c>
       <c r="E7" s="26">
@@ -3655,23 +3636,23 @@
         <f t="shared" si="0"/>
         <v>545.6996048139</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="56">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
         <v>13.3066329124783</v>
       </c>
     </row>
-    <row r="8" s="41" customFormat="1" spans="1:7">
-      <c r="A8" s="49" t="s">
+    <row r="8" s="40" customFormat="1" spans="1:7">
+      <c r="A8" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="51">
         <f>B3*$B$9/100</f>
         <v>232.188</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="52">
         <v>5</v>
       </c>
       <c r="E8" s="26">
@@ -3687,14 +3668,14 @@
         <v>721.469447524458</v>
       </c>
     </row>
-    <row r="9" s="41" customFormat="1" spans="1:10">
-      <c r="A9" s="49" t="s">
+    <row r="9" s="40" customFormat="1" spans="1:10">
+      <c r="A9" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="49">
         <v>10</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="52">
         <v>6</v>
       </c>
       <c r="E9" s="26">
@@ -3709,21 +3690,21 @@
         <f t="shared" si="0"/>
         <v>953.854756572085</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" s="41" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="49" t="s">
+    <row r="10" s="40" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="49">
         <v>10</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="52">
         <v>7</v>
       </c>
       <c r="E10" s="26">
@@ -3738,24 +3719,24 @@
         <f t="shared" ref="G10:G16" si="2">E10*F10</f>
         <v>1261.09137366395</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="57">
         <f>G18/E18</f>
         <v>0.834895456200326</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="58">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.844927561628351</v>
       </c>
     </row>
-    <row r="11" s="41" customFormat="1" spans="1:7">
-      <c r="A11" s="49" t="s">
+    <row r="11" s="40" customFormat="1" spans="1:7">
+      <c r="A11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="51">
         <f>B8*0.7/100</f>
         <v>1.625316</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="52">
         <v>8</v>
       </c>
       <c r="E11" s="26"/>
@@ -3765,8 +3746,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="41" customFormat="1" spans="4:7">
-      <c r="D12" s="53">
+    <row r="12" s="40" customFormat="1" spans="4:7">
+      <c r="D12" s="52">
         <v>9</v>
       </c>
       <c r="E12" s="26"/>
@@ -3776,8 +3757,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="41" customFormat="1" spans="4:10">
-      <c r="D13" s="53">
+    <row r="13" s="40" customFormat="1" spans="4:10">
+      <c r="D13" s="52">
         <v>10</v>
       </c>
       <c r="E13" s="26"/>
@@ -3786,47 +3767,47 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="60"/>
-    </row>
-    <row r="14" s="41" customFormat="1" spans="4:9">
-      <c r="D14" s="53">
+      <c r="J13" s="59"/>
+    </row>
+    <row r="14" s="40" customFormat="1" spans="4:9">
+      <c r="D14" s="52">
         <v>11</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="31"/>
       <c r="G14" s="28"/>
-      <c r="I14" s="61" t="s">
+      <c r="I14" s="60" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" s="41" customFormat="1" spans="4:9">
-      <c r="D15" s="53">
+    <row r="15" s="40" customFormat="1" spans="4:9">
+      <c r="D15" s="52">
         <v>12</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="31"/>
       <c r="G15" s="28"/>
-      <c r="I15" s="57">
+      <c r="I15" s="56">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
         <v>0.844927561628351</v>
       </c>
     </row>
-    <row r="16" s="41" customFormat="1" spans="4:9">
-      <c r="D16" s="53">
+    <row r="16" s="40" customFormat="1" spans="4:9">
+      <c r="D16" s="52">
         <v>13</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="31"/>
       <c r="G16" s="28"/>
-      <c r="I16" s="62" t="s">
+      <c r="I16" s="61" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" s="41" customFormat="1" ht="18.15" spans="4:10">
-      <c r="D17" s="54" t="s">
+    <row r="17" s="40" customFormat="1" ht="18.15" spans="4:10">
+      <c r="D17" s="53" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="33">
@@ -3841,17 +3822,17 @@
         <f t="shared" si="0"/>
         <v>14647.8476916316</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="56">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
         <v>1.20160019479336</v>
       </c>
-      <c r="J17" s="58" t="str">
+      <c r="J17" s="57" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
         <v>TIENE QUE BAJAR</v>
       </c>
     </row>
-    <row r="18" s="41" customFormat="1" spans="4:9">
-      <c r="D18" s="55"/>
+    <row r="18" s="40" customFormat="1" spans="4:9">
+      <c r="D18" s="54"/>
       <c r="E18" s="36">
         <f>SUM(E3:E17)</f>
         <v>23144.4936126163</v>
@@ -3861,51 +3842,51 @@
         <f>SUM(G3:G17)</f>
         <v>19323.2325532309</v>
       </c>
-      <c r="H18" s="55"/>
-      <c r="I18" s="62" t="s">
+      <c r="H18" s="54"/>
+      <c r="I18" s="61" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" s="41" customFormat="1" spans="9:9">
-      <c r="I19" s="63">
+    <row r="19" s="40" customFormat="1" spans="9:9">
+      <c r="I19" s="62">
         <f>G18/B3</f>
         <v>8.32223566817875</v>
       </c>
     </row>
-    <row r="20" s="41" customFormat="1"/>
-    <row r="21" s="41" customFormat="1"/>
-    <row r="22" s="41" customFormat="1" spans="16376:16384">
-      <c r="XEV22" s="42"/>
-      <c r="XEW22" s="42"/>
-      <c r="XEX22" s="42"/>
-      <c r="XEY22" s="42"/>
-      <c r="XEZ22" s="42"/>
-      <c r="XFA22" s="42"/>
-      <c r="XFB22" s="42"/>
-      <c r="XFC22" s="42"/>
-      <c r="XFD22" s="42"/>
-    </row>
-    <row r="23" s="41" customFormat="1" spans="16376:16384">
-      <c r="XEV23" s="42"/>
-      <c r="XEW23" s="42"/>
-      <c r="XEX23" s="42"/>
-      <c r="XEY23" s="42"/>
-      <c r="XEZ23" s="42"/>
-      <c r="XFA23" s="42"/>
-      <c r="XFB23" s="42"/>
-      <c r="XFC23" s="42"/>
-      <c r="XFD23" s="42"/>
-    </row>
-    <row r="24" s="41" customFormat="1" spans="16376:16384">
-      <c r="XEV24" s="42"/>
-      <c r="XEW24" s="42"/>
-      <c r="XEX24" s="42"/>
-      <c r="XEY24" s="42"/>
-      <c r="XEZ24" s="42"/>
-      <c r="XFA24" s="42"/>
-      <c r="XFB24" s="42"/>
-      <c r="XFC24" s="42"/>
-      <c r="XFD24" s="42"/>
+    <row r="20" s="40" customFormat="1"/>
+    <row r="21" s="40" customFormat="1"/>
+    <row r="22" s="40" customFormat="1" spans="16376:16384">
+      <c r="XEV22" s="41"/>
+      <c r="XEW22" s="41"/>
+      <c r="XEX22" s="41"/>
+      <c r="XEY22" s="41"/>
+      <c r="XEZ22" s="41"/>
+      <c r="XFA22" s="41"/>
+      <c r="XFB22" s="41"/>
+      <c r="XFC22" s="41"/>
+      <c r="XFD22" s="41"/>
+    </row>
+    <row r="23" s="40" customFormat="1" spans="16376:16384">
+      <c r="XEV23" s="41"/>
+      <c r="XEW23" s="41"/>
+      <c r="XEX23" s="41"/>
+      <c r="XEY23" s="41"/>
+      <c r="XEZ23" s="41"/>
+      <c r="XFA23" s="41"/>
+      <c r="XFB23" s="41"/>
+      <c r="XFC23" s="41"/>
+      <c r="XFD23" s="41"/>
+    </row>
+    <row r="24" s="40" customFormat="1" spans="16376:16384">
+      <c r="XEV24" s="41"/>
+      <c r="XEW24" s="41"/>
+      <c r="XEX24" s="41"/>
+      <c r="XEY24" s="41"/>
+      <c r="XEZ24" s="41"/>
+      <c r="XFA24" s="41"/>
+      <c r="XFB24" s="41"/>
+      <c r="XFC24" s="41"/>
+      <c r="XFD24" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3984,7 +3965,7 @@
   <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -4011,7 +3992,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" ht="15.15" spans="4:7">
@@ -4033,28 +4014,28 @@
         <v>17</v>
       </c>
       <c r="B3" s="24">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="26">
         <f>G3/F3</f>
-        <v>2022.89947423528</v>
+        <v>101.529949754418</v>
       </c>
       <c r="F3" s="27">
-        <v>0.088823</v>
+        <v>1.7713</v>
       </c>
       <c r="G3" s="28">
         <f>B8</f>
-        <v>179.68</v>
+        <v>179.84</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="37">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-2.53407662260912</v>
+        <v>-1.89928962687925</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:10">
@@ -4063,29 +4044,29 @@
       </c>
       <c r="B4" s="29">
         <f>-B3*$B$10/100</f>
-        <v>-291.98</v>
+        <v>-292.24</v>
       </c>
       <c r="D4" s="30">
         <v>1</v>
       </c>
       <c r="E4" s="26">
         <f>E3</f>
-        <v>2022.89947423528</v>
+        <v>101.529949754418</v>
       </c>
       <c r="F4" s="31">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.087313009</v>
+        <v>1.8014121</v>
       </c>
       <c r="G4" s="28">
-        <f t="shared" ref="G4:G13" si="0">E4*F4</f>
-        <v>176.62544</v>
+        <f t="shared" ref="G4:G17" si="0">E4*F4</f>
+        <v>182.89728</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="37">
         <f>E18</f>
-        <v>150364.860971595</v>
+        <v>7546.85883985773</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" spans="1:10">
@@ -4099,23 +4080,23 @@
         <v>2</v>
       </c>
       <c r="E5" s="26">
-        <f>E4*(1+$B$6/100)</f>
-        <v>2629.76931650586</v>
+        <f t="shared" ref="E5:E10" si="1">E4*(1+$B$6/100)</f>
+        <v>131.988934680743</v>
       </c>
       <c r="F5" s="31">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.085828687847</v>
+        <v>1.8320361057</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" si="0"/>
-        <v>225.709649776</v>
+        <v>241.808493888</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="37">
         <f>J4*J10</f>
-        <v>11522.1456760599</v>
+        <v>15386.8054594802</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" spans="1:10">
@@ -4129,23 +4110,23 @@
         <v>3</v>
       </c>
       <c r="E6" s="26">
-        <f>E5*(1+$B$6/100)</f>
-        <v>3418.70011145762</v>
+        <f t="shared" si="1"/>
+        <v>171.585615084966</v>
       </c>
       <c r="F6" s="31">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>0.084369600153601</v>
+        <v>1.8631807194969</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" si="0"/>
-        <v>288.43436144875</v>
+        <v>319.695009769325</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <f>J3/100*J4*J10</f>
-        <v>-291.98</v>
+        <v>-292.239999999999</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:10">
@@ -4159,23 +4140,23 @@
         <v>4</v>
       </c>
       <c r="E7" s="26">
-        <f>E6*(1+$B$6/100)</f>
-        <v>4444.3101448949</v>
+        <f t="shared" si="1"/>
+        <v>223.061299610456</v>
       </c>
       <c r="F7" s="31">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>0.0829353169509898</v>
+        <v>1.89485479172835</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" si="0"/>
-        <v>368.590270495358</v>
+        <v>422.668772416024</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="29">
         <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
-        <v>13.7296485459302</v>
+        <v>15.1039197761742</v>
       </c>
     </row>
     <row r="8" s="15" customFormat="1" spans="1:7">
@@ -4184,22 +4165,22 @@
       </c>
       <c r="B8" s="29">
         <f>B3*$B$9/100</f>
-        <v>179.68</v>
+        <v>179.84</v>
       </c>
       <c r="D8" s="30">
         <v>5</v>
       </c>
       <c r="E8" s="26">
-        <f>E7*(1+$B$6/100)</f>
-        <v>5777.60318836338</v>
+        <f t="shared" si="1"/>
+        <v>289.979689493592</v>
       </c>
       <c r="F8" s="31">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>0.081525416562823</v>
+        <v>1.92706732318773</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" si="0"/>
-        <v>471.021506666018</v>
+        <v>558.810384011226</v>
       </c>
     </row>
     <row r="9" s="15" customFormat="1" spans="1:10">
@@ -4213,16 +4194,16 @@
         <v>6</v>
       </c>
       <c r="E9" s="26">
-        <f>E8*(1+$B$6/100)</f>
-        <v>7510.88414487239</v>
+        <f t="shared" si="1"/>
+        <v>376.97359634167</v>
       </c>
       <c r="F9" s="31">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>0.080139484481255</v>
+        <v>1.95982746768192</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" si="0"/>
-        <v>601.918383368505</v>
+        <v>738.803208701241</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>30</v>
@@ -4242,33 +4223,33 @@
         <v>7</v>
       </c>
       <c r="E10" s="26">
-        <f>E9*(1+$B$6/100)</f>
-        <v>9764.14938833411</v>
+        <f t="shared" si="1"/>
+        <v>490.065675244171</v>
       </c>
       <c r="F10" s="31">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>0.0787771132450736</v>
+        <v>1.99314453463251</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" si="0"/>
-        <v>769.191502106612</v>
-      </c>
-      <c r="I10" s="39">
+        <v>976.771722223911</v>
+      </c>
+      <c r="I10" s="38">
         <f>G18/E18</f>
-        <v>0.0785697243340093</v>
-      </c>
-      <c r="J10" s="40">
+        <v>2.00011233544747</v>
+      </c>
+      <c r="J10" s="39">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.0766279142720484</v>
+        <v>2.03883573099537</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="1" spans="1:7">
       <c r="A11" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="29">
         <f>B8*1.15/100</f>
-        <v>2.06632</v>
+        <v>2.06816</v>
       </c>
       <c r="D11" s="30">
         <v>8</v>
@@ -4276,7 +4257,7 @@
       <c r="E11" s="26"/>
       <c r="F11" s="31"/>
       <c r="G11" s="28">
-        <f>E11*F11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4287,7 +4268,7 @@
       <c r="E12" s="26"/>
       <c r="F12" s="31"/>
       <c r="G12" s="28">
-        <f>E12*F12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4298,7 +4279,7 @@
       <c r="E13" s="26"/>
       <c r="F13" s="31"/>
       <c r="G13" s="28">
-        <f>E13*F13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4309,7 +4290,7 @@
       <c r="E14" s="26"/>
       <c r="F14" s="31"/>
       <c r="G14" s="28">
-        <f>E14*F14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4320,7 +4301,7 @@
       <c r="E15" s="26"/>
       <c r="F15" s="31"/>
       <c r="G15" s="28">
-        <f>E15*F15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4331,7 +4312,7 @@
       <c r="E16" s="26"/>
       <c r="F16" s="31"/>
       <c r="G16" s="28">
-        <f>E16*F16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4341,38 +4322,38 @@
       </c>
       <c r="E17" s="33">
         <f>SUM(E3:E16)*3</f>
-        <v>112773.645728696</v>
+        <v>5660.1441298933</v>
       </c>
       <c r="F17" s="34">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5)/100),MAX(F3:F16)*(1+($B$5)/100))</f>
-        <v>0.0774379023199074</v>
+        <v>2.02702799172126</v>
       </c>
       <c r="G17" s="35">
-        <f>E17*F17</f>
-        <v>8732.95456219863</v>
+        <f t="shared" si="0"/>
+        <v>11473.2705884705</v>
       </c>
     </row>
     <row r="18" s="15" customFormat="1" spans="4:8">
       <c r="D18" s="36"/>
       <c r="E18" s="36">
         <f>SUM(E3:E17)</f>
-        <v>150364.860971595</v>
+        <v>7546.85883985773</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36">
         <f>SUM(G3:G17)</f>
-        <v>11814.1256760599</v>
+        <v>15094.5654594802</v>
       </c>
       <c r="H18" s="36"/>
     </row>
     <row r="19" s="15" customFormat="1" spans="4:6">
       <c r="D19" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37">
+        <v>40</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.0766279142720484</v>
+        <v>2.03883573099537</v>
       </c>
     </row>
     <row r="20" s="15" customFormat="1"/>
@@ -4380,10 +4361,10 @@
       <c r="D21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37">
+      <c r="E21" s="29"/>
+      <c r="F21" s="29">
         <f>G18/E18</f>
-        <v>0.0785697243340093</v>
+        <v>2.00011233544747</v>
       </c>
     </row>
     <row r="22" s="15" customFormat="1" spans="16376:16384">
@@ -4399,12 +4380,12 @@
     </row>
     <row r="23" s="15" customFormat="1" spans="4:16384">
       <c r="D23" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37">
+        <v>41</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29">
         <f>IF($B$1="BUY",(($F$17/$F$19)-1)*100,(($F$19/$F$17)-1)*100)</f>
-        <v>1.05704044740575</v>
+        <v>0.582514860294725</v>
       </c>
       <c r="XEV23" s="16"/>
       <c r="XEW23" s="16"/>
@@ -4429,22 +4410,22 @@
     </row>
     <row r="25" spans="4:6">
       <c r="D25" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37">
+        <v>42</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29">
         <f>IF($B$1="BUY",(($F$21/$F$19)-1)*100,(($F$19/$F$21)-1)*100)</f>
-        <v>2.53407662260912</v>
+        <v>1.9360610332539</v>
       </c>
     </row>
     <row r="27" spans="4:6">
       <c r="D27" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37">
+      <c r="E27" s="29"/>
+      <c r="F27" s="29">
         <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
-        <v>13.7296485459302</v>
+        <v>15.1039197761742</v>
       </c>
     </row>
   </sheetData>
@@ -4554,7 +4535,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -4,25 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
     <sheet name="Grilla Master" sheetId="6" r:id="rId2"/>
-    <sheet name="Grilla bkup" sheetId="10" r:id="rId3"/>
-    <sheet name="Grilla Develop" sheetId="14" r:id="rId4"/>
-    <sheet name="CALCULADORA" sheetId="9" r:id="rId5"/>
-    <sheet name="ESTRUCTURA" sheetId="12" r:id="rId6"/>
+    <sheet name="Grilla Develop" sheetId="14" r:id="rId3"/>
+    <sheet name="CALCULADORA" sheetId="9" r:id="rId4"/>
+    <sheet name="ESTRUCTURA" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ESTRUCTURA!$A$1:$G$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ESTRUCTURA!$A$1:$G$40</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="106">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -348,11 +347,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000000"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -419,17 +418,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,13 +442,57 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -465,38 +508,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -512,17 +525,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -536,28 +557,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,13 +595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,7 +607,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +661,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,25 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,25 +733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,19 +745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,13 +757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,25 +769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,20 +1020,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,21 +1053,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,17 +1075,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,10 +1118,10 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1137,171 +1136,171 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1377,73 +1376,6 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1457,6 +1389,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2842,79 +2775,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="66" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="66" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="67" customWidth="1"/>
-    <col min="4" max="4" width="21.8888888888889" style="41" customWidth="1"/>
-    <col min="5" max="5" width="17.1111111111111" style="41" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="41"/>
+    <col min="1" max="1" width="20.5740740740741" style="43" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="43" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="44" customWidth="1"/>
+    <col min="4" max="4" width="21.8888888888889" style="45" customWidth="1"/>
+    <col min="5" max="5" width="17.1111111111111" style="45" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="48">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>7390.91790332117</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="48">
         <f>D2-A2</f>
         <v>4441.91790332117</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
     </row>
     <row r="4" ht="19.5" customHeight="1"/>
     <row r="5" ht="19.5" customHeight="1"/>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="72"/>
+      <c r="B7" s="50"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="51" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="73">
+      <c r="B9" s="51">
         <f>A9*100/A2</f>
         <v>3.1197015937606</v>
       </c>
@@ -2935,7 +2868,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:J19"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -3252,10 +3185,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="63"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" s="15" customFormat="1" spans="4:9">
       <c r="D14" s="30">
@@ -3264,7 +3197,7 @@
       <c r="E14" s="26"/>
       <c r="F14" s="31"/>
       <c r="G14" s="28"/>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3287,7 +3220,7 @@
       <c r="E16" s="26"/>
       <c r="F16" s="31"/>
       <c r="G16" s="28"/>
-      <c r="I16" s="65" t="s">
+      <c r="I16" s="42" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3328,7 +3261,7 @@
         <v>19323.2325532309</v>
       </c>
       <c r="H18" s="36"/>
-      <c r="I18" s="65" t="s">
+      <c r="I18" s="42" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3447,521 +3380,6 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD24"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="22" style="40" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="40" customWidth="1"/>
-    <col min="3" max="3" width="4.55555555555556" style="40" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="40" customWidth="1"/>
-    <col min="5" max="5" width="18.5555555555556" style="40" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="40" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="40" customWidth="1"/>
-    <col min="8" max="8" width="1.66666666666667" style="40" customWidth="1"/>
-    <col min="9" max="9" width="32.8888888888889" style="40" customWidth="1"/>
-    <col min="10" max="10" width="31.2222222222222" style="40" customWidth="1"/>
-    <col min="11" max="11" width="8.44444444444444" style="40" customWidth="1"/>
-    <col min="12" max="12" width="31.2222222222222" style="40" customWidth="1"/>
-    <col min="13" max="16374" width="8.44444444444444" style="40" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="40"/>
-    <col min="16376" max="16384" width="8.44444444444444" style="41"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="40" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" s="40" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" s="40" customFormat="1" spans="1:10">
-      <c r="A3" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="49">
-        <v>2321.88</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="26">
-        <f>G3/F3</f>
-        <v>311.369183317688</v>
-      </c>
-      <c r="F3" s="27">
-        <v>0.7457</v>
-      </c>
-      <c r="G3" s="28">
-        <f>B8</f>
-        <v>232.188</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="55">
-        <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-1.18733319678793</v>
-      </c>
-    </row>
-    <row r="4" s="40" customFormat="1" spans="1:10">
-      <c r="A4" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="51">
-        <f>-B3*$B$10/100</f>
-        <v>-232.188</v>
-      </c>
-      <c r="D4" s="52">
-        <v>1</v>
-      </c>
-      <c r="E4" s="26">
-        <f>E3</f>
-        <v>311.369183317688</v>
-      </c>
-      <c r="F4" s="31">
-        <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.7583769</v>
-      </c>
-      <c r="G4" s="28">
-        <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>236.135196</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="55">
-        <f>E18</f>
-        <v>23144.4936126163</v>
-      </c>
-    </row>
-    <row r="5" s="40" customFormat="1" spans="1:10">
-      <c r="A5" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="51">
-        <v>1.7</v>
-      </c>
-      <c r="D5" s="52">
-        <v>2</v>
-      </c>
-      <c r="E5" s="26">
-        <f t="shared" ref="E5:E10" si="1">E4*(1+$B$6/100)</f>
-        <v>404.779938312995</v>
-      </c>
-      <c r="F5" s="31">
-        <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.7712693073</v>
-      </c>
-      <c r="G5" s="28">
-        <f t="shared" si="0"/>
-        <v>312.1943426316</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="55">
-        <f>J4*J10</f>
-        <v>19555.4205532309</v>
-      </c>
-    </row>
-    <row r="6" s="40" customFormat="1" spans="1:10">
-      <c r="A6" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="51">
-        <v>30</v>
-      </c>
-      <c r="D6" s="52">
-        <v>3</v>
-      </c>
-      <c r="E6" s="26">
-        <f t="shared" si="1"/>
-        <v>526.213919806893</v>
-      </c>
-      <c r="F6" s="31">
-        <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>0.7843808855241</v>
-      </c>
-      <c r="G6" s="28">
-        <f t="shared" si="0"/>
-        <v>412.752140393238</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="55">
-        <f>J3/100*J4*J10</f>
-        <v>-232.188</v>
-      </c>
-    </row>
-    <row r="7" s="40" customFormat="1" spans="1:10">
-      <c r="A7" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="51">
-        <v>10</v>
-      </c>
-      <c r="D7" s="52">
-        <v>4</v>
-      </c>
-      <c r="E7" s="26">
-        <f t="shared" si="1"/>
-        <v>684.078095748961</v>
-      </c>
-      <c r="F7" s="31">
-        <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>0.797715360578009</v>
-      </c>
-      <c r="G7" s="28">
-        <f t="shared" si="0"/>
-        <v>545.6996048139</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="56">
-        <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>13.3066329124783</v>
-      </c>
-    </row>
-    <row r="8" s="40" customFormat="1" spans="1:7">
-      <c r="A8" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="51">
-        <f>B3*$B$9/100</f>
-        <v>232.188</v>
-      </c>
-      <c r="D8" s="52">
-        <v>5</v>
-      </c>
-      <c r="E8" s="26">
-        <f t="shared" si="1"/>
-        <v>889.301524473649</v>
-      </c>
-      <c r="F8" s="31">
-        <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>0.811276521707835</v>
-      </c>
-      <c r="G8" s="28">
-        <f t="shared" si="0"/>
-        <v>721.469447524458</v>
-      </c>
-    </row>
-    <row r="9" s="40" customFormat="1" spans="1:10">
-      <c r="A9" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="49">
-        <v>10</v>
-      </c>
-      <c r="D9" s="52">
-        <v>6</v>
-      </c>
-      <c r="E9" s="26">
-        <f t="shared" si="1"/>
-        <v>1156.09198181574</v>
-      </c>
-      <c r="F9" s="31">
-        <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>0.825068222576869</v>
-      </c>
-      <c r="G9" s="28">
-        <f t="shared" si="0"/>
-        <v>953.854756572085</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" s="40" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="49">
-        <v>10</v>
-      </c>
-      <c r="D10" s="52">
-        <v>7</v>
-      </c>
-      <c r="E10" s="26">
-        <f t="shared" si="1"/>
-        <v>1502.91957636047</v>
-      </c>
-      <c r="F10" s="31">
-        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>0.839094382360675</v>
-      </c>
-      <c r="G10" s="28">
-        <f t="shared" ref="G10:G16" si="2">E10*F10</f>
-        <v>1261.09137366395</v>
-      </c>
-      <c r="I10" s="57">
-        <f>G18/E18</f>
-        <v>0.834895456200326</v>
-      </c>
-      <c r="J10" s="58">
-        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.844927561628351</v>
-      </c>
-    </row>
-    <row r="11" s="40" customFormat="1" spans="1:7">
-      <c r="A11" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="51">
-        <f>B8*0.7/100</f>
-        <v>1.625316</v>
-      </c>
-      <c r="D11" s="52">
-        <v>8</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="40" customFormat="1" spans="4:7">
-      <c r="D12" s="52">
-        <v>9</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="40" customFormat="1" spans="4:10">
-      <c r="D13" s="52">
-        <v>10</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="59"/>
-    </row>
-    <row r="14" s="40" customFormat="1" spans="4:9">
-      <c r="D14" s="52">
-        <v>11</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="28"/>
-      <c r="I14" s="60" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" s="40" customFormat="1" spans="4:9">
-      <c r="D15" s="52">
-        <v>12</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="28"/>
-      <c r="I15" s="56">
-        <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>0.844927561628351</v>
-      </c>
-    </row>
-    <row r="16" s="40" customFormat="1" spans="4:9">
-      <c r="D16" s="52">
-        <v>13</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="28"/>
-      <c r="I16" s="61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" s="40" customFormat="1" ht="18.15" spans="4:10">
-      <c r="D17" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="33">
-        <f>SUM(E3:E16)*3</f>
-        <v>17358.3702094623</v>
-      </c>
-      <c r="F17" s="34">
-        <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>0.843849250527386</v>
-      </c>
-      <c r="G17" s="35">
-        <f t="shared" si="0"/>
-        <v>14647.8476916316</v>
-      </c>
-      <c r="I17" s="56">
-        <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>1.20160019479336</v>
-      </c>
-      <c r="J17" s="57" t="str">
-        <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
-        <v>TIENE QUE BAJAR</v>
-      </c>
-    </row>
-    <row r="18" s="40" customFormat="1" spans="4:9">
-      <c r="D18" s="54"/>
-      <c r="E18" s="36">
-        <f>SUM(E3:E17)</f>
-        <v>23144.4936126163</v>
-      </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36">
-        <f>SUM(G3:G17)</f>
-        <v>19323.2325532309</v>
-      </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="61" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" s="40" customFormat="1" spans="9:9">
-      <c r="I19" s="62">
-        <f>G18/B3</f>
-        <v>8.32223566817875</v>
-      </c>
-    </row>
-    <row r="20" s="40" customFormat="1"/>
-    <row r="21" s="40" customFormat="1"/>
-    <row r="22" s="40" customFormat="1" spans="16376:16384">
-      <c r="XEV22" s="41"/>
-      <c r="XEW22" s="41"/>
-      <c r="XEX22" s="41"/>
-      <c r="XEY22" s="41"/>
-      <c r="XEZ22" s="41"/>
-      <c r="XFA22" s="41"/>
-      <c r="XFB22" s="41"/>
-      <c r="XFC22" s="41"/>
-      <c r="XFD22" s="41"/>
-    </row>
-    <row r="23" s="40" customFormat="1" spans="16376:16384">
-      <c r="XEV23" s="41"/>
-      <c r="XEW23" s="41"/>
-      <c r="XEX23" s="41"/>
-      <c r="XEY23" s="41"/>
-      <c r="XEZ23" s="41"/>
-      <c r="XFA23" s="41"/>
-      <c r="XFB23" s="41"/>
-      <c r="XFC23" s="41"/>
-      <c r="XFD23" s="41"/>
-    </row>
-    <row r="24" s="40" customFormat="1" spans="16376:16384">
-      <c r="XEV24" s="41"/>
-      <c r="XEW24" s="41"/>
-      <c r="XEX24" s="41"/>
-      <c r="XEY24" s="41"/>
-      <c r="XEZ24" s="41"/>
-      <c r="XFA24" s="41"/>
-      <c r="XFB24" s="41"/>
-      <c r="XFC24" s="41"/>
-      <c r="XFD24" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I13:J13"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>$B$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
-      <formula>$B$4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>$J$6&gt;=$B$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>IF(AND($J$10&lt;=$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>IF(AND($J$10&gt;$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>IF(AND($J$10&gt;=$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
-      <formula>IF(AND($J$10&lt;$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="4" priority="9">
-      <formula>$G$18&gt;$B$3*$B$7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
-      <formula>$B$3*$B$7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="lessThan">
-      <formula>$B$3*10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="lessThan">
-      <formula>#REF!*#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
-      <formula>#REF!*#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D16">
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="lessThan">
-      <formula>#REF!+1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="LONG/SHORT" sqref="B1">
-      <formula1>"BUY,SELL"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4496,7 +3914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K14"/>
@@ -4755,7 +4173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G40"/>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -346,12 +346,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.000000"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -426,31 +426,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,38 +441,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,7 +465,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -525,25 +504,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -557,6 +528,35 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,19 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,25 +613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,6 +631,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -673,25 +673,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,19 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +709,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,13 +739,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,13 +769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,8 +1021,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,17 +1042,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,37 +1066,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,13 +1095,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1136,130 +1136,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1303,86 +1303,86 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1704,37 +1704,37 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.7713</c:v>
+                  <c:v>2.023483</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8014121</c:v>
+                  <c:v>2.057882211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8320361057</c:v>
+                  <c:v>2.092866208587</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8631807194969</c:v>
+                  <c:v>2.12844493413298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.89485479172835</c:v>
+                  <c:v>2.16462849801324</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.92706732318773</c:v>
+                  <c:v>2.20142718247946</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.95982746768192</c:v>
+                  <c:v>2.23885144458161</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.99314453463251</c:v>
+                  <c:v>2.2769119191395</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.02702799172126</c:v>
+                  <c:v>2.31561942176487</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.03883573099537</c:v>
+                  <c:v>2.32910824900452</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.00011233544747</c:v>
+                  <c:v>2.28487173763239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3383,7 +3383,7 @@
   <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -3432,21 +3432,21 @@
         <v>17</v>
       </c>
       <c r="B3" s="24">
-        <v>2248</v>
+        <v>2266</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="26">
         <f>G3/F3</f>
-        <v>101.529949754418</v>
+        <v>89.5881013084864</v>
       </c>
       <c r="F3" s="27">
-        <v>1.7713</v>
+        <v>2.023483</v>
       </c>
       <c r="G3" s="28">
         <f>B8</f>
-        <v>179.84</v>
+        <v>181.28</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>19</v>
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B4" s="29">
         <f>-B3*$B$10/100</f>
-        <v>-292.24</v>
+        <v>-294.58</v>
       </c>
       <c r="D4" s="30">
         <v>1</v>
       </c>
       <c r="E4" s="26">
         <f>E3</f>
-        <v>101.529949754418</v>
+        <v>89.5881013084864</v>
       </c>
       <c r="F4" s="31">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>1.8014121</v>
+        <v>2.057882211</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>182.89728</v>
+        <v>184.36176</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="37">
         <f>E18</f>
-        <v>7546.85883985773</v>
+        <v>6659.20505172517</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" spans="1:10">
@@ -3499,22 +3499,22 @@
       </c>
       <c r="E5" s="26">
         <f t="shared" ref="E5:E10" si="1">E4*(1+$B$6/100)</f>
-        <v>131.988934680743</v>
+        <v>116.464531701032</v>
       </c>
       <c r="F5" s="31">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>1.8320361057</v>
+        <v>2.092866208587</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" si="0"/>
-        <v>241.808493888</v>
+        <v>243.744682896</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="37">
         <f>J4*J10</f>
-        <v>15386.8054594802</v>
+        <v>15510.0094177857</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" spans="1:10">
@@ -3529,22 +3529,22 @@
       </c>
       <c r="E6" s="26">
         <f t="shared" si="1"/>
-        <v>171.585615084966</v>
+        <v>151.403891211342</v>
       </c>
       <c r="F6" s="31">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>1.8631807194969</v>
+        <v>2.12844493413298</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" si="0"/>
-        <v>319.695009769325</v>
+        <v>322.254845256802</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="37">
         <f>J3/100*J4*J10</f>
-        <v>-292.239999999999</v>
+        <v>-294.579999999999</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:10">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" si="1"/>
-        <v>223.061299610456</v>
+        <v>196.825058574745</v>
       </c>
       <c r="F7" s="31">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>1.89485479172835</v>
+        <v>2.16462849801324</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" si="0"/>
-        <v>422.668772416024</v>
+        <v>426.053130914017</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>27</v>
@@ -3583,22 +3583,22 @@
       </c>
       <c r="B8" s="29">
         <f>B3*$B$9/100</f>
-        <v>179.84</v>
+        <v>181.28</v>
       </c>
       <c r="D8" s="30">
         <v>5</v>
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>289.979689493592</v>
+        <v>255.872576147168</v>
       </c>
       <c r="F8" s="31">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>1.92706732318773</v>
+        <v>2.20142718247946</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" si="0"/>
-        <v>558.810384011226</v>
+        <v>563.284844381422</v>
       </c>
     </row>
     <row r="9" s="15" customFormat="1" spans="1:10">
@@ -3613,15 +3613,15 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>376.97359634167</v>
+        <v>332.634348991318</v>
       </c>
       <c r="F9" s="31">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>1.95982746768192</v>
+        <v>2.23885144458161</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" si="0"/>
-        <v>738.803208701241</v>
+        <v>744.718892756678</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>30</v>
@@ -3642,23 +3642,23 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>490.065675244171</v>
+        <v>432.424653688714</v>
       </c>
       <c r="F10" s="31">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>1.99314453463251</v>
+        <v>2.2769119191395</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" si="0"/>
-        <v>976.771722223911</v>
+        <v>984.592848113604</v>
       </c>
       <c r="I10" s="38">
         <f>G18/E18</f>
-        <v>2.00011233544747</v>
+        <v>2.28487173763239</v>
       </c>
       <c r="J10" s="39">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>2.03883573099537</v>
+        <v>2.32910824900452</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="1" spans="1:7">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="B11" s="29">
         <f>B8*1.15/100</f>
-        <v>2.06816</v>
+        <v>2.08472</v>
       </c>
       <c r="D11" s="30">
         <v>8</v>
@@ -3740,27 +3740,27 @@
       </c>
       <c r="E17" s="33">
         <f>SUM(E3:E16)*3</f>
-        <v>5660.1441298933</v>
+        <v>4994.40378879388</v>
       </c>
       <c r="F17" s="34">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5)/100),MAX(F3:F16)*(1+($B$5)/100))</f>
-        <v>2.02702799172126</v>
+        <v>2.31561942176487</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="0"/>
-        <v>11473.2705884705</v>
+        <v>11565.1384134672</v>
       </c>
     </row>
     <row r="18" s="15" customFormat="1" spans="4:8">
       <c r="D18" s="36"/>
       <c r="E18" s="36">
         <f>SUM(E3:E17)</f>
-        <v>7546.85883985773</v>
+        <v>6659.20505172517</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36">
         <f>SUM(G3:G17)</f>
-        <v>15094.5654594802</v>
+        <v>15215.4294177857</v>
       </c>
       <c r="H18" s="36"/>
     </row>
@@ -3771,7 +3771,7 @@
       <c r="E19" s="29"/>
       <c r="F19" s="29">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>2.03883573099537</v>
+        <v>2.32910824900452</v>
       </c>
     </row>
     <row r="20" s="15" customFormat="1"/>
@@ -3782,7 +3782,7 @@
       <c r="E21" s="29"/>
       <c r="F21" s="29">
         <f>G18/E18</f>
-        <v>2.00011233544747</v>
+        <v>2.28487173763239</v>
       </c>
     </row>
     <row r="22" s="15" customFormat="1" spans="16376:16384">

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -140,6 +140,9 @@
     <t>margen ratio</t>
   </si>
   <si>
+    <t>BUY</t>
+  </si>
+  <si>
     <t>primer tp</t>
   </si>
   <si>
@@ -150,9 +153,6 @@
   </si>
   <si>
     <t>distancia entre posición y stop</t>
-  </si>
-  <si>
-    <t>BUY</t>
   </si>
   <si>
     <t>Size</t>
@@ -346,12 +346,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000000"/>
-    <numFmt numFmtId="179" formatCode="0.00000"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.00000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -418,8 +418,128 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -434,129 +554,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,7 +595,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +691,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,37 +739,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,115 +763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,9 +1020,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,6 +1040,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1060,23 +1086,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,30 +1115,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1136,253 +1136,253 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1704,37 +1704,37 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.023483</c:v>
+                  <c:v>0.164335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.057882211</c:v>
+                  <c:v>0.161541305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.092866208587</c:v>
+                  <c:v>0.158795102815</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.12844493413298</c:v>
+                  <c:v>0.156095586067145</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.16462849801324</c:v>
+                  <c:v>0.153441961104004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.20142718247946</c:v>
+                  <c:v>0.150833447765235</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.23885144458161</c:v>
+                  <c:v>0.148269279153226</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2769119191395</c:v>
+                  <c:v>0.145748701407622</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.31561942176487</c:v>
+                  <c:v>0.143270973483692</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.32910824900452</c:v>
+                  <c:v>0.141772382062046</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.28487173763239</c:v>
+                  <c:v>0.145365002853196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3383,7 +3383,7 @@
   <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -3410,7 +3410,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" ht="15.15" spans="4:7">
@@ -3432,28 +3432,28 @@
         <v>17</v>
       </c>
       <c r="B3" s="24">
-        <v>2266</v>
+        <v>2644</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="26">
         <f>G3/F3</f>
-        <v>89.5881013084864</v>
+        <v>1287.12690540664</v>
       </c>
       <c r="F3" s="27">
-        <v>2.023483</v>
+        <v>0.164335</v>
       </c>
       <c r="G3" s="28">
         <f>B8</f>
-        <v>181.28</v>
+        <v>211.52</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="37">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-1.89928962687925</v>
+        <v>-2.53407662260909</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:10">
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B4" s="29">
         <f>-B3*$B$10/100</f>
-        <v>-294.58</v>
+        <v>-343.72</v>
       </c>
       <c r="D4" s="30">
         <v>1</v>
       </c>
       <c r="E4" s="26">
         <f>E3</f>
-        <v>89.5881013084864</v>
+        <v>1287.12690540664</v>
       </c>
       <c r="F4" s="31">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>2.057882211</v>
+        <v>0.161541305</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>184.36176</v>
+        <v>207.92416</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="37">
         <f>E18</f>
-        <v>6659.20505172517</v>
+        <v>95673.8882229592</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" spans="1:10">
@@ -3499,22 +3499,22 @@
       </c>
       <c r="E5" s="26">
         <f t="shared" ref="E5:E10" si="1">E4*(1+$B$6/100)</f>
-        <v>116.464531701032</v>
+        <v>1673.26497702863</v>
       </c>
       <c r="F5" s="31">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>2.092866208587</v>
+        <v>0.158795102815</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" si="0"/>
-        <v>243.744682896</v>
+        <v>265.706284064</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="37">
         <f>J4*J10</f>
-        <v>15510.0094177857</v>
+        <v>13563.9150345068</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" spans="1:10">
@@ -3529,22 +3529,22 @@
       </c>
       <c r="E6" s="26">
         <f t="shared" si="1"/>
-        <v>151.403891211342</v>
+        <v>2175.24447013722</v>
       </c>
       <c r="F6" s="31">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>2.12844493413298</v>
+        <v>0.156095586067145</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" si="0"/>
-        <v>322.254845256802</v>
+        <v>339.546060405386</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="37">
         <f>J3/100*J4*J10</f>
-        <v>-294.579999999999</v>
+        <v>-343.719999999997</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:10">
@@ -3559,22 +3559,22 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" si="1"/>
-        <v>196.825058574745</v>
+        <v>2827.81781117839</v>
       </c>
       <c r="F7" s="31">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>2.16462849801324</v>
+        <v>0.153441961104004</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" si="0"/>
-        <v>426.053130914017</v>
+        <v>433.905910592043</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="29">
         <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
-        <v>15.1039197761742</v>
+        <v>13.7296485459302</v>
       </c>
     </row>
     <row r="8" s="15" customFormat="1" spans="1:7">
@@ -3583,22 +3583,22 @@
       </c>
       <c r="B8" s="29">
         <f>B3*$B$9/100</f>
-        <v>181.28</v>
+        <v>211.52</v>
       </c>
       <c r="D8" s="30">
         <v>5</v>
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>255.872576147168</v>
+        <v>3676.1631545319</v>
       </c>
       <c r="F8" s="31">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>2.20142718247946</v>
+        <v>0.150833447765235</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" si="0"/>
-        <v>563.284844381422</v>
+        <v>554.48836314557</v>
       </c>
     </row>
     <row r="9" s="15" customFormat="1" spans="1:10">
@@ -3613,15 +3613,15 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>332.634348991318</v>
+        <v>4779.01210089147</v>
       </c>
       <c r="F9" s="31">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>2.23885144458161</v>
+        <v>0.148269279153226</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" si="0"/>
-        <v>744.718892756678</v>
+        <v>708.580679263725</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>30</v>
@@ -3642,32 +3642,32 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>432.424653688714</v>
+        <v>6212.71573115891</v>
       </c>
       <c r="F10" s="31">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>2.2769119191395</v>
+        <v>0.145748701407622</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" si="0"/>
-        <v>984.592848113604</v>
+        <v>905.495250031113</v>
       </c>
       <c r="I10" s="38">
         <f>G18/E18</f>
-        <v>2.28487173763239</v>
+        <v>0.145365002853196</v>
       </c>
       <c r="J10" s="39">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>2.32910824900452</v>
+        <v>0.141772382062046</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="1" spans="1:7">
       <c r="A11" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="29">
         <f>B8*1.15/100</f>
-        <v>2.08472</v>
+        <v>2.43248</v>
       </c>
       <c r="D11" s="30">
         <v>8</v>
@@ -3740,38 +3740,38 @@
       </c>
       <c r="E17" s="33">
         <f>SUM(E3:E16)*3</f>
-        <v>4994.40378879388</v>
+        <v>71755.4161672194</v>
       </c>
       <c r="F17" s="34">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5)/100),MAX(F3:F16)*(1+($B$5)/100))</f>
-        <v>2.31561942176487</v>
+        <v>0.143270973483692</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="0"/>
-        <v>11565.1384134672</v>
+        <v>10280.468327005</v>
       </c>
     </row>
     <row r="18" s="15" customFormat="1" spans="4:8">
       <c r="D18" s="36"/>
       <c r="E18" s="36">
         <f>SUM(E3:E17)</f>
-        <v>6659.20505172517</v>
+        <v>95673.8882229592</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36">
         <f>SUM(G3:G17)</f>
-        <v>15215.4294177857</v>
+        <v>13907.6350345068</v>
       </c>
       <c r="H18" s="36"/>
     </row>
     <row r="19" s="15" customFormat="1" spans="4:6">
       <c r="D19" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>2.32910824900452</v>
+        <v>0.141772382062046</v>
       </c>
     </row>
     <row r="20" s="15" customFormat="1"/>
@@ -3782,7 +3782,7 @@
       <c r="E21" s="29"/>
       <c r="F21" s="29">
         <f>G18/E18</f>
-        <v>2.28487173763239</v>
+        <v>0.145365002853196</v>
       </c>
     </row>
     <row r="22" s="15" customFormat="1" spans="16376:16384">
@@ -3798,12 +3798,12 @@
     </row>
     <row r="23" s="15" customFormat="1" spans="4:16384">
       <c r="D23" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29">
         <f>IF($B$1="BUY",(($F$17/$F$19)-1)*100,(($F$19/$F$17)-1)*100)</f>
-        <v>0.582514860294725</v>
+        <v>1.05704044740575</v>
       </c>
       <c r="XEV23" s="16"/>
       <c r="XEW23" s="16"/>
@@ -3828,12 +3828,12 @@
     </row>
     <row r="25" spans="4:6">
       <c r="D25" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29">
         <f>IF($B$1="BUY",(($F$21/$F$19)-1)*100,(($F$19/$F$21)-1)*100)</f>
-        <v>1.9360610332539</v>
+        <v>2.53407662260909</v>
       </c>
     </row>
     <row r="27" spans="4:6">
@@ -3843,7 +3843,7 @@
       <c r="E27" s="29"/>
       <c r="F27" s="29">
         <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
-        <v>15.1039197761742</v>
+        <v>13.7296485459302</v>
       </c>
     </row>
   </sheetData>
@@ -3920,7 +3920,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3932,7 +3932,7 @@
     <col min="5" max="5" width="12.5555555555556" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.1111111111111" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.2222222222222" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.8611111111111" style="2" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.2222222222222" style="2" customWidth="1"/>
     <col min="11" max="11" width="14.7777777777778" style="2" customWidth="1"/>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3985,37 +3985,37 @@
         <v>17</v>
       </c>
       <c r="B3" s="7">
-        <v>1546</v>
+        <v>2644.26</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E3" s="7">
-        <v>3179</v>
+        <v>3412</v>
       </c>
       <c r="F3" s="7">
-        <v>1.0896</v>
+        <v>0.15119</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" ref="G3:G6" si="0">E3/F3</f>
-        <v>2917.58443465492</v>
+        <v>22567.6301342681</v>
       </c>
       <c r="H3" s="10">
         <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
-        <v>-5.11175770400742</v>
+        <v>-11.2035924626909</v>
       </c>
       <c r="I3" s="10">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>1.0896</v>
+        <v>0.15119</v>
       </c>
       <c r="J3" s="10">
         <f>IF(A2="BUY",((B5/SUM(E3:E4))+1)*I3,((B5/-SUM(E3:E4))+1)*I3)</f>
-        <v>1.0366109594212</v>
+        <v>0.135957837918523</v>
       </c>
       <c r="K3" s="12">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-154.600000000001</v>
+        <v>-343.7538</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4023,7 +4023,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="8" t="s">
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7">
-        <v>1.0817</v>
+        <v>0.14198</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" si="0"/>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="B5" s="9">
         <f>-B3*B4/100</f>
-        <v>-154.6</v>
+        <v>-343.7538</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -4070,16 +4070,15 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9">
-        <f>IF(A2="BUY",((F3/J6)-1)*-100,((F3/J6)-1)*100)</f>
-        <v>2.89635504856967</v>
+        <v>1.15</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="7">
-        <v>1.1221</v>
+        <v>0.15199</v>
       </c>
       <c r="K6" s="14">
         <f>H6/100*SUM(G3:G4)*J6</f>
-        <v>94.8214941262855</v>
+        <v>39.4456221972353</v>
       </c>
     </row>
     <row r="7" spans="3:11">

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -140,19 +140,19 @@
     <t>margen ratio</t>
   </si>
   <si>
+    <t>primer tp</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>distancia entre ataque y stop</t>
+  </si>
+  <si>
+    <t>distancia entre posición y stop</t>
+  </si>
+  <si>
     <t>BUY</t>
-  </si>
-  <si>
-    <t>primer tp</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>distancia entre ataque y stop</t>
-  </si>
-  <si>
-    <t>distancia entre posición y stop</t>
   </si>
   <si>
     <t>Size</t>
@@ -346,11 +346,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.00000"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
   <fonts count="27">
@@ -419,14 +419,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,30 +448,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,8 +462,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,32 +488,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,8 +501,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,15 +527,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,7 +595,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +619,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +673,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,115 +757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,19 +769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,6 +1014,15 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,17 +1038,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,70 +1096,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1136,130 +1136,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1303,86 +1303,86 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1704,37 +1704,37 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.164335</c:v>
+                  <c:v>0.0339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.161541305</c:v>
+                  <c:v>0.0344763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.158795102815</c:v>
+                  <c:v>0.0350623971</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.156095586067145</c:v>
+                  <c:v>0.0356584578507</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.153441961104004</c:v>
+                  <c:v>0.0362646516341619</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.150833447765235</c:v>
+                  <c:v>0.0368811507119426</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.148269279153226</c:v>
+                  <c:v>0.0375081302740457</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.145748701407622</c:v>
+                  <c:v>0.0381457684887044</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.143270973483692</c:v>
+                  <c:v>0.0387942465530124</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.141772382062046</c:v>
+                  <c:v>0.0390202288041231</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.145365002853196</c:v>
+                  <c:v>0.0382791216460618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3383,7 +3383,7 @@
   <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -3410,7 +3410,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" ht="15.15" spans="4:7">
@@ -3432,28 +3432,28 @@
         <v>17</v>
       </c>
       <c r="B3" s="24">
-        <v>2644</v>
+        <v>2908</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="26">
         <f>G3/F3</f>
-        <v>1287.12690540664</v>
+        <v>6862.53687315634</v>
       </c>
       <c r="F3" s="27">
-        <v>0.164335</v>
+        <v>0.0339</v>
       </c>
       <c r="G3" s="28">
         <f>B8</f>
-        <v>211.52</v>
+        <v>232.64</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="37">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-2.53407662260909</v>
+        <v>-1.89928962687926</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:10">
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B4" s="29">
         <f>-B3*$B$10/100</f>
-        <v>-343.72</v>
+        <v>-378.04</v>
       </c>
       <c r="D4" s="30">
         <v>1</v>
       </c>
       <c r="E4" s="26">
         <f>E3</f>
-        <v>1287.12690540664</v>
+        <v>6862.53687315634</v>
       </c>
       <c r="F4" s="31">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.161541305</v>
+        <v>0.0344763</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>207.92416</v>
+        <v>236.59488</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="37">
         <f>E18</f>
-        <v>95673.8882229592</v>
+        <v>510101.671381711</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" spans="1:10">
@@ -3499,22 +3499,22 @@
       </c>
       <c r="E5" s="26">
         <f t="shared" ref="E5:E10" si="1">E4*(1+$B$6/100)</f>
-        <v>1673.26497702863</v>
+        <v>8921.29793510324</v>
       </c>
       <c r="F5" s="31">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.158795102815</v>
+        <v>0.0350623971</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" si="0"/>
-        <v>265.706284064</v>
+        <v>312.802090848</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="37">
         <f>J4*J10</f>
-        <v>13563.9150345068</v>
+        <v>19904.28393068</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" spans="1:10">
@@ -3529,22 +3529,22 @@
       </c>
       <c r="E6" s="26">
         <f t="shared" si="1"/>
-        <v>2175.24447013722</v>
+        <v>11597.6873156342</v>
       </c>
       <c r="F6" s="31">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>0.156095586067145</v>
+        <v>0.0356584578507</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" si="0"/>
-        <v>339.546060405386</v>
+        <v>413.555644310141</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="37">
         <f>J3/100*J4*J10</f>
-        <v>-343.719999999997</v>
+        <v>-378.040000000001</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:10">
@@ -3559,22 +3559,22 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" si="1"/>
-        <v>2827.81781117839</v>
+        <v>15076.9935103245</v>
       </c>
       <c r="F7" s="31">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>0.153441961104004</v>
+        <v>0.0362646516341619</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" si="0"/>
-        <v>433.905910592043</v>
+        <v>546.761917342437</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="29">
         <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
-        <v>13.7296485459302</v>
+        <v>15.1039197761742</v>
       </c>
     </row>
     <row r="8" s="15" customFormat="1" spans="1:7">
@@ -3583,22 +3583,22 @@
       </c>
       <c r="B8" s="29">
         <f>B3*$B$9/100</f>
-        <v>211.52</v>
+        <v>232.64</v>
       </c>
       <c r="D8" s="30">
         <v>5</v>
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>3676.1631545319</v>
+        <v>19600.0915634218</v>
       </c>
       <c r="F8" s="31">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>0.150833447765235</v>
+        <v>0.0368811507119426</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" si="0"/>
-        <v>554.48836314557</v>
+        <v>722.873930918436</v>
       </c>
     </row>
     <row r="9" s="15" customFormat="1" spans="1:10">
@@ -3613,15 +3613,15 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>4779.01210089147</v>
+        <v>25480.1190324484</v>
       </c>
       <c r="F9" s="31">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>0.148269279153226</v>
+        <v>0.0375081302740457</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" si="0"/>
-        <v>708.580679263725</v>
+        <v>955.711624067264</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>30</v>
@@ -3642,32 +3642,32 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>6212.71573115891</v>
+        <v>33124.1547421829</v>
       </c>
       <c r="F10" s="31">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>0.145748701407622</v>
+        <v>0.0381457684887044</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" si="0"/>
-        <v>905.495250031113</v>
+        <v>1263.54633817933</v>
       </c>
       <c r="I10" s="38">
         <f>G18/E18</f>
-        <v>0.145365002853196</v>
+        <v>0.0382791216460618</v>
       </c>
       <c r="J10" s="39">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.141772382062046</v>
+        <v>0.0390202288041231</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="1" spans="1:7">
       <c r="A11" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="29">
         <f>B8*1.15/100</f>
-        <v>2.43248</v>
+        <v>2.67536</v>
       </c>
       <c r="D11" s="30">
         <v>8</v>
@@ -3740,38 +3740,38 @@
       </c>
       <c r="E17" s="33">
         <f>SUM(E3:E16)*3</f>
-        <v>71755.4161672194</v>
+        <v>382576.253536283</v>
       </c>
       <c r="F17" s="34">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5)/100),MAX(F3:F16)*(1+($B$5)/100))</f>
-        <v>0.143270973483692</v>
+        <v>0.0387942465530124</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="0"/>
-        <v>10280.468327005</v>
+        <v>14841.7575050143</v>
       </c>
     </row>
     <row r="18" s="15" customFormat="1" spans="4:8">
       <c r="D18" s="36"/>
       <c r="E18" s="36">
         <f>SUM(E3:E17)</f>
-        <v>95673.8882229592</v>
+        <v>510101.671381711</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36">
         <f>SUM(G3:G17)</f>
-        <v>13907.6350345068</v>
+        <v>19526.24393068</v>
       </c>
       <c r="H18" s="36"/>
     </row>
     <row r="19" s="15" customFormat="1" spans="4:6">
       <c r="D19" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.141772382062046</v>
+        <v>0.0390202288041231</v>
       </c>
     </row>
     <row r="20" s="15" customFormat="1"/>
@@ -3782,7 +3782,7 @@
       <c r="E21" s="29"/>
       <c r="F21" s="29">
         <f>G18/E18</f>
-        <v>0.145365002853196</v>
+        <v>0.0382791216460618</v>
       </c>
     </row>
     <row r="22" s="15" customFormat="1" spans="16376:16384">
@@ -3798,12 +3798,12 @@
     </row>
     <row r="23" s="15" customFormat="1" spans="4:16384">
       <c r="D23" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29">
         <f>IF($B$1="BUY",(($F$17/$F$19)-1)*100,(($F$19/$F$17)-1)*100)</f>
-        <v>1.05704044740575</v>
+        <v>0.582514860294725</v>
       </c>
       <c r="XEV23" s="16"/>
       <c r="XEW23" s="16"/>
@@ -3828,12 +3828,12 @@
     </row>
     <row r="25" spans="4:6">
       <c r="D25" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29">
         <f>IF($B$1="BUY",(($F$21/$F$19)-1)*100,(($F$19/$F$21)-1)*100)</f>
-        <v>2.53407662260909</v>
+        <v>1.9360610332539</v>
       </c>
     </row>
     <row r="27" spans="4:6">
@@ -3843,7 +3843,7 @@
       <c r="E27" s="29"/>
       <c r="F27" s="29">
         <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
-        <v>13.7296485459302</v>
+        <v>15.1039197761742</v>
       </c>
     </row>
   </sheetData>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -346,12 +346,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.000000"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -419,29 +419,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,15 +449,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,14 +476,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,6 +518,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -542,7 +549,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,13 +557,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,25 +595,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,13 +625,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,7 +661,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,49 +757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,55 +769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,15 +1014,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,21 +1049,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,18 +1091,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1136,253 +1136,253 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1704,37 +1704,37 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.0339</c:v>
+                  <c:v>0.2633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0344763</c:v>
+                  <c:v>0.2677761</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0350623971</c:v>
+                  <c:v>0.2723282937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0356584578507</c:v>
+                  <c:v>0.2769578746929</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0362646516341619</c:v>
+                  <c:v>0.281666158562679</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0368811507119426</c:v>
+                  <c:v>0.286454483258245</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0375081302740457</c:v>
+                  <c:v>0.291324209473635</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0381457684887044</c:v>
+                  <c:v>0.296276721034687</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0387942465530124</c:v>
+                  <c:v>0.301313425292276</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0390202288041231</c:v>
+                  <c:v>0.303068620770667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0382791216460618</c:v>
+                  <c:v>0.297312469894043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3383,7 +3383,7 @@
   <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -3432,28 +3432,28 @@
         <v>17</v>
       </c>
       <c r="B3" s="24">
-        <v>2908</v>
+        <v>2853.37</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="26">
         <f>G3/F3</f>
-        <v>6862.53687315634</v>
+        <v>866.956323585264</v>
       </c>
       <c r="F3" s="27">
-        <v>0.0339</v>
+        <v>0.2633</v>
       </c>
       <c r="G3" s="28">
         <f>B8</f>
-        <v>232.64</v>
+        <v>228.2696</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="37">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-1.89928962687926</v>
+        <v>-1.89928962687925</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:10">
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B4" s="29">
         <f>-B3*$B$10/100</f>
-        <v>-378.04</v>
+        <v>-370.9381</v>
       </c>
       <c r="D4" s="30">
         <v>1</v>
       </c>
       <c r="E4" s="26">
         <f>E3</f>
-        <v>6862.53687315634</v>
+        <v>866.956323585264</v>
       </c>
       <c r="F4" s="31">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.0344763</v>
+        <v>0.2677761</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>236.59488</v>
+        <v>232.1501832</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="37">
         <f>E18</f>
-        <v>510101.671381711</v>
+        <v>64442.0391248675</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" spans="1:10">
@@ -3499,22 +3499,22 @@
       </c>
       <c r="E5" s="26">
         <f t="shared" ref="E5:E10" si="1">E4*(1+$B$6/100)</f>
-        <v>8921.29793510324</v>
+        <v>1127.04322066084</v>
       </c>
       <c r="F5" s="31">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.0350623971</v>
+        <v>0.2723282937</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" si="0"/>
-        <v>312.802090848</v>
+        <v>306.92575720872</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="37">
         <f>J4*J10</f>
-        <v>19904.28393068</v>
+        <v>19530.3599172229</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" spans="1:10">
@@ -3529,22 +3529,22 @@
       </c>
       <c r="E6" s="26">
         <f t="shared" si="1"/>
-        <v>11597.6873156342</v>
+        <v>1465.1561868591</v>
       </c>
       <c r="F6" s="31">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>0.0356584578507</v>
+        <v>0.2769578746929</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" si="0"/>
-        <v>413.555644310141</v>
+        <v>405.786543605649</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="37">
         <f>J3/100*J4*J10</f>
-        <v>-378.040000000001</v>
+        <v>-370.938099999998</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:10">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" si="1"/>
-        <v>15076.9935103245</v>
+        <v>1904.70304291683</v>
       </c>
       <c r="F7" s="31">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>0.0362646516341619</v>
+        <v>0.281666158562679</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" si="0"/>
-        <v>546.761917342437</v>
+        <v>536.490389301028</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>27</v>
@@ -3583,22 +3583,22 @@
       </c>
       <c r="B8" s="29">
         <f>B3*$B$9/100</f>
-        <v>232.64</v>
+        <v>228.2696</v>
       </c>
       <c r="D8" s="30">
         <v>5</v>
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>19600.0915634218</v>
+        <v>2476.11395579187</v>
       </c>
       <c r="F8" s="31">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>0.0368811507119426</v>
+        <v>0.286454483258245</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" si="0"/>
-        <v>722.873930918436</v>
+        <v>709.293943694889</v>
       </c>
     </row>
     <row r="9" s="15" customFormat="1" spans="1:10">
@@ -3613,15 +3613,15 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>25480.1190324484</v>
+        <v>3218.94814252943</v>
       </c>
       <c r="F9" s="31">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>0.0375081302740457</v>
+        <v>0.291324209473635</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" si="0"/>
-        <v>955.711624067264</v>
+        <v>937.757522959013</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>30</v>
@@ -3642,23 +3642,23 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>33124.1547421829</v>
+        <v>4184.63258528827</v>
       </c>
       <c r="F10" s="31">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>0.0381457684887044</v>
+        <v>0.296276721034687</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" si="0"/>
-        <v>1263.54633817933</v>
+        <v>1239.80922110411</v>
       </c>
       <c r="I10" s="38">
         <f>G18/E18</f>
-        <v>0.0382791216460618</v>
+        <v>0.297312469894043</v>
       </c>
       <c r="J10" s="39">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.0390202288041231</v>
+        <v>0.303068620770667</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="1" spans="1:7">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="B11" s="29">
         <f>B8*1.15/100</f>
-        <v>2.67536</v>
+        <v>2.6251004</v>
       </c>
       <c r="D11" s="30">
         <v>8</v>
@@ -3740,27 +3740,27 @@
       </c>
       <c r="E17" s="33">
         <f>SUM(E3:E16)*3</f>
-        <v>382576.253536283</v>
+        <v>48331.5293436506</v>
       </c>
       <c r="F17" s="34">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5)/100),MAX(F3:F16)*(1+($B$5)/100))</f>
-        <v>0.0387942465530124</v>
+        <v>0.301313425292276</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="0"/>
-        <v>14841.7575050143</v>
+        <v>14562.9386561495</v>
       </c>
     </row>
     <row r="18" s="15" customFormat="1" spans="4:8">
       <c r="D18" s="36"/>
       <c r="E18" s="36">
         <f>SUM(E3:E17)</f>
-        <v>510101.671381711</v>
+        <v>64442.0391248675</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36">
         <f>SUM(G3:G17)</f>
-        <v>19526.24393068</v>
+        <v>19159.4218172229</v>
       </c>
       <c r="H18" s="36"/>
     </row>
@@ -3771,7 +3771,7 @@
       <c r="E19" s="29"/>
       <c r="F19" s="29">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.0390202288041231</v>
+        <v>0.303068620770667</v>
       </c>
     </row>
     <row r="20" s="15" customFormat="1"/>
@@ -3782,7 +3782,7 @@
       <c r="E21" s="29"/>
       <c r="F21" s="29">
         <f>G18/E18</f>
-        <v>0.0382791216460618</v>
+        <v>0.297312469894043</v>
       </c>
     </row>
     <row r="22" s="15" customFormat="1" spans="16376:16384">

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="101">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -122,25 +122,10 @@
     <t>Porcentaje de pérdida</t>
   </si>
   <si>
-    <t>primer tp a 0.7 porciento</t>
-  </si>
-  <si>
-    <t>peor de los casos</t>
-  </si>
-  <si>
-    <t>donde quedaría el precio al final</t>
-  </si>
-  <si>
-    <t>porc distancia entre posicion y precio (se recomienda que sea al menos la mitad del porsentaje que soporta)</t>
+    <t>primer tp</t>
   </si>
   <si>
     <t>ataque</t>
-  </si>
-  <si>
-    <t>margen ratio</t>
-  </si>
-  <si>
-    <t>primer tp</t>
   </si>
   <si>
     <t>stop</t>
@@ -346,12 +331,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00000"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00000"/>
+    <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -418,38 +403,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,9 +419,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,18 +495,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,31 +510,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,15 +539,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,25 +586,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,49 +724,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,85 +754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,6 +1014,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1077,17 +1077,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,27 +1100,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1136,253 +1121,244 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1707,6 +1683,377 @@
                   <c:v>0.2633</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.2646165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2659395825</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2672692804125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.268605626814562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.269948654948635</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.271298398223378</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.272654890214495</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.272817329321849</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.271621035769131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="818217620"/>
+        <c:axId val="465484551"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="818217620"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465484551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465484551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818217620"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grilla Master'!$F$3:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.2633</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.2677761</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -1735,6 +2082,377 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.297312469894043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="818217620"/>
+        <c:axId val="465484551"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="818217620"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465484551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465484551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818217620"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grilla Develop'!$F$3:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.2633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2646165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2659395825</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2672692804125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.268605626814562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.269948654948635</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.271298398223378</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.272654890214495</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.272817329321849</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.271621035769131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1942,6 +2660,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2445,7 +3243,1078 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7099300" y="2586990"/>
+        <a:ext cx="4572000" cy="2745105"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7099300" y="2586990"/>
+        <a:ext cx="4572000" cy="2745105"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2775,79 +4644,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="43" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="43" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="44" customWidth="1"/>
-    <col min="4" max="4" width="21.8888888888889" style="45" customWidth="1"/>
-    <col min="5" max="5" width="17.1111111111111" style="45" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="45"/>
+    <col min="1" max="1" width="20.5740740740741" style="40" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="40" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="41" customWidth="1"/>
+    <col min="4" max="4" width="21.8888888888889" style="42" customWidth="1"/>
+    <col min="5" max="5" width="17.1111111111111" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="45">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>7390.91790332117</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="45">
         <f>D2-A2</f>
         <v>4441.91790332117</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
     </row>
     <row r="4" ht="19.5" customHeight="1"/>
     <row r="5" ht="19.5" customHeight="1"/>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="47"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="48" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="48">
         <f>A9*100/A2</f>
         <v>3.1197015937606</v>
       </c>
@@ -2865,10 +4734,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD24"/>
+  <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2877,7 +4746,7 @@
     <col min="2" max="2" width="12.8888888888889" style="15" customWidth="1"/>
     <col min="3" max="3" width="4.55555555555556" style="15" customWidth="1"/>
     <col min="4" max="4" width="8.44444444444444" style="15" customWidth="1"/>
-    <col min="5" max="5" width="18.5555555555556" style="15" customWidth="1"/>
+    <col min="5" max="5" width="21.5555555555556" style="15" customWidth="1"/>
     <col min="6" max="6" width="17.1111111111111" style="15" customWidth="1"/>
     <col min="7" max="7" width="15.6666666666667" style="15" customWidth="1"/>
     <col min="8" max="8" width="1.66666666666667" style="15" customWidth="1"/>
@@ -2917,28 +4786,28 @@
         <v>17</v>
       </c>
       <c r="B3" s="24">
-        <v>2321.88</v>
+        <v>2853.37</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="26">
         <f>G3/F3</f>
-        <v>311.369183317688</v>
+        <v>866.956323585264</v>
       </c>
       <c r="F3" s="27">
-        <v>0.7457</v>
+        <v>0.2633</v>
       </c>
       <c r="G3" s="28">
         <f>B8</f>
-        <v>232.188</v>
+        <v>228.2696</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="37">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-1.18733319678793</v>
+        <v>-1.89928962687925</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:10">
@@ -2947,36 +4816,36 @@
       </c>
       <c r="B4" s="29">
         <f>-B3*$B$10/100</f>
-        <v>-232.188</v>
+        <v>-370.9381</v>
       </c>
       <c r="D4" s="30">
         <v>1</v>
       </c>
       <c r="E4" s="26">
         <f>E3</f>
-        <v>311.369183317688</v>
+        <v>866.956323585264</v>
       </c>
       <c r="F4" s="31">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.7583769</v>
+        <v>0.2677761</v>
       </c>
       <c r="G4" s="28">
-        <f t="shared" ref="G4:G13" si="0">E4*F4</f>
-        <v>236.135196</v>
+        <f t="shared" ref="G4:G17" si="0">E4*F4</f>
+        <v>232.1501832</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="37">
         <f>E18</f>
-        <v>23144.4936126163</v>
+        <v>64442.0391248675</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" spans="1:10">
       <c r="A5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="24">
         <v>1.7</v>
       </c>
       <c r="D5" s="30">
@@ -2984,22 +4853,22 @@
       </c>
       <c r="E5" s="26">
         <f t="shared" ref="E5:E10" si="1">E4*(1+$B$6/100)</f>
-        <v>404.779938312995</v>
+        <v>1127.04322066084</v>
       </c>
       <c r="F5" s="31">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.7712693073</v>
+        <v>0.2723282937</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" si="0"/>
-        <v>312.1943426316</v>
+        <v>306.92575720872</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="37">
         <f>J4*J10</f>
-        <v>19555.4205532309</v>
+        <v>19530.3599172229</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" spans="1:10">
@@ -3014,22 +4883,22 @@
       </c>
       <c r="E6" s="26">
         <f t="shared" si="1"/>
-        <v>526.213919806893</v>
+        <v>1465.1561868591</v>
       </c>
       <c r="F6" s="31">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>0.7843808855241</v>
+        <v>0.2769578746929</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" si="0"/>
-        <v>412.752140393238</v>
+        <v>405.786543605649</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="37">
         <f>J3/100*J4*J10</f>
-        <v>-232.188</v>
+        <v>-370.938099999998</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:10">
@@ -3044,22 +4913,22 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" si="1"/>
-        <v>684.078095748961</v>
+        <v>1904.70304291683</v>
       </c>
       <c r="F7" s="31">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>0.797715360578009</v>
+        <v>0.281666158562679</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" si="0"/>
-        <v>545.6996048139</v>
+        <v>536.490389301028</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="29">
-        <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>13.3066329124783</v>
+        <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
+        <v>15.1039197761742</v>
       </c>
     </row>
     <row r="8" s="15" customFormat="1" spans="1:7">
@@ -3068,22 +4937,22 @@
       </c>
       <c r="B8" s="29">
         <f>B3*$B$9/100</f>
-        <v>232.188</v>
+        <v>228.2696</v>
       </c>
       <c r="D8" s="30">
         <v>5</v>
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>889.301524473649</v>
+        <v>2476.11395579187</v>
       </c>
       <c r="F8" s="31">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>0.811276521707835</v>
+        <v>0.286454483258245</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" si="0"/>
-        <v>721.469447524458</v>
+        <v>709.293943694889</v>
       </c>
     </row>
     <row r="9" s="15" customFormat="1" spans="1:10">
@@ -3091,22 +4960,22 @@
         <v>29</v>
       </c>
       <c r="B9" s="24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="30">
         <v>6</v>
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>1156.09198181574</v>
+        <v>3218.94814252943</v>
       </c>
       <c r="F9" s="31">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>0.825068222576869</v>
+        <v>0.291324209473635</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" si="0"/>
-        <v>953.854756572085</v>
+        <v>937.757522959013</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>30</v>
@@ -3120,30 +4989,30 @@
         <v>32</v>
       </c>
       <c r="B10" s="24">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10" s="30">
         <v>7</v>
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>1502.91957636047</v>
+        <v>4184.63258528827</v>
       </c>
       <c r="F10" s="31">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>0.839094382360675</v>
+        <v>0.296276721034687</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" si="0"/>
-        <v>1261.09137366395</v>
+        <v>1239.80922110411</v>
       </c>
       <c r="I10" s="38">
         <f>G18/E18</f>
-        <v>0.834895456200326</v>
+        <v>0.297312469894043</v>
       </c>
       <c r="J10" s="39">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.844927561628351</v>
+        <v>0.303068620770667</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="1" spans="1:7">
@@ -3151,8 +5020,8 @@
         <v>33</v>
       </c>
       <c r="B11" s="29">
-        <f>B8*0.7/100</f>
-        <v>1.625316</v>
+        <f>B8*1.15/100</f>
+        <v>2.6251004</v>
       </c>
       <c r="D11" s="30">
         <v>8</v>
@@ -3175,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="15" customFormat="1" spans="4:10">
+    <row r="13" s="15" customFormat="1" spans="4:7">
       <c r="D13" s="30">
         <v>10</v>
       </c>
@@ -3185,94 +5054,91 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" s="15" customFormat="1" spans="4:9">
+    </row>
+    <row r="14" s="15" customFormat="1" spans="4:7">
       <c r="D14" s="30">
         <v>11</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="28"/>
-      <c r="I14" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" s="15" customFormat="1" spans="4:9">
+      <c r="G14" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="15" customFormat="1" spans="4:7">
       <c r="D15" s="30">
         <v>12</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="28"/>
-      <c r="I15" s="29">
-        <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>0.844927561628351</v>
-      </c>
-    </row>
-    <row r="16" s="15" customFormat="1" spans="4:9">
+      <c r="G15" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="15" customFormat="1" spans="4:7">
       <c r="D16" s="30">
         <v>13</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="31"/>
-      <c r="G16" s="28"/>
-      <c r="I16" s="42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" s="15" customFormat="1" ht="18.15" spans="4:10">
+      <c r="G16" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="15" customFormat="1" ht="18.15" spans="4:7">
       <c r="D17" s="32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" s="33">
         <f>SUM(E3:E16)*3</f>
-        <v>17358.3702094623</v>
+        <v>48331.5293436506</v>
       </c>
       <c r="F17" s="34">
-        <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>0.843849250527386</v>
+        <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5)/100),MAX(F3:F16)*(1+($B$5)/100))</f>
+        <v>0.301313425292276</v>
       </c>
       <c r="G17" s="35">
-        <f>E17*F17</f>
-        <v>14647.8476916316</v>
-      </c>
-      <c r="I17" s="29">
-        <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>1.20160019479336</v>
-      </c>
-      <c r="J17" s="38" t="str">
-        <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
-        <v>TIENE QUE BAJAR</v>
-      </c>
-    </row>
-    <row r="18" s="15" customFormat="1" spans="4:9">
+        <f t="shared" si="0"/>
+        <v>14562.9386561495</v>
+      </c>
+    </row>
+    <row r="18" s="15" customFormat="1" spans="4:8">
       <c r="D18" s="36"/>
       <c r="E18" s="36">
         <f>SUM(E3:E17)</f>
-        <v>23144.4936126163</v>
+        <v>64442.0391248675</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36">
         <f>SUM(G3:G17)</f>
-        <v>19323.2325532309</v>
+        <v>19159.4218172229</v>
       </c>
       <c r="H18" s="36"/>
-      <c r="I18" s="42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" s="15" customFormat="1" spans="9:9">
-      <c r="I19" s="37">
-        <f>G18/B3</f>
-        <v>8.32223566817875</v>
+    </row>
+    <row r="19" s="15" customFormat="1" spans="4:6">
+      <c r="D19" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29">
+        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
+        <v>0.303068620770667</v>
       </c>
     </row>
     <row r="20" s="15" customFormat="1"/>
-    <row r="21" s="15" customFormat="1"/>
+    <row r="21" s="15" customFormat="1" spans="4:6">
+      <c r="D21" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29">
+        <f>G18/E18</f>
+        <v>0.297312469894043</v>
+      </c>
+    </row>
     <row r="22" s="15" customFormat="1" spans="16376:16384">
       <c r="XEV22" s="16"/>
       <c r="XEW22" s="16"/>
@@ -3284,7 +5150,15 @@
       <c r="XFC22" s="16"/>
       <c r="XFD22" s="16"/>
     </row>
-    <row r="23" s="15" customFormat="1" spans="16376:16384">
+    <row r="23" s="15" customFormat="1" spans="4:16384">
+      <c r="D23" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29">
+        <f>IF($B$1="BUY",(($F$17/$F$19)-1)*100,(($F$19/$F$17)-1)*100)</f>
+        <v>0.582514860294725</v>
+      </c>
       <c r="XEV23" s="16"/>
       <c r="XEW23" s="16"/>
       <c r="XEX23" s="16"/>
@@ -3306,10 +5180,56 @@
       <c r="XFC24" s="16"/>
       <c r="XFD24" s="16"/>
     </row>
+    <row r="25" s="15" customFormat="1" spans="4:16384">
+      <c r="D25" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29">
+        <f>IF($B$1="BUY",(($F$21/$F$19)-1)*100,(($F$19/$F$21)-1)*100)</f>
+        <v>1.9360610332539</v>
+      </c>
+      <c r="XEV25" s="16"/>
+      <c r="XEW25" s="16"/>
+      <c r="XEX25" s="16"/>
+      <c r="XEY25" s="16"/>
+      <c r="XEZ25" s="16"/>
+      <c r="XFA25" s="16"/>
+      <c r="XFB25" s="16"/>
+      <c r="XFC25" s="16"/>
+      <c r="XFD25" s="16"/>
+    </row>
+    <row r="26" s="15" customFormat="1" spans="16376:16384">
+      <c r="XEV26" s="16"/>
+      <c r="XEW26" s="16"/>
+      <c r="XEX26" s="16"/>
+      <c r="XEY26" s="16"/>
+      <c r="XEZ26" s="16"/>
+      <c r="XFA26" s="16"/>
+      <c r="XFB26" s="16"/>
+      <c r="XFC26" s="16"/>
+      <c r="XFD26" s="16"/>
+    </row>
+    <row r="27" s="15" customFormat="1" spans="4:16384">
+      <c r="D27" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29">
+        <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
+        <v>15.1039197761742</v>
+      </c>
+      <c r="XEV27" s="16"/>
+      <c r="XEW27" s="16"/>
+      <c r="XEX27" s="16"/>
+      <c r="XEY27" s="16"/>
+      <c r="XEZ27" s="16"/>
+      <c r="XFA27" s="16"/>
+      <c r="XFB27" s="16"/>
+      <c r="XFC27" s="16"/>
+      <c r="XFD27" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I13:J13"/>
-  </mergeCells>
   <conditionalFormatting sqref="J6">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>$J$6&gt;=$B$4</formula>
@@ -3374,6 +5294,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3383,7 +5304,7 @@
   <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -3453,7 +5374,7 @@
       </c>
       <c r="J3" s="37">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-1.89928962687925</v>
+        <v>-0.438496174598579</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:10">
@@ -3462,7 +5383,7 @@
       </c>
       <c r="B4" s="29">
         <f>-B3*$B$10/100</f>
-        <v>-370.9381</v>
+        <v>-57.0674</v>
       </c>
       <c r="D4" s="30">
         <v>1</v>
@@ -3473,18 +5394,18 @@
       </c>
       <c r="F4" s="31">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.2677761</v>
+        <v>0.2646165</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>232.1501832</v>
+        <v>229.410948</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="37">
         <f>E18</f>
-        <v>64442.0391248675</v>
+        <v>47703.5087837144</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" spans="1:10">
@@ -3492,29 +5413,29 @@
         <v>22</v>
       </c>
       <c r="B5" s="24">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="30">
         <v>2</v>
       </c>
       <c r="E5" s="26">
-        <f t="shared" ref="E5:E10" si="1">E4*(1+$B$6/100)</f>
+        <f>E4*(1+$B$6/100)</f>
         <v>1127.04322066084</v>
       </c>
       <c r="F5" s="31">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.2723282937</v>
+        <v>0.2659395825</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" si="0"/>
-        <v>306.92575720872</v>
+        <v>299.725403562</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="37">
         <f>J4*J10</f>
-        <v>19530.3599172229</v>
+        <v>13014.3438656543</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" spans="1:10">
@@ -3528,23 +5449,23 @@
         <v>3</v>
       </c>
       <c r="E6" s="26">
-        <f t="shared" si="1"/>
+        <f>E5*(1+$B$6/100)</f>
         <v>1465.1561868591</v>
       </c>
       <c r="F6" s="31">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>0.2769578746929</v>
+        <v>0.2672692804125</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" si="0"/>
-        <v>405.786543605649</v>
+        <v>391.591239753753</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="37">
         <f>J3/100*J4*J10</f>
-        <v>-370.938099999998</v>
+        <v>-57.0673999999991</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:10">
@@ -3558,23 +5479,23 @@
         <v>4</v>
       </c>
       <c r="E7" s="26">
-        <f t="shared" si="1"/>
+        <f>E6*(1+$B$6/100)</f>
         <v>1904.70304291683</v>
       </c>
       <c r="F7" s="31">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>0.281666158562679</v>
+        <v>0.268605626814562</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" si="0"/>
-        <v>536.490389301028</v>
+        <v>511.613954738278</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="29">
         <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
-        <v>15.1039197761742</v>
+        <v>3.61463324035292</v>
       </c>
     </row>
     <row r="8" s="15" customFormat="1" spans="1:7">
@@ -3589,16 +5510,16 @@
         <v>5</v>
       </c>
       <c r="E8" s="26">
-        <f t="shared" si="1"/>
+        <f>E7*(1+$B$6/100)</f>
         <v>2476.11395579187</v>
       </c>
       <c r="F8" s="31">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>0.286454483258245</v>
+        <v>0.269948654948635</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" si="0"/>
-        <v>709.293943694889</v>
+        <v>668.42363186556</v>
       </c>
     </row>
     <row r="9" s="15" customFormat="1" spans="1:10">
@@ -3612,16 +5533,16 @@
         <v>6</v>
       </c>
       <c r="E9" s="26">
-        <f t="shared" si="1"/>
+        <f>E8*(1+$B$6/100)</f>
         <v>3218.94814252943</v>
       </c>
       <c r="F9" s="31">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>0.291324209473635</v>
+        <v>0.271298398223378</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" si="0"/>
-        <v>937.757522959013</v>
+        <v>873.295475032354</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>30</v>
@@ -3635,35 +5556,29 @@
         <v>32</v>
       </c>
       <c r="B10" s="24">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D10" s="30">
         <v>7</v>
       </c>
-      <c r="E10" s="26">
-        <f t="shared" si="1"/>
-        <v>4184.63258528827</v>
-      </c>
-      <c r="F10" s="31">
-        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>0.296276721034687</v>
-      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="28">
         <f t="shared" si="0"/>
-        <v>1239.80922110411</v>
+        <v>0</v>
       </c>
       <c r="I10" s="38">
         <f>G18/E18</f>
-        <v>0.297312469894043</v>
+        <v>0.271621035769131</v>
       </c>
       <c r="J10" s="39">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.303068620770667</v>
+        <v>0.272817329321849</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="1" spans="1:7">
       <c r="A11" s="23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B11" s="29">
         <f>B8*1.15/100</f>
@@ -3736,42 +5651,42 @@
     </row>
     <row r="17" s="15" customFormat="1" ht="18.15" spans="4:7">
       <c r="D17" s="32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" s="33">
         <f>SUM(E3:E16)*3</f>
-        <v>48331.5293436506</v>
+        <v>35777.6315877858</v>
       </c>
       <c r="F17" s="34">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5)/100),MAX(F3:F16)*(1+($B$5)/100))</f>
-        <v>0.301313425292276</v>
+        <v>0.272654890214495</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="0"/>
-        <v>14562.9386561495</v>
+        <v>9754.94621270239</v>
       </c>
     </row>
     <row r="18" s="15" customFormat="1" spans="4:8">
       <c r="D18" s="36"/>
       <c r="E18" s="36">
         <f>SUM(E3:E17)</f>
-        <v>64442.0391248675</v>
+        <v>47703.5087837144</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36">
         <f>SUM(G3:G17)</f>
-        <v>19159.4218172229</v>
+        <v>12957.2764656543</v>
       </c>
       <c r="H18" s="36"/>
     </row>
     <row r="19" s="15" customFormat="1" spans="4:6">
       <c r="D19" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.303068620770667</v>
+        <v>0.272817329321849</v>
       </c>
     </row>
     <row r="20" s="15" customFormat="1"/>
@@ -3782,7 +5697,7 @@
       <c r="E21" s="29"/>
       <c r="F21" s="29">
         <f>G18/E18</f>
-        <v>0.297312469894043</v>
+        <v>0.271621035769131</v>
       </c>
     </row>
     <row r="22" s="15" customFormat="1" spans="16376:16384">
@@ -3798,12 +5713,12 @@
     </row>
     <row r="23" s="15" customFormat="1" spans="4:16384">
       <c r="D23" s="23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29">
         <f>IF($B$1="BUY",(($F$17/$F$19)-1)*100,(($F$19/$F$17)-1)*100)</f>
-        <v>0.582514860294725</v>
+        <v>0.0595768178690115</v>
       </c>
       <c r="XEV23" s="16"/>
       <c r="XEW23" s="16"/>
@@ -3828,12 +5743,12 @@
     </row>
     <row r="25" spans="4:6">
       <c r="D25" s="23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29">
         <f>IF($B$1="BUY",(($F$21/$F$19)-1)*100,(($F$19/$F$21)-1)*100)</f>
-        <v>1.9360610332539</v>
+        <v>0.440427432039958</v>
       </c>
     </row>
     <row r="27" spans="4:6">
@@ -3843,7 +5758,7 @@
       <c r="E27" s="29"/>
       <c r="F27" s="29">
         <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
-        <v>15.1039197761742</v>
+        <v>3.61463324035292</v>
       </c>
     </row>
   </sheetData>
@@ -3953,31 +5868,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3989,7 +5904,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E3" s="7">
         <v>3412</v>
@@ -4020,14 +5935,14 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2">
         <v>13</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
@@ -4195,895 +6110,895 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G31" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
         <v>96</v>
       </c>
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -331,11 +331,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
   <fonts count="27">
@@ -403,9 +403,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,10 +418,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,19 +448,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,23 +464,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,37 +488,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,6 +514,34 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,7 +580,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,7 +694,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,115 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,25 +742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,17 +1014,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,15 +1034,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,11 +1062,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,16 +1091,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1121,130 +1121,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1288,77 +1288,77 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1683,31 +1683,19 @@
                   <c:v>0.2633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2646165</c:v>
+                  <c:v>0.2677761</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2659395825</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2672692804125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.268605626814562</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.269948654948635</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.271298398223378</c:v>
+                  <c:v>0.2723282937</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.272654890214495</c:v>
+                  <c:v>0.2769578746929</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.272817329321849</c:v>
+                  <c:v>0.278761048581038</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.271621035769131</c:v>
+                  <c:v>0.274771654641645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2428,31 +2416,19 @@
                   <c:v>0.2633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2646165</c:v>
+                  <c:v>0.2677761</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2659395825</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2672692804125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.268605626814562</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.269948654948635</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.271298398223378</c:v>
+                  <c:v>0.2723282937</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.272654890214495</c:v>
+                  <c:v>0.2769578746929</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.272817329321849</c:v>
+                  <c:v>0.278761048581038</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.271621035769131</c:v>
+                  <c:v>0.274771654641645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5304,7 +5280,7 @@
   <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -5360,21 +5336,21 @@
       </c>
       <c r="E3" s="26">
         <f>G3/F3</f>
-        <v>866.956323585264</v>
+        <v>5418.4770224079</v>
       </c>
       <c r="F3" s="27">
         <v>0.2633</v>
       </c>
       <c r="G3" s="28">
         <f>B8</f>
-        <v>228.2696</v>
+        <v>1426.685</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="37">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-0.438496174598579</v>
+        <v>-1.43111598973418</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:10">
@@ -5383,29 +5359,29 @@
       </c>
       <c r="B4" s="29">
         <f>-B3*$B$10/100</f>
-        <v>-57.0674</v>
+        <v>-285.337</v>
       </c>
       <c r="D4" s="30">
         <v>1</v>
       </c>
       <c r="E4" s="26">
         <f>E3</f>
-        <v>866.956323585264</v>
+        <v>5418.4770224079</v>
       </c>
       <c r="F4" s="31">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.2646165</v>
+        <v>0.2677761</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>229.410948</v>
+        <v>1450.938645</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="37">
         <f>E18</f>
-        <v>47703.5087837144</v>
+        <v>71523.8966957843</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" spans="1:10">
@@ -5413,29 +5389,29 @@
         <v>22</v>
       </c>
       <c r="B5" s="24">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="D5" s="30">
         <v>2</v>
       </c>
       <c r="E5" s="26">
         <f>E4*(1+$B$6/100)</f>
-        <v>1127.04322066084</v>
+        <v>7044.02012913027</v>
       </c>
       <c r="F5" s="31">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.2659395825</v>
+        <v>0.2723282937</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" si="0"/>
-        <v>299.725403562</v>
+        <v>1918.2859825545</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="37">
         <f>J4*J10</f>
-        <v>13014.3438656543</v>
+        <v>19938.0764415187</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" spans="1:10">
@@ -5448,24 +5424,18 @@
       <c r="D6" s="30">
         <v>3</v>
       </c>
-      <c r="E6" s="26">
-        <f>E5*(1+$B$6/100)</f>
-        <v>1465.1561868591</v>
-      </c>
-      <c r="F6" s="31">
-        <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>0.2672692804125</v>
-      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="28">
         <f t="shared" si="0"/>
-        <v>391.591239753753</v>
+        <v>0</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="37">
         <f>J3/100*J4*J10</f>
-        <v>-57.0673999999991</v>
+        <v>-285.336999999997</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:10">
@@ -5478,24 +5448,18 @@
       <c r="D7" s="30">
         <v>4</v>
       </c>
-      <c r="E7" s="26">
-        <f>E6*(1+$B$6/100)</f>
-        <v>1904.70304291683</v>
-      </c>
-      <c r="F7" s="31">
-        <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>0.268605626814562</v>
-      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="28">
         <f t="shared" si="0"/>
-        <v>511.613954738278</v>
+        <v>0</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="29">
         <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
-        <v>3.61463324035292</v>
+        <v>5.87202756590903</v>
       </c>
     </row>
     <row r="8" s="15" customFormat="1" spans="1:7">
@@ -5504,22 +5468,16 @@
       </c>
       <c r="B8" s="29">
         <f>B3*$B$9/100</f>
-        <v>228.2696</v>
+        <v>1426.685</v>
       </c>
       <c r="D8" s="30">
         <v>5</v>
       </c>
-      <c r="E8" s="26">
-        <f>E7*(1+$B$6/100)</f>
-        <v>2476.11395579187</v>
-      </c>
-      <c r="F8" s="31">
-        <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>0.269948654948635</v>
-      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="28">
         <f t="shared" si="0"/>
-        <v>668.42363186556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" s="15" customFormat="1" spans="1:10">
@@ -5527,22 +5485,16 @@
         <v>29</v>
       </c>
       <c r="B9" s="24">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D9" s="30">
         <v>6</v>
       </c>
-      <c r="E9" s="26">
-        <f>E8*(1+$B$6/100)</f>
-        <v>3218.94814252943</v>
-      </c>
-      <c r="F9" s="31">
-        <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>0.271298398223378</v>
-      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="28">
         <f t="shared" si="0"/>
-        <v>873.295475032354</v>
+        <v>0</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>30</v>
@@ -5556,7 +5508,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="24">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D10" s="30">
         <v>7</v>
@@ -5569,11 +5521,11 @@
       </c>
       <c r="I10" s="38">
         <f>G18/E18</f>
-        <v>0.271621035769131</v>
+        <v>0.274771654641645</v>
       </c>
       <c r="J10" s="39">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.272817329321849</v>
+        <v>0.278761048581038</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="1" spans="1:7">
@@ -5582,7 +5534,7 @@
       </c>
       <c r="B11" s="29">
         <f>B8*1.15/100</f>
-        <v>2.6251004</v>
+        <v>16.4068775</v>
       </c>
       <c r="D11" s="30">
         <v>8</v>
@@ -5655,27 +5607,27 @@
       </c>
       <c r="E17" s="33">
         <f>SUM(E3:E16)*3</f>
-        <v>35777.6315877858</v>
+        <v>53642.9225218382</v>
       </c>
       <c r="F17" s="34">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5)/100),MAX(F3:F16)*(1+($B$5)/100))</f>
-        <v>0.272654890214495</v>
+        <v>0.2769578746929</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="0"/>
-        <v>9754.94621270239</v>
+        <v>14856.8298139642</v>
       </c>
     </row>
     <row r="18" s="15" customFormat="1" spans="4:8">
       <c r="D18" s="36"/>
       <c r="E18" s="36">
         <f>SUM(E3:E17)</f>
-        <v>47703.5087837144</v>
+        <v>71523.8966957843</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36">
         <f>SUM(G3:G17)</f>
-        <v>12957.2764656543</v>
+        <v>19652.7394415187</v>
       </c>
       <c r="H18" s="36"/>
     </row>
@@ -5686,7 +5638,7 @@
       <c r="E19" s="29"/>
       <c r="F19" s="29">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.272817329321849</v>
+        <v>0.278761048581038</v>
       </c>
     </row>
     <row r="20" s="15" customFormat="1"/>
@@ -5697,7 +5649,7 @@
       <c r="E21" s="29"/>
       <c r="F21" s="29">
         <f>G18/E18</f>
-        <v>0.271621035769131</v>
+        <v>0.274771654641645</v>
       </c>
     </row>
     <row r="22" s="15" customFormat="1" spans="16376:16384">
@@ -5718,7 +5670,7 @@
       <c r="E23" s="29"/>
       <c r="F23" s="29">
         <f>IF($B$1="BUY",(($F$17/$F$19)-1)*100,(($F$19/$F$17)-1)*100)</f>
-        <v>0.0595768178690115</v>
+        <v>0.651064314433358</v>
       </c>
       <c r="XEV23" s="16"/>
       <c r="XEW23" s="16"/>
@@ -5748,7 +5700,7 @@
       <c r="E25" s="29"/>
       <c r="F25" s="29">
         <f>IF($B$1="BUY",(($F$21/$F$19)-1)*100,(($F$19/$F$21)-1)*100)</f>
-        <v>0.440427432039958</v>
+        <v>1.45189428094279</v>
       </c>
     </row>
     <row r="27" spans="4:6">
@@ -5758,7 +5710,7 @@
       <c r="E27" s="29"/>
       <c r="F27" s="29">
         <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
-        <v>3.61463324035292</v>
+        <v>5.87202756590903</v>
       </c>
     </row>
   </sheetData>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -331,11 +331,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
   <fonts count="27">
@@ -403,8 +403,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,17 +413,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,16 +433,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,6 +450,20 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,18 +478,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,37 +517,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,6 +580,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -592,7 +604,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,31 +658,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +700,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,79 +736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,19 +754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,22 +1003,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,6 +1029,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,32 +1081,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,15 +1103,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1124,127 +1124,127 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1288,77 +1288,77 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1688,14 +1688,20 @@
                 <c:pt idx="2">
                   <c:v>0.2723282937</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="3">
                   <c:v>0.2769578746929</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.281666158562679</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.286454483258245</c:v>
+                </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.278761048581038</c:v>
+                  <c:v>0.288015769929533</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.274771654641645</c:v>
+                  <c:v>0.283436320924385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2421,14 +2427,20 @@
                 <c:pt idx="2">
                   <c:v>0.2723282937</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="3">
                   <c:v>0.2769578746929</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.281666158562679</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.286454483258245</c:v>
+                </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.278761048581038</c:v>
+                  <c:v>0.288015769929533</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.274771654641645</c:v>
+                  <c:v>0.283436320924385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4713,7 +4725,7 @@
   <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A3" sqref="A3:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -5280,7 +5292,7 @@
   <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -5336,21 +5348,21 @@
       </c>
       <c r="E3" s="26">
         <f>G3/F3</f>
-        <v>5418.4770224079</v>
+        <v>1083.69540448158</v>
       </c>
       <c r="F3" s="27">
         <v>0.2633</v>
       </c>
       <c r="G3" s="28">
         <f>B8</f>
-        <v>1426.685</v>
+        <v>285.337</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="37">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-1.43111598973418</v>
+        <v>-1.58999939700128</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:10">
@@ -5359,14 +5371,14 @@
       </c>
       <c r="B4" s="29">
         <f>-B3*$B$10/100</f>
-        <v>-285.337</v>
+        <v>-142.6685</v>
       </c>
       <c r="D4" s="30">
         <v>1</v>
       </c>
       <c r="E4" s="26">
         <f>E3</f>
-        <v>5418.4770224079</v>
+        <v>1083.69540448158</v>
       </c>
       <c r="F4" s="31">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
@@ -5374,14 +5386,14 @@
       </c>
       <c r="G4" s="28">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>1450.938645</v>
+        <v>290.187729</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="37">
         <f>E18</f>
-        <v>71523.8966957843</v>
+        <v>31154.0754880365</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" spans="1:10">
@@ -5395,8 +5407,8 @@
         <v>2</v>
       </c>
       <c r="E5" s="26">
-        <f>E4*(1+$B$6/100)</f>
-        <v>7044.02012913027</v>
+        <f t="shared" ref="E5:E10" si="1">E4*(1+$B$6/100)</f>
+        <v>1408.80402582605</v>
       </c>
       <c r="F5" s="31">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
@@ -5404,14 +5416,14 @@
       </c>
       <c r="G5" s="28">
         <f t="shared" si="0"/>
-        <v>1918.2859825545</v>
+        <v>383.6571965109</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="37">
         <f>J4*J10</f>
-        <v>19938.0764415187</v>
+        <v>8972.86503812962</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" spans="1:10">
@@ -5424,18 +5436,24 @@
       <c r="D6" s="30">
         <v>3</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="31"/>
+      <c r="E6" s="26">
+        <f t="shared" si="1"/>
+        <v>1831.44523357387</v>
+      </c>
+      <c r="F6" s="31">
+        <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
+        <v>0.2769578746929</v>
+      </c>
       <c r="G6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>507.233179507061</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="37">
         <f>J3/100*J4*J10</f>
-        <v>-285.336999999997</v>
+        <v>-142.6685</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:10">
@@ -5448,18 +5466,24 @@
       <c r="D7" s="30">
         <v>4</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="31"/>
+      <c r="E7" s="26">
+        <f t="shared" si="1"/>
+        <v>2380.87880364603</v>
+      </c>
+      <c r="F7" s="31">
+        <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
+        <v>0.281666158562679</v>
+      </c>
       <c r="G7" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>670.612986626285</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="29">
         <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
-        <v>5.87202756590903</v>
+        <v>9.38692363446001</v>
       </c>
     </row>
     <row r="8" s="15" customFormat="1" spans="1:7">
@@ -5468,7 +5492,7 @@
       </c>
       <c r="B8" s="29">
         <f>B3*$B$9/100</f>
-        <v>1426.685</v>
+        <v>285.337</v>
       </c>
       <c r="D8" s="30">
         <v>5</v>
@@ -5485,7 +5509,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="24">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D9" s="30">
         <v>6</v>
@@ -5508,7 +5532,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="30">
         <v>7</v>
@@ -5521,11 +5545,11 @@
       </c>
       <c r="I10" s="38">
         <f>G18/E18</f>
-        <v>0.274771654641645</v>
+        <v>0.283436320924385</v>
       </c>
       <c r="J10" s="39">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.278761048581038</v>
+        <v>0.288015769929533</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="1" spans="1:7">
@@ -5534,7 +5558,7 @@
       </c>
       <c r="B11" s="29">
         <f>B8*1.15/100</f>
-        <v>16.4068775</v>
+        <v>3.2813755</v>
       </c>
       <c r="D11" s="30">
         <v>8</v>
@@ -5607,27 +5631,27 @@
       </c>
       <c r="E17" s="33">
         <f>SUM(E3:E16)*3</f>
-        <v>53642.9225218382</v>
+        <v>23365.5566160273</v>
       </c>
       <c r="F17" s="34">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5)/100),MAX(F3:F16)*(1+($B$5)/100))</f>
-        <v>0.2769578746929</v>
+        <v>0.286454483258245</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="0"/>
-        <v>14856.8298139642</v>
+        <v>6693.16844648537</v>
       </c>
     </row>
     <row r="18" s="15" customFormat="1" spans="4:8">
       <c r="D18" s="36"/>
       <c r="E18" s="36">
         <f>SUM(E3:E17)</f>
-        <v>71523.8966957843</v>
+        <v>31154.0754880365</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36">
         <f>SUM(G3:G17)</f>
-        <v>19652.7394415187</v>
+        <v>8830.19653812962</v>
       </c>
       <c r="H18" s="36"/>
     </row>
@@ -5638,7 +5662,7 @@
       <c r="E19" s="29"/>
       <c r="F19" s="29">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.278761048581038</v>
+        <v>0.288015769929533</v>
       </c>
     </row>
     <row r="20" s="15" customFormat="1"/>
@@ -5649,7 +5673,7 @@
       <c r="E21" s="29"/>
       <c r="F21" s="29">
         <f>G18/E18</f>
-        <v>0.274771654641645</v>
+        <v>0.283436320924385</v>
       </c>
     </row>
     <row r="22" s="15" customFormat="1" spans="16376:16384">
@@ -5670,7 +5694,7 @@
       <c r="E23" s="29"/>
       <c r="F23" s="29">
         <f>IF($B$1="BUY",(($F$17/$F$19)-1)*100,(($F$19/$F$17)-1)*100)</f>
-        <v>0.651064314433358</v>
+        <v>0.545038308889367</v>
       </c>
       <c r="XEV23" s="16"/>
       <c r="XEW23" s="16"/>
@@ -5700,7 +5724,7 @@
       <c r="E25" s="29"/>
       <c r="F25" s="29">
         <f>IF($B$1="BUY",(($F$21/$F$19)-1)*100,(($F$19/$F$21)-1)*100)</f>
-        <v>1.45189428094279</v>
+        <v>1.61568883981171</v>
       </c>
     </row>
     <row r="27" spans="4:6">
@@ -5710,63 +5734,63 @@
       <c r="E27" s="29"/>
       <c r="F27" s="29">
         <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
-        <v>5.87202756590903</v>
+        <v>9.38692363446001</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="lessThan">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>$J$6&gt;=$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>IF(AND($J$10&lt;=$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>IF(AND($J$10&gt;$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>IF(AND($J$10&gt;=$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>IF(AND($J$10&lt;$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="4" priority="13">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>$G$18&gt;$B$3*$B$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="greaterThan">
       <formula>$B$3*$B$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="lessThan">
       <formula>$B$3*10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="20" operator="lessThan">
       <formula>#REF!*#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="greaterThan">
       <formula>#REF!*#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D16">
-    <cfRule type="cellIs" dxfId="2" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>#REF!+1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SANTA3/FORMULAss.xlsx
+++ b/SANTA3/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="ESTRUCTURA" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ESTRUCTURA!$A$1:$G$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ESTRUCTURA!$A$1:$G$41</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="103">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>maxLeverage</t>
+  </si>
+  <si>
+    <t>apalancamientoseguncapital</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
   <si>
     <t>SANTA3</t>
@@ -332,13 +338,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.00000"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +357,13 @@
       <i/>
       <sz val="11"/>
       <color theme="4" tint="-0.25"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -403,29 +416,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -434,14 +424,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,14 +446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,18 +461,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,11 +515,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,7 +554,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,121 +593,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,7 +617,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,25 +761,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,16 +1017,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,16 +1047,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,6 +1088,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1091,183 +1113,176 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1292,73 +1307,73 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1366,16 +1381,16 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4632,79 +4647,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="40" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="40" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="41" customWidth="1"/>
-    <col min="4" max="4" width="21.8888888888889" style="42" customWidth="1"/>
-    <col min="5" max="5" width="17.1111111111111" style="42" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="42"/>
+    <col min="1" max="1" width="20.5740740740741" style="42" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="42" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="43" customWidth="1"/>
+    <col min="4" max="4" width="21.8888888888889" style="44" customWidth="1"/>
+    <col min="5" max="5" width="17.1111111111111" style="44" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="47">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>7390.91790332117</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="47">
         <f>D2-A2</f>
         <v>4441.91790332117</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
     </row>
     <row r="4" ht="19.5" customHeight="1"/>
     <row r="5" ht="19.5" customHeight="1"/>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="49"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="50" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="50">
         <f>A9*100/A2</f>
         <v>3.1197015937606</v>
       </c>
@@ -4730,492 +4745,492 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="15" customWidth="1"/>
-    <col min="3" max="3" width="4.55555555555556" style="15" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="15" customWidth="1"/>
-    <col min="5" max="5" width="21.5555555555556" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="15" customWidth="1"/>
-    <col min="8" max="8" width="1.66666666666667" style="15" customWidth="1"/>
-    <col min="9" max="9" width="32.8888888888889" style="15" customWidth="1"/>
-    <col min="10" max="10" width="31.2222222222222" style="15" customWidth="1"/>
-    <col min="11" max="11" width="8.44444444444444" style="15" customWidth="1"/>
-    <col min="12" max="12" width="31.2222222222222" style="15" customWidth="1"/>
-    <col min="13" max="16374" width="8.44444444444444" style="15" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="15"/>
-    <col min="16376" max="16384" width="8.44444444444444" style="16"/>
+    <col min="1" max="1" width="22" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="17" customWidth="1"/>
+    <col min="3" max="3" width="4.55555555555556" style="17" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="17" customWidth="1"/>
+    <col min="5" max="5" width="21.5555555555556" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="17" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="17" customWidth="1"/>
+    <col min="8" max="8" width="1.66666666666667" style="17" customWidth="1"/>
+    <col min="9" max="9" width="32.8888888888889" style="17" customWidth="1"/>
+    <col min="10" max="10" width="31.2222222222222" style="17" customWidth="1"/>
+    <col min="11" max="11" width="8.44444444444444" style="17" customWidth="1"/>
+    <col min="12" max="12" width="31.2222222222222" style="17" customWidth="1"/>
+    <col min="13" max="16374" width="8.44444444444444" style="17" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="17"/>
+    <col min="16376" max="16384" width="8.4444444